--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1638">
   <si>
     <t>id</t>
   </si>
@@ -4646,6 +4646,820 @@
   </si>
   <si>
     <t>Sat Dec 12 15:09:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pemasangan Wifi untuk mendukung pelaksanaan Pembelajaran Jarak Jauh  https://t.co/wUKSDs5evk</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 15:05:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tahun ini #NusantaRun Chapter 8 bekerjasama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh.</t>
+  </si>
+  <si>
+    <t>yogayobella</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 14:07:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kami bersama Pemprov DKI dan @Disdik_DKI melakukan studi eksploratif. Studi ini menggali pengalaman orang tua dan guru saat implementasi belajar dari rumah atau yang dikenal sebagai Pembelajaran Jarak Jauh (#PJJ) 2/9 (ID)</t>
+  </si>
+  <si>
+    <t>JPAL_SEA</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 12:22:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh akibat #COVID19 dapat menimbulkan kendala tersendiri bagi anak-anak. Namun, Ilman punya caranya sendiri untuk mengatasi hal itu.
+Simak video ini untuk tahu tipsnya! https://t.co/P1OOABaP46</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 11:30:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>@collegemenfess Menerapkan sistem pembelajaran jarak jauh (Daring), banyak cabang di tiap kota</t>
+  </si>
+  <si>
+    <t>chocomilmilo</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 10:24:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Metode pembelajaran jarak jauh merupakan hal baru bagi anak sekolah dasar, maka wajar jika mereka perlu bimbingan. 
+#DiktiMengajarDariRumah
+#DiktiDutaEdukasiPerubahanPerilaku https://t.co/B3qkAQbumD</t>
+  </si>
+  <si>
+    <t>ilasynamanya</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 09:44:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>pengalaman mengajar dari rumah yang saya dapatkan yaitu saya sebagai seorang pengajar bagi adik peserta didik, harus bisa menyampaikan materi pelajaran dengan sebaik-baiknya. Proses pembelajaran yang saya lakukan yaitu dengan pembelajaran jarak jauh. https://t.co/BzMJpfKNHk</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 09:40:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>pengalaman mengajar dari rumah yang saya dapatkan yaitu saya sebagai seorang pengajar bagi adik peserta didik, harus bisa menyampaikan materi pelajaran dengan sebaik-baiknya. Proses pembelajaran yang saya lakukan yaitu dengan pembelajaran jarak jauh. https://t.co/9QpGdFTcra</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 09:37:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Masa pandemi yang belum kunjung usai membuat sejumlah aktivitas masih dilakukan secara jarak jauh. Termasuk proses pembelajaran yang dilakukan oleh sejumlah siswa di Al Kamil Islamic Boarding School. https://t.co/1cIXDxJbke</t>
+  </si>
+  <si>
+    <t>mizanamanahorg</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 09:30:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dalam mengajar dari rumah ,cara yang dapat dikembangkan dalam pembelajaran jarak jauh adalah dengan lebih banyak mengutamakan metode pembelajaran yang baik dan benar
+#diktiberlajardarirumah 
+#diktidutaedukasiperubahanperilaku https://t.co/Wa6ZnSqswr</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 09:28:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kegiatan mengajar dari dari rumah sangat membantu adik2 dalam pembelajaran jarak jauh tahun ini, dan orang tua pun senang karena ada yang membantu untuk mengajarkan anak2nya. Semoga apa yg diberikan bermanfaat.
+#diktimengajardarirumah 
+#diktidutaedukasiperubahanperilaku https://t.co/TEHwWGcDlc</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 09:18:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mengajar dari omah menjawab keresahan peserta didik dengan metode pembelajaran jarak jauh
+#diktimengajardarirumah 
+#diktidutaedukasiperubahanperilaku https://t.co/XOrttTrNwf</t>
+  </si>
+  <si>
+    <t>dandynrr_gg</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 09:08:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mengajar dari rumah sangat membantu siswa yang kewalahan saat melaksanakan pembelajaran jarak jauh sehingga mempermudah mereka memahami materi pelajaran.
+#diktimengajardarirumah
+#diktidutaedukasiperubahanperilaku https://t.co/yPMUczLouO</t>
+  </si>
+  <si>
+    <t>szlimnwr</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 08:55:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mengajar dari rumah sangat bermanfaat dikala pandemi saat ini, sebab siswa masih belum terbiasa dengan pembelajaran jarak jauh, dengan adanya mengajar dari rumah membantu siswa untuk memahami materi
+#diktimengajardarirumah
+#diktidutaedukasiperubahanperilaku https://t.co/83IcrzeMLa</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 08:49:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh pasti ada ilmu baru dan siswa harus mau menerima. dengan adanya program MDR relawan Harus punya motivasi sebagai guru pembelajar. dan meyakinkan para siswa bahwa jarak tidak menghalangi belajar.
+#DiktiMengajarDariRumah
+#diktidutaedukasiperubahanperilaku https://t.co/yHvD706Ok1</t>
+  </si>
+  <si>
+    <t>deviambarr</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 08:39:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>mendapat pengalaman yang cukup berkesan dari adanya mengajar dari rumah, bisa saling memberi pengetahuan dan bisa nengetahui keluh kesah mereka selama menjalani pembelajaran jarak jauh
+#DiktiMengajarDariRumah 
+#DiktiDutaEdukasiPerubahanPerilaku https://t.co/1nd9HXYGZI</t>
+  </si>
+  <si>
+    <t>endahwlnsr</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 08:33:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Salah satu bentuk respon pemerintah Indonesia terhadap dampak wabah Coronavirus (COVID-19) terhadap dunia pendidikan adalah dengan mengeluarkan kebijakan pembelajaran jarak jauh. 
+#diktimengajardarirumah 
+#diktidutaedukasiperubahanperilaku https://t.co/13KUHQNa2J</t>
+  </si>
+  <si>
+    <t>DiahLes07178349</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 08:27:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kami kembali menyelenggarakan webinar dengan Topik “Pemanfaatan Aplikasi Geogebra dalam Pembelajaran Matematika Jarak Jauh”
+Pemateri utama kita pada pelatihan kali ini yaitu Bapak Tedi Trikoni, (Tim R&amp;amp;D Pudak Scientific). https://t.co/poVYnrjelL</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 08:13:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Menteri Pendidikan telah mengeluarkan surat edaran terkait pemberlakuan kembali sekolah tatap muka pada awal 2021 mendatang. Hal itu dilakukan lantaran sistem Pembelajaran Jarak Jauh (PJJ) dinilai tidak cukup efektif di beberapa wilayah. Selengkapnya cek https://t.co/q49MOkAHmy https://t.co/aAn4JxZDfE</t>
+  </si>
+  <si>
+    <t>officialside_id</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 07:54:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kepala SMP Regina Pacis Solo MM Wahyu Utami menyatakan, sekolahnya sukses melaksanakan Pembelajaran Jarak Jauh (PJJ) secara efektif dan efisien dengan menggunakan konsep integrated learning.</t>
+  </si>
+  <si>
+    <t>VitaAnisa9</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 07:49:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Problem Pembelajaran Jarak jauh (PBJJ)  bukan sekadar persoalan teknologi, tapi lebih ke persoalan pedagogi.</t>
+  </si>
+  <si>
+    <t>cahyowib</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 06:06:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Kemenag_RI BSU ternyata hanya untuk Guru, sedang Tenaga Kependidikan (operator, dan lainnya) yang mengawal dan bersusah payah dalam penyelenggaraan Pembelajaran Jarak Jauh malah tidak dapat. Apa Kita perlu mogok, menutup akses aplikasi pembelajaran jarak jauh e-learning???</t>
+  </si>
+  <si>
+    <t>ghoribnusantara</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 05:22:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Video ini berisi penggalan-penggalan percakapan siswa di Whatsapp selama Pembelajaran Jarak Jauh/online di masa pandemik. 
+Semoga masa pandemik ini segera berlalu.
+Aamiin 
+https://t.co/io4DsOT8Oa</t>
+  </si>
+  <si>
+    <t>Azbar02</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 04:56:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>-punten ada yang mau sharing di podcast aku tentang self developing di pembelajaran jarak jauh ini? untuk tugas buat podcast, terima kasih sebelumnya</t>
+  </si>
+  <si>
+    <t>ipb_menfess</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 04:10:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>[CM] hai ada anak psikologi yang mau aku wawancarain untuk podcast tentang self developing di pembelajaran jarak jauh ini? ngobrol santai aja sih sebenernya untuk tugas rep aja ya kalian dari kampus mana, makasih sebelumnya🙏😊</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 04:00:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>@pertamina program pembelajaran jarak jauh yg sangat membantu dan memberi bnyk manfaat untuk adik adik kita belajar</t>
+  </si>
+  <si>
+    <t>sarahteleno2</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 03:38:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hai teman-teman yang baik, pandemi Covid 19 mengakibatkan berubahnya kegiatan pembelajaran secara tatap muka menjadi pembelajaran jarak jauh yang memanfaatkan gawai dan jaringan internet memunculkan masalah baru #nusantarundity https://t.co/Us3rIcIBtd</t>
+  </si>
+  <si>
+    <t>iWirasta</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 03:00:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ozimarzuki @fahrul_pupet @mstmhh @mantriss apa ga sebaiknya sebagian dicairkan pada abahnya dulu ya? dananya jauh lebih dr cukup sih menurut saya, kalau menunggu sampe 50jt, bisa jadi pembelajaran jarak jauhnya keburu selesai, atau keburu ada apa lagi. Saya ngerti sih a, kalau misalnya pengen sekalian saja. Tapi kalau mau</t>
+  </si>
+  <si>
+    <t>dheaaamg</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 02:00:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Kamis 17 Desember 2020 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/hdbdXikSke</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 00:14:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>@sjhwnschat @treasuremenfess pjj pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>zrhru</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 21:57:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>PJJ On Show - Evaluasi Pembelajaran Jarak Jauh di Masa Pandemi, 16 Desember 2020 https://t.co/LWwN5vgxtq</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 19:05:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pandemi COVID-19 membuat kegiatan sekolah beralih menjadi pembelajaran jarak jauh. Inovasi baru datang dari Cimahi berupa aplikasi belajar untuk anak sekolah. https://t.co/E98pmibVHb</t>
+  </si>
+  <si>
+    <t>detikinet</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 16:39:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>@IndraJPiliang Dengan kondisi Pembelajaran Jarak Jauh/Kelas Online,anak yg tdnya tdk memanfaatkam hp setiap hari,jd setiap hari menggunakan HP; plus waktu yg terlalu lama di rumah dan terbatasnya aktifitas outbond,mainin HP jd aktifitas rutin...</t>
+  </si>
+  <si>
+    <t>Andika31</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 15:18:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>oh pjj tub pembelajaran jarak jauh anjinx kok gue baru tau https://t.co/v2lboA9PS0</t>
+  </si>
+  <si>
+    <t>ayaflusun</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 14:23:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Persediaan awal membolehkan pihaknya beralih kepada pembelajaran jarak jauh lebih pantas daripada biasa selain memberikan masa secukupnya untuk mempersiapkan guru serta ibu bapa pelajar dalam memainkan peranan penting melancarkan pelaksanaan pendidikan… https://t.co/1OlRPspJts</t>
+  </si>
+  <si>
+    <t>UMonline</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 14:04:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Nah sesi terakhir tenyang pendidikan. Gimana pembelajaran jarak jauh jadi solusi saat pandemi ini.. ada Jakwifi yang mempermudah koneksi, ada zenius, sekolahmu, google dan lain-lain yang jadi kunci pembelajaran anak-anak di Jakarta https://t.co/ETr68tAjib</t>
+  </si>
+  <si>
+    <t>AnggaPutraF</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 13:50:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Solutif banget ini tuh..
+Aplikasi SeOn untuk Pembelajaran Jarak Jauh dari kang @KreatorBuku 
+https://t.co/xLKRG1XICv
+Mimpi #RabuAmbyar</t>
+  </si>
+  <si>
+    <t>lendymut</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 13:38:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Pasti mau kan... Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆.
+Solusinya, pakai https://t.co/n96eKgHNS3. Bisa terhubung dengan Zoom, Google Meet, dan Youtube https://t.co/W1KI5DySd6</t>
+  </si>
+  <si>
+    <t>ferlifingerspot</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 12:52:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Institut Informatika dan Bisnis (IIB) Darmajaya menerima Program Sosial Bank Indonesia (PSBI) berupa laptop dan perangkat lainnya dalam mendukung kegiatan pembelajaran jarak jauh (PJJ). https://t.co/NLgDnxpzXY</t>
+  </si>
+  <si>
+    <t>rilislampung</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 12:14:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>pjji anjir, pjj mah pembelajaran jarak jauh https://t.co/rB0z2QMgvT</t>
+  </si>
+  <si>
+    <t>inipacarjae</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 11:04:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Pasti mau kan... Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆.
+Solusinya, pakai https://t.co/qz3EzxDKa2. https://t.co/k3ItebdO6i</t>
+  </si>
+  <si>
+    <t>RofiFingerspot</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 08:50:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tentu selama semester satu ini, siswa-siswi Sekolah Prestasi Global menjalani pembelajaran jarak jauh dari rumah yang tentu tidak lepas dari peran orang tua dalam mendampingi ananda dalam belajar hingga mengerjakan tugas.⁣
+#PrestasiGlobal https://t.co/qN0BcFaonE</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 07:52:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>@O9K1MJUN pjj : pembelajaran jarak jauh :(</t>
+  </si>
+  <si>
+    <t>pyochiz</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 07:17:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>-jn
+PJJ = pembelajaran jarak jauh ❎
+PJJ = persatuan jodoh jeno ✅</t>
+  </si>
+  <si>
+    <t>JenoFess</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 06:30:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>PJJ (pembelajaran jarak jauh) itu memang berat pak/bu, menguras kesabaran pokoknya ngeselin..
+Tapi dengan situasi pandemi yg semakin parah dan tdk jelas, bertahanlah sebentar lagi. Ayo dorong pemerintah agar tidak segera memberlakukan pembelajaran tatap muka.</t>
+  </si>
+  <si>
+    <t>esonesia</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 04:28:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Rabu, 16 Desember 2020. Giat Camat Lengkong Mengikuti Pelatihan Peningkatan Kompetensi Softskill melalui Pelatihan Mengelola Diri Sendiri dalam Metode Pembelajaran Jarak Jauh via Zoom Meeting @ Kecamatan Lengkong https://t.co/bB14gmLLKC</t>
+  </si>
+  <si>
+    <t>keclengkong</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 03:34:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Permainan Ringan dalam Pembelajaran Jarak Jauh https://t.co/AnXyss2c63</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 03:14:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>DPRD Karawang Minta Pembelajaran Jarak Jauh Dioptimalkan via Radio Pemerintah https://t.co/gcYxwNB5R8 #TempoMetro</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 02:14:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Miris, Lebih dari 50% Siswa Tak Paham Materi Pembelajaran Jarak Jauh https://t.co/hGrf4Wg7Wp #beritajogja #jogja #jogjaistimewa https://t.co/2Wfz9L1ExU</t>
+  </si>
+  <si>
+    <t>Harian_Jogja</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 16:35:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sebelum pembelajaran jarah jauh, aku sudah terlatih dengan hubungan jarak jauh :)))</t>
+  </si>
+  <si>
+    <t>gasukaneduhaja</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 16:22:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh bisa membawa tekanan psikologis pada anak. Komisi Perlindungan Anak Indonesia mengungkap aneka tekanan secara psikologis yang mendera anak selama mengikuti Pembelajaran Jarak Jauh (PJJ) secara daring yang dilakukan selama pandemi Covid-19.</t>
+  </si>
+  <si>
+    <t>birusebiru1</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 14:52:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>isyanisivis</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 14:45:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>ngobrolbasi</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 14:04:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Vaksin Covid-19 Harapan pendidikan bisa kembali normal
+Pembelajaran jarak jauh bs membawa tekanan psikologis pd anak. Komisi Perlindungan Anak Indonesia mengungkap aneka tekanan secara psikologis yg mendera anak selama mengikuti PJJ secara daring yg dilakukan slm pandemi Covid19</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 12:35:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh bisa membawa tekanan psikologis pada anak. Komisi Perlindungan Anak Indonesia mengungkap aneka tekanan secara psikologis yang mendera anak selama mengikuti Pembelajaran Jarak Jauh (PJJ) secara daring yang dilakukan selama pandemi Covid-19. https://t.co/qYKKCHzbM3</t>
+  </si>
+  <si>
+    <t>Aqilanabila9</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 12:28:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>AlifiaaVia</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 12:14:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>AgnesiaaSilvaa</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 12:13:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Vaksin Covid-19 Harapan pendidikan bisa kembali normal
+Pembelajaran jarak jauh bisa membawa tekanan psikologis pada anak. Komisi Perlindungan Anak Indonesia mengungkap aneka tekanan secara psikologis yang mendera anak selama mengikuti Pembelajaran Jarak Jauh (PJJ)</t>
+  </si>
+  <si>
+    <t>ekasurvati</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 11:51:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Vaksin Covid-19 Harapan pendidikan bisa kembali normal
+Pembelajaran jarak jauh bisa mebawa tekanan psikologis pd ank.Komisi Perlindungan Anak Indonesia mengungkap aneka tekanan secara psikologis yg mendera ank slama mengikuti PJJ secara daring yg dilakukan selama pandemi Covid-19</t>
+  </si>
+  <si>
+    <t>Cikunana1</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 11:48:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Komisi Perlindungan Anak Indonesia mengungkap aneka tekanan secara psikologis yang mendera anak selama mengikuti Pembelajaran Jarak Jauh (PJJ) secara daring yang dilakukan selama pandemi Covid-19.</t>
+  </si>
+  <si>
+    <t>sebutsayaviki</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 11:44:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Vaksin Covid-19 Harapan pendidikan bisa kembali normal
+Pembelajaran jarak jauh bisa membawa tekanan psikologis pada anak.</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 11:44:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>sayasiapasih5</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 11:43:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Komisi Perlindungan Anak Indonesia mengungkap aneka tekanan secara psikologis yang mendera anak selama mengikuti Pembelajaran Jarak Jauh (PJJ) secara daring yang dilakukan selama pandemi Covid-19</t>
+  </si>
+  <si>
+    <t>calonmantumama6</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 11:35:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Halo, apakah disini ada kenalan tempat menyumbang gadget untuk anak2 yg butuh pembelajaran jarak jauh?
+Mohon infonya ya, terima kasih</t>
+  </si>
+  <si>
+    <t>angga1402</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 09:24:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>93 Persen Orangtua Setuju Pembelajaran Jarak Jauh, Ada Syaratnya https://t.co/GbIigJjVij</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 08:27:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>ketika sekolah-sekolah ditutup oleh pemerintah pada Maret 2020, staf pengajar SIS, peserta didik, sudah dipersiapkan untuk model Pembelajaran Jarak Jauh. https://t.co/tzLAxMLR65</t>
+  </si>
+  <si>
+    <t>detikfinance</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 07:30:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Asesmen Kompetensi Minimum dan Implikasinya dalam Pembelajaran Jarak Jauh (Bagian 2)
+Tanggal : 16 Desember 2020
+Pukul : 09.00-11.00 WIB
+https://t.co/BQDb1kPhfY
+#infojadwalevent #jadwalevent #seminar #webinar #seminarpendidikan #webinarpendidikan #seminarguru #webinarguru https://t.co/oXaH0WwH8M</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 07:02:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Platform Pembelajaran Jarak Jauh yang sekiranya ideal untuk mahasiswa/i FTUI.
+Link Survey dapat diakses pada link
+https://t.co/E2sWWJFWD3
+Diteruskan Oleh :
+Hubungan Masyarakat
+IMMt FTUI 2020
+#RiseUp
+PEDULI | KOOPERATIF | PROGRESIF</t>
+  </si>
+  <si>
+    <t>immt_ftui</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 07:01:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>[EVALUASI PEMBELAJARAN JARAK JAUH FTUI]
+Pagi Teknik!
+Dalam penggunaan platform PJJ selama semester ini, tentunya kita menggunakan berbagai macam platform untuk belajar tatap dan pengumpulan tugas.
+Oleh karena itu, kami dari pihak BEM FTUI mengadakan Survey Evaluasi  mengenai https://t.co/g8aWdaxxjN</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 07:00:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bapak Ibu Guru, kehadiranmu menjadi penyemangat kami untuk tidak patah semangat dalam menghadapi berbagai tantangan. 
+Di saat kami para #SahabatKarakter menjalani Pembelajaran Jarak Jauh, Bapak Ibu Guru senantiasa memotivasi kami sebagai generasi penerus bangsa. https://t.co/ExRpzT4om5</t>
+  </si>
+  <si>
+    <t>disdikbudkendal</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 07:00:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh bukan berarti tidak sekolah. Hanya mengubah cara belajar dengan media. Lebih baik sabar sejenak daripada memperburuk keadaan.
+Yuk, daftar ke SDTQ Al Abidin Surakarta.
+#sdtqalabidin #sekolahtahfid #sekolahterbaik</t>
+  </si>
+  <si>
+    <t>sdtqalabidin</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 06:53:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh. . Bantu Donasi dengan klik https://t.co/9w9Qpmq0kr</t>
+  </si>
+  <si>
+    <t>maharsapraditya</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 06:23:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ia menilai adaptasi perguruan tinggi dalam pembelajaran jarak jauh dengan daring lebih efisien dan kualitas pembelajaran meningkat termasuk banyaknya kajian lintas disiplin ilmu. #publisherstory https://t.co/JSy3KesIIv</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 06:20:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh?👩‍💻
+Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆.
+Solusinya, pakai https://t.co/DsFs42yR9N. Bisa terhubung dengan Zoom, Google Meet, dan Youtube Live Streaming.💻 https://t.co/lNMXdfcwiQ</t>
+  </si>
+  <si>
+    <t>Mayasaridwi19</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 04:06:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh. . Bantu Donasi dengan klik https://t.co/Y7fgQ9g540</t>
+  </si>
+  <si>
+    <t>chairandyfajri</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:53:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Pasti mau kan... Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆.
+Solusinya, pakai https://t.co/1rIQ8ab0xT.
+#belajaronline 
+#fingerspot https://t.co/SlWG2pIvm4</t>
+  </si>
+  <si>
+    <t>Bambang90500845</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:48:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>[MIMOSA]
+Hallo akang teteh sahabat biologi 👋
+Mimosa edisi Desember dengan tema "Pembelajaran Jarak Jauh" sudah ada di website HIMABIO.
+Silakan unduh MIMOSA edisi Desember pada link https://t.co/iWFfx1YFg8
+#MIMOSA
+#HIMABIOSIAP
+#himabiofkipunpas</t>
+  </si>
+  <si>
+    <t>HimabioUnpas</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:42:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh (PJJ) tak dipungkiri memiliki dampak negatif. Maka, dikeluarkanlah SKB 4 Menteri yang diharapkan mampu mengoptimalkan pembelajaran di masa pandemi. #userstory dari Faozan Amar https://t.co/bGHE8GXPLA</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:40:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh. Bantu Donasi dengan klik https://t.co/jUtWDU2Jmq</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:21:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>@MinkiYnhx Pembelajaran Jarak Jauh itu PeJeJe :)</t>
+  </si>
+  <si>
+    <t>AuDynE22</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:06:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>@nnnajaem Pembelajaran Jarak Jauh
+daring yanc</t>
+  </si>
+  <si>
+    <t>cdhsyazen</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 02:52:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Nadiem_Makarim pak mentri, pembelajaran jarak jauh kok rasanya kurang mengena, baik dr segi kualitas maupin disiplin peserta didik, gimana kalau tahun pelajaran kali ini diperpanjang sehingga masa belajar smp, sma, smk menjadi 3,5 tahun. Mks</t>
+  </si>
+  <si>
+    <t>suyanacipari</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 02:49:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pemadaman listrik lagi. 
+Weekdays.
+Jam kerja dan jam sekolah. 
+WFF.
+Pembelajaran jarak jauh. 
+Oke sekali. 
+@pln_123</t>
+  </si>
+  <si>
+    <t>kobarnendrodewo</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 02:21:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Moots, mau nanya dong, yang kalian rasakan selama proses pembelajaran jarak jauh ini gimana sih????</t>
+  </si>
+  <si>
+    <t>beyondthe_sc</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 01:25:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Menciptakan Intensionalitas Belajar di Ruang Kelas Pembelajaran Jarak Jauh https://t.co/3CkAC9aQUh</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 00:46:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>Cegah Covid, Siswa SPN Lakukan Pembelajaran Jarak Jauh https://t.co/4indWzdTKD</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 23:00:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Selasa 15 Desember 2020 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/0xMXwjJ6V9</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 22:48:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>@rezasnegara Badan Pusat Statistik BPS menyebutkan bahwa pandemi memberikan dampak yang signifikan. Salah satunya adalah anak usia dini mengepel gudang bulog sebagai salah satu bentuk konkret pembelajaran jarak jauh.</t>
+  </si>
+  <si>
+    <t>reramawijaya</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 15:28:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sekarang ada cara praktis dan murah untuk sistem Pembelajaran Jarak Jauh (PJJ), bisa diintegrasikan dengan Zoom, Google Meet dan YouTube Live Stream. Klik link untuk informasi lengkapnya: https://t.co/kSRTd7xYTo
+#Fingerspot
+#Feduio
+#IniKekuatanKita</t>
+  </si>
+  <si>
+    <t>Velysia3</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 14:21:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dalam mengajar dari rumah ,cara yang dapat dikembangkan dalam pembelajaran jarak jauh adalah dengan lebih banyak mengutamakan metode pembelajaran yang baik dan benar
+#diktiberlajardarirumah 
+#diktidutaedukasiperubahanperilaku https://t.co/xEzCsDLYNA</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 13:37:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 07:33:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 06:34:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>meningkatnya produktivitas, pembelajaran jarak jauh, mendorong kegiatan sosial.
+OBL Demi Masa Depan NKRI
+#InvestasiUntukGenerasiMuda https://t.co/IGGWJgK9y0</t>
+  </si>
+  <si>
+    <t>Herniz1</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 00:08:45 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -5008,10 +5822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D560"/>
+  <dimension ref="A1:D697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A539" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K556" sqref="K556"/>
+    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K696" sqref="K696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12856,6 +13670,1924 @@
         <v>1079</v>
       </c>
     </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>1.3395874663453371E+18</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>1.339572842715746E+18</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>1.3395464619947991E+18</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>1.3395332979619799E+18</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C564" t="s">
+        <v>543</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>1.339516853379424E+18</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>1.3395068256164741E+18</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>1.339505659855786E+18</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C567" t="s">
+        <v>880</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>1.3395049027084449E+18</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C568" t="s">
+        <v>880</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>1.3395032872051551E+18</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>1.3395026366350249E+18</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C570" t="s">
+        <v>891</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>1.339500145235296E+18</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>1.3394977719931579E+18</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>1.3394944233238001E+18</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>1.3394930137566001E+18</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>1.33949036600995E+18</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>1.3394888136099351E+18</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>1.3394874471896059E+18</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>1.339483744411873E+18</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C578" t="s">
+        <v>697</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>1.3394790691302559E+18</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>1.339477874122711E+18</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>1.3394519633861629E+18</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>1.339440725700747E+18</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>1.3394343841185961E+18</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>1.3394225881167181E+18</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>1.3394201603570931E+18</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>1.339414522994389E+18</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>1.3394049963416819E+18</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>1.3393900854316109E+18</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>1.3393633134995251E+18</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C589" t="s">
+        <v>154</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>1.3393287067293199E+18</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>1.3392855041355571E+18</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C591" t="s">
+        <v>974</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>1.3392487618858309E+18</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>1.3392283556405079E+18</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>1.3392146790637571E+18</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>1.339209718569591E+18</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>1.339206155873108E+18</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>1.339203355420193E+18</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>1.3391916894794829E+18</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>1.3391820932810829E+18</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>1.3391645439230159E+18</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>1.3391308864202299E+18</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>1.3391162603536589E+18</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C602" t="s">
+        <v>706</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>1.339107378793366E+18</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>1.3390954318469041E+18</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>1.3390649120609439E+18</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>1.3390511286385421E+18</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>1.339046225828405E+18</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C607" t="s">
+        <v>680</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>1.3390310018219251E+18</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C608" t="s">
+        <v>151</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>1.3388853026690419E+18</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>1.3388821694107441E+18</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>1.338859546123489E+18</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>1.3388576586070259E+18</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>1.3388473250751491E+18</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>1.338824902439158E+18</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>1.338823120967201E+18</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>1.338819621235818E+18</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>1.3388195172212239E+18</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>1.338813948565471E+18</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>1.3388131899710341E+18</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>1.338812176165794E+18</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>1.338812174169346E+18</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>1.3388117990307551E+18</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>1.3388117975963279E+18</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>1.338809947090391E+18</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>1.338809945655968E+18</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>1.338776847098626E+18</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>1.3387624826056909E+18</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C627" t="s">
+        <v>366</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>1.3387481401413709E+18</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>1.338741204574294E+18</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>1.3387408436208891E+18</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>1.338740800226697E+18</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>1.3387407742471411E+18</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>1.3387388240467561E+18</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>1.338731309875614E+18</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>1.3387306493398469E+18</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C635" t="s">
+        <v>217</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>1.3386968168422689E+18</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>1.33869367901218E+18</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>1.338692370167042E+18</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>1.3386907538710039E+18</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>1.3386903775664371E+18</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C640" t="s">
+        <v>217</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>1.3386855444867479E+18</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>1.3386818837737139E+18</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>1.338678349149794E+18</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>1.338677607550763E+18</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>1.338670462830666E+18</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>1.33865651194642E+18</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>1.3386465443255621E+18</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C647" t="s">
+        <v>680</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>1.338619806287766E+18</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C648" t="s">
+        <v>273</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>1.3386167714194061E+18</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C649" t="s">
+        <v>154</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>1.3385062056778099E+18</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>1.3384893148967941E+18</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>1.338478246552162E+18</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C652" t="s">
+        <v>891</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>1.338470885896798E+18</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>1.3384697117517E+18</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>1.338460587798348E+18</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C655" t="s">
+        <v>537</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>1.338437013343617E+18</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>1.3384239745778811E+18</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>1.338421796912042E+18</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>1.3384208476906701E+18</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C659" t="s">
+        <v>880</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>1.3384206922917811E+18</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>1.338420507138433E+18</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>1.3384205056367941E+18</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C662" t="s">
+        <v>880</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>1.3384161746865889E+18</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>1.3384133928983759E+18</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>1.338410235006837E+18</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>1.338408906918228E+18</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>1.3384073978538639E+18</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>1.338406618447241E+18</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>1.338402206668575E+18</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>1.3384018156420631E+18</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>1.338401440302174E+18</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>1.33839749352498E+18</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>1.338397059414516E+18</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>1.338396562184053E+18</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D674" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>1.3383959410075771E+18</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D675" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>1.338393278035595E+18</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D676" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>1.338390368081961E+18</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>1.3383900787086211E+18</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D678" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>1.3383881022267469E+18</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>1.338387952380961E+18</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D680" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>1.3383865965093519E+18</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>1.338381467722818E+18</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>1.3383739974869609E+18</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>1.338373956579946E+18</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C684" t="s">
+        <v>537</v>
+      </c>
+      <c r="D684" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>1.338371744533385E+18</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>1.3383712036695329E+18</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>1.338368589288489E+18</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>1.3383648712267689E+18</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>1.338349337680597E+18</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>1.338348098125406E+18</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>1.338288803971125E+18</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>1.3382838147542589E+18</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>1.3382752992265789E+18</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>1.3382748805177139E+18</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>1.3382746950371661E+18</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>1.3382732454690409E+18</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D696" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>1.338272933744001E+18</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1808">
   <si>
     <t>id</t>
   </si>
@@ -5460,6 +5460,587 @@
   </si>
   <si>
     <t>Mon Dec 14 00:08:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Samsung #GalaxyA series paling cocok buat pembelajaran jarak jauh. Dengan dukungan chipset yang mumpuni dan memory gede bisa buat multitasking nyaman dan lancar anti-lag bikin sekolah online jadi sukses, mudah, dan menyenangkan.
+#GalaxyA11
+#SemangatTetapSekolah</t>
+  </si>
+  <si>
+    <t>haniff113_</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 14:17:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Samsung #GalaxyA series mendukung banget buat pembelajaran jarak jauh. Dengan fitur-fitur keren dan canggih yang pasti lengkap dan cukup untuk kebutuhan para pelajar selama sekolah online.
+#GalaxyA11
+#SemangatTetapSekolah</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 14:11:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Samsung #GalaxyA series mendukung banget buat pembelajaran jarak jauh. Dengan harganya yang ramah di kantong memudahkan kalangan pelajar untuk memilikinya.
+#GalaxyA11
+#SemangatTetapSekolah</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 14:09:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>@TyasZain @PartaiSocmed @ProfesorZubairi Divaksin bukan berarti tidak tertular,fungsi vaksin untuk mengurangi berat nya gejala jika mengalami penyakit tsb,solusi nya tetap Pembelajaran Jarak Jauh (PJJ) untuk area zona merah,hanya zona hijau yg bs tatap muka sekolahnya.</t>
+  </si>
+  <si>
+    <t>eboooodee</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 12:36:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Halo Teman-teman, mohon bantuannya untuk mengisi kuisioner "PEMBELAJARAN JARAK JAUH SAAT PANDEMI COVID-19" ya,
+Berikut untuk link kuisionernya :
+https://t.co/Ntu5smpHW4
+Terimakasih yaw buat yg udah ngisi 💖</t>
+  </si>
+  <si>
+    <t>mlnwj_</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 08:56:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kaleidoskop 2020: Hambatan Pembelajaran Jarak Jauh Telah Telan 3 Nyawa https://t.co/Dhk3VoawlK</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 08:56:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh: Anies Pelopori, Nadiem Sudahi https://t.co/mPHvmS475Q</t>
+  </si>
+  <si>
+    <t>CNNIndonesia</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 06:31:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>&amp;lt;&amp;lt;&amp;lt;&amp;lt; News Unika &amp;gt;&amp;gt;&amp;gt;&amp;gt; Prof Ridwan: Wisudawan Kali Ini Generasi Menembus Batas: Sudah hampir satu tahun, perguruan tinggi menyelenggarakan pembelajaran jarak jauh selama pandemi Covid-19. Selama itu pula, sebagian besar universitas… https://t.co/BZs8jQZSRl &amp;lt;&amp;lt;&amp;lt;&amp;lt; News Unika &amp;gt;&amp;gt;&amp;gt;&amp;gt; https://t.co/Bm8POpqZ5d</t>
+  </si>
+  <si>
+    <t>unikasoegija</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 03:02:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>nghokey karna udh bagi rapot gw mau ngeluarin unek" selama PJJ/pembelajaran jarak jauh alias ldr</t>
+  </si>
+  <si>
+    <t>vantechnl</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 02:12:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selama tahun 2020, pemberitaan tentang dinamika pelaksanaan pembelajaran jarak jauh mewarnai pendidikan nasional. Muncul pula narasi masa depan pendidikan berbasis teknologi digital. 
+#Humaniora #adadikompas 
+https://t.co/uf4ZsQaYsl</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 01:55:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>@TyasZain @edwinpangestu @poerwonoegroho @PartaiSocmed Dibsd sampai tahun depan masih online ko,bsd kan tangsel jg...sekolah swasta atau negri blm ada yg belajar tatap muka masih PJJ (pembelajaran jarak jauh)via Zoom untuk tatap muka nya,dan untuk materi pelajaran by GCR.
+Pembagian raport by zoom dan wa file raportnya.</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 01:50:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pusing bat punya bokap yang saraf otaknya udah gak nyambung satu sama lain karena udah digerogotin umur. 
+Perkara surat pembelajaran jarak jauh aja diributin anjir 🤣
+Yg simple dibikin ribet, yg ribet tambah ribet wkwk otak lu kusut</t>
+  </si>
+  <si>
+    <t>hidupinikerad</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 01:02:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Senin 21 Desember 2020 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/eLQf06xHLD</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 00:29:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>@collegemenfess Var X: pengembangan pembelajaran jarak jauh
+Var Y: meningkatkan hasil bljr siswa
+Biasanya meningkatkannya gak usah jadi var Y nya Hasil belajar siswa aja</t>
+  </si>
+  <si>
+    <t>dear762</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 14:54:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Karena selama pembelajaran jarak jauh ini dosen-dosen dan karyawan sudah sangat berjasa mendukung pelaksanaan kuliah secara online, maka Sosmaling HMDK FMIPA UI mengajak teman-teman untuk memberikan apresiasi dosen dan karyawan dengan mengisi kesan dan pesan🎉</t>
+  </si>
+  <si>
+    <t>hmdkimiaui</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 11:27:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran siswa PAUD, SD, SMP tetap diselengarakan menggunakan pembelajaran jarak jauh (daring) https://t.co/aqrjZGGN5A</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 08:22:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pandemi corona membuat pembelajaran jarak jauh alias belajar dari rumah, saya mengajak para siswa bercerita mengenai inovasi dan dedikasi,guru yang memberikan inspirasi dan semangat bagi mereka selama masa pembelajaran,
+#DiktiMengajarDariRumah 
+#diktidutaedukasiperubahanperilaku https://t.co/HX0RFYz6fC</t>
+  </si>
+  <si>
+    <t>AditDwi57757279</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 04:38:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pandemi corona membuat banyak proses belajar-mengajar tatap muka di ruang kelas diubah menjadi pembelajaran jarak jauh alias belajar dari rumah. 
+#DiktiMengajarDariRumah 
+#diktidutaedukasiperubahanperilaku https://t.co/3725ZUo2l3</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 04:29:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>tetap solid, kreatipp dan menyenangkan, alhamdulillh pembelajaran jarak jauh semester 1 usai sudah. 
+selamat liburan di rumah masing-masing. 🥳🥳 https://t.co/pvnzChz1Je</t>
+  </si>
+  <si>
+    <t>nopaq</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 01:18:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>@naufalkyceko pembelajaran berskala jarak jauh alias cekulah online bambank</t>
+  </si>
+  <si>
+    <t>jackdawtheory</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 23:26:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>@guraruID G Suite for education ini dpt mendukung pembelajaran jarak jauh juga. Semakin baik pembelajaran ke depan meskipun pandemi tetap semangat.</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 10:20:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh diperkirakan masih menjadi pilihan di awal semester kedua, awal tahun depan. Meskipun begitu, pihak sekolah tetap menyiapkan kebutuhan untuk menghadapi pembelajaran tatap muka. #Humaniora #AdadiKompas https://t.co/gBGGTQXjHy</t>
+  </si>
+  <si>
+    <t>kompasmuda</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 10:15:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pertamina Foundation Bantu 50 Laptop untuk Pembelajaran Jarak Jauh https://t.co/DxBCafrtLy  @PertaminaFound</t>
+  </si>
+  <si>
+    <t>KebumenUpdate</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 10:04:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Surat Gubernur Jawa Tengah perihal Antisipasi Peningkatan Covid19 di Daerah. 
+- Tidak mengizinkan perayaan Tahun Baru
+- Menunda pembelajaran tatap muka 
+- Mengoptimalkan pembelajaran jarak jauh 
+- Alokasi penambahan tempat tidur untuk pasien Covid19
+#antisipasicorona
+#bebascorona https://t.co/5ZYF9gScbA</t>
+  </si>
+  <si>
+    <t>Ungaran_Wisata</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 09:21:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>3 Tips Efektifkan Pembelajaran Daring Jarak Jauh https://t.co/kAJCect7P6 via @kompasiana</t>
+  </si>
+  <si>
+    <t>seHARIADI</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 06:50:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Iwanfebriantor1 [1/4] Universitas Terbuka adalah perguruan tinggi negeri yang menerapkan sistem pembelajaran terbuka dan jarak jauh.
+Kuliah di UT, yaitu dengan belajar secara mandiri bisa dari rumah atau dimanapun, dengan mempelajari modul UT.
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 06:22:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh?👩‍💻 Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆. Solusinya, pakai https://t.co/N4a2wlo0z6. Bisa terhubung dengan Zoom, Google Meet, dan Youtube Live Streaming.💻 🔘 https://t.co/W92nLe6Eor</t>
+  </si>
+  <si>
+    <t>cancerfit</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 05:41:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Alhamdulillah kita semua sudah berhasil melewati satu semester pembelajaran jarak jauh⁣ dengan baik. Tentu kita berharap keadaan dapat segera membaik dan segera kembali belajar secara tatap muka langsung. Aamiin.⁣⁣⁣
+⁣⁣⁣
+Selamat berlibur semuanya!⁣⁣⁣</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 04:59:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>@babegalak1 Anak dengan keluguan dan kepolosan mereka :) setiap detik, menit dan waktu sangat berkesan saat bersama anak-anak muridku.
+Kesulitan menjadi guru : Kendalanya sekarang adalah pembelajaran jarak jauh, banyak siswa yang kurang mampu jd kesulitan. Kadang saya jg bingung bagaimana</t>
+  </si>
+  <si>
+    <t>nucica08</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 04:02:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>TERIMA KASIH Untuk Ayah-Bunda dan Segenap Keluarga Ataa Segala Upaya Mendampingi dan Mendukung Penuh Proses Pembelajaran Jarak Jauh Selama Pandemi.
+Semoga pandemi segera berakhir, dapat segera diatasi, dan Allah SWT selalu memberkahi langkah kita semua.
+Aamiin ya rabbal'alamin. https://t.co/Ohc4r0i0ao</t>
+  </si>
+  <si>
+    <t>madinatebet</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 03:29:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>@kangngabei @ridwankamil @PemprovJabar @jokowi Tidak ada yg bisa menggaransi bos,  bahkan seorang gub, pres pun bisa kena meski sudah protocol,  tapi bukan berarti semua harus berhenti!!  Kita sepakat belajar jarak jauh tidak optimal,  dicarilah metode yg bisa jadi win2 solution dalam pembelajaran,  tnp mengorbankan hak anak</t>
+  </si>
+  <si>
+    <t>yuwantino12</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 03:23:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kepala Dinas Pendidikan dan Kebudayaan Kabupaten Magelang melalui Kepala Bidang Kebudayaan, Mantep Sudarsono mengatakan, untuk pembelajaran dari siswa PAUD, SD, SMP sampai dengan saat ini masih menyelenggarakan pembelajaran jarak jauh (Daring). 
+https://t.co/u1Sb4Jmjex</t>
+  </si>
+  <si>
+    <t>FastFMMagelang</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 03:15:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Unbelievable.
+Setelah berusaha menerima kenyataan kalau aku tidak bisa bertemu teman sekolahku yang lucu dan memulai sesi pembelajaran jarak jauh, dan akhirnya aku bisa nyaman dengan keadaan saat ini. 
+Tapi, takdir berkata lain.</t>
+  </si>
+  <si>
+    <t>shinesanii</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 02:57:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Pasti mau kan... Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆.
+Info lebih lanjut hubungi 0812-3554-3622 https://t.co/AKw1POdZvn</t>
+  </si>
+  <si>
+    <t>Vikyfingerspot</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 02:13:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>"KSBB Pangan untuk masyarakat kurang mampu, KSBB UMKM untuk UMKM yang mengalami penurunan pendapatan, KSBB Pendidikan untuk peserta didik dan tenaga pendidik yang memiliki keterbatasan dalam pembelajaran jarak jauh, #JktKotaKolaborasi
+https://t.co/B2nzJyrEhb https://t.co/fgWEZpEP3g</t>
+  </si>
+  <si>
+    <t>dek_sisa</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 13:59:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>KSBB Pangan untuk masyarakat kurang mampu, KSBB UMKM untuk UMKM yang mengalami penurunan pendapatan, KSBB Pendidikan untuk peserta didik &amp;amp; tenaga pendidik yang memiliki keterbatasan dalam pembelajaran jarak jauh, KSBB Permukiman 
+#JktKotaKolaborasi https://t.co/KPd9lRHaOB</t>
+  </si>
+  <si>
+    <t>Satriya081</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 13:43:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ringkasan Kebijakan terkait pembelajaran jarak jauh adalah yang paling banyak diunduh dan dibaca di tahun ini. Semoga apa yang kami tulis dapat bermanfaat bagi banyak pihak. #PJJ #BelajardiRumah https://t.co/fvLFzOSJtB</t>
+  </si>
+  <si>
+    <t>cips_id</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 12:27:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>KSBB Pangan untuk masyarakat kurang mampu, KSBB UMKM untuk UMKM yang mengalami penurunan pendapatan, KSBB Pendidikan untuk peserta didik dan tenaga pendidik yang memiliki keterbatasan dalam pembelajaran jarak jauh #JDCNForum2020 https://t.co/AMosxVxbmN</t>
+  </si>
+  <si>
+    <t>randiamru</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 11:54:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Samsung Indonesia selenggarakan Samsung Smart Learning Center di Lombok untuk bantu pembelajaran jarak jauh sekolah. 
+https://t.co/RbtHjoTVrp
+#Sustainability
+#CSR #Indonesia
+#MajalahCSRid
+#PembelajaranJarakJauh
+#KegiatanBelajarMengajar
+#Pendidikan
+#SamsungIndonesia</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 10:40:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat annas sudah melewati satu semester pembelajaran jarak jauh!</t>
+  </si>
+  <si>
+    <t>adsannas</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 10:33:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Para pelajar di wilayah Gandaria Utara, Kebayoran Baru, Jaksel memanfaatkan Jakwifi, utk dpt mengikuti Pembelajaran Jarak Jauh (PJJ). Berkat Jakwifi itu juga, beban orang tua para siswa untuk membeli kuota dapat berkurang, krn kini anak²nya bisa mendapatkan akses internet gratis. https://t.co/2TMVhAQVH9</t>
+  </si>
+  <si>
+    <t>KotaJaksel</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 09:14:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh. 
+https://t.co/wdcQyrWKKn</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 09:13:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>pertamina Foundation turut berpartisipasi aktif dalam upaya memperlancar kegiatan pembelajaran jarak jauh #PertaminaPeduliPendidikan https://t.co/erPvEclSzU</t>
+  </si>
+  <si>
+    <t>ZahroAlia</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 09:00:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>seperti yang kita ketahui sobat sistem pembelajaran saat ini sudah berubah dari bertatap muka langsung menjadi serba daring dan jarak jauh untuk mencegah penyebaran virus Covid-19, #PertaminaPeduliPendidikan memberikan 50 laptop bagi sekolah-sekolah dasar https://t.co/iDSmB7XQBl</t>
+  </si>
+  <si>
+    <t>anisadenar</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 08:59:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Salut banget deh sama pertamina Fondantion yg telah memebrikan pembelajaran dari jarak jauh makasih ya @pertamina 
+#PertaminaPeduliPendidikan https://t.co/ieTBXYyOXH</t>
+  </si>
+  <si>
+    <t>MalikkAhmadd</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 08:55:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh alias sekolah online membuat beberapa gadget yang tadinya bukan jadi prioritas menjadi penting untuk dimiliki. Berikut rekomendasi laptop harga Rp 4 jutaan untuk school from home. https://t.co/UtkECeSgW9 https://t.co/viDErK5gHH</t>
+  </si>
+  <si>
+    <t>haibundacom</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 08:00:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Dennysiregar7 mnrt KPAI...anak² itu bosen di rumah ga sekolah
+pandai kali kau ngeles KPAI https://t.co/cahRCgJo9o</t>
+  </si>
+  <si>
+    <t>iGuardianNKRI</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 07:31:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>KBM di Depok pada semester genap tahun ajaran 2020/2021 mulai Januari 2021 masih akan berlangsung secara online atau pembelajaran jarak jauh (PJJ). https://t.co/axQhrTrJH7</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 06:23:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Naunaback @samsungID Penyimpanan internal hp ga mendukung bgt buat pjj (pembelajaran jarak jauh) pusing bgt ngapus2in tapi tetep ga mendukung :( , baterai udah bocor parah alhasil harus di charge terus biar nyala :), kalo ni hp mati.. Gatau deh belajar nanti gimana...
+#GalaxyNote20  @samsungID</t>
+  </si>
+  <si>
+    <t>katatanaaaaaaa</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 06:04:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>@langfess Pembelajaran jarak jauh = distance learning
+Pembelajaran daring = online learning</t>
+  </si>
+  <si>
+    <t>wira_basa</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 04:22:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kayak gini https://t.co/OCGFI2QoMX
+Gini
+https://t.co/j6gWDE8rbo
+Dan semua yang ada di sini
+https://t.co/QUcGp4LCSe
+Itu kayak ada pola dan alurnya ya?
+Iyap, kita akan bahas bagaimana menggunakan cara 5M dalam membuat microblog/carousel!</t>
+  </si>
+  <si>
+    <t>mamanbasyaiban</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 03:43:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selama ni aku ingatkan PJJ ni stand for pembelajaran jarak jauh ataupun pekerjaan jarak jauh. :’) nasib aku tak terlebih rajin nak tolong jawabkan. 😂 https://t.co/HGAUt2w6wq</t>
+  </si>
+  <si>
+    <t>AmaninaAdaris</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 03:22:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dampak darurat pandemi Covid-19 dalam dunia pendidikan dirasakan oleh guru, murid, dan juga orang tua. Institusi pendidikan telah mengubah kegiatan pembelajaran secara tatap muka menjadi pembelajaran jarak jauh  mengakibatkan munculnya tantangan yang baru.</t>
+  </si>
+  <si>
+    <t>ivanfahmi</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 03:05:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh alias sekolah online membuat beberapa gadget yang tadinya bukan jadi prioritas menjadi penting untuk dimiliki. Berikut rekomendasi laptop harga Rp 4 jutaan untuk school from home. https://t.co/ZcHteSxGXq https://t.co/6iPsVHjIkR</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 03:01:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>@jhpeachlv pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>tyongscr</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 02:57:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sayangi Kesehatan Mata Anak Selama Pembelajaran Jarak Jauh https://t.co/gcD3rs3BZe https://t.co/p4IbdJ8ULb</t>
+  </si>
+  <si>
+    <t>indoneside</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 02:20:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>#cerdaspilihpelatihan
+BLT PRA KERJA DIPERPANJANG 🇮🇩
+PROGRAM PELATIHAN BERSUBSIDI
+SISTEM LAYANAN JARAK JAUH (SLJJ)
+TAHUN 2020 - BATCH XII
+Dengan format :
+PEMBELAJARAN + LATIHAN + ASSESSMENT
+Kelas Non Tatap Muka : 26 - 28 Desember 2020
+SIMPLE + EFISIEN + FLEKSIBLE https://t.co/z0agNVRnIy</t>
+  </si>
+  <si>
+    <t>Pelatihan_BPI</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 02:17:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ag865ok Pembelajaran Jarak Jauh</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 01:52:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>sedih banget ketika tau fakta bahwa Pembelajaran Jarak Jauh (PJJ) ternyata berpengaruh terhadap psikologis, akademis, bahkan menaikkan angka putus sekolah pada anak2..
+#vaksingratisuntukrakyat #gotongroyonglawancorona https://t.co/pcdzmQXVu2</t>
+  </si>
+  <si>
+    <t>MIRATIPRIMASARI</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 01:26:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh (PJJ) telah memberi dampak dan tekanan psikologis bagi anak2..
+Vaksinasi Covid-19 diharap bisa jadi solusi mengembalikan pembelajaran tatap muka..
+#vaksingratisuntukrakyat #gotongroyonglawancorona https://t.co/mtWgOp8vPI</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 01:24:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dampak Positif dan Negatif Gadget sebagai Media Pendukung Pembelajaran Jarak Jauh https://t.co/kls2rxtAKr</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 22:13:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sebanyak 50 desa di Kabupaten Semarang tak terjangkau sinyal internet. Hal itu menyebabkan pembelajaran jarak jauh (PJJ) menggunakan metode daring terkendala. https://t.co/la2Xve6HAQ</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 16:53:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Abis kelar pembelajaran jarak jauh, ada yang udah punya rencana mau nyervisin mata kemana? Ikut dong, wis meh raib ki moto 🙃</t>
+  </si>
+  <si>
+    <t>Wildanawp</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 16:04:23 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -5822,10 +6403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D697"/>
+  <dimension ref="A1:D788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K696" sqref="K696"/>
+    <sheetView tabSelected="1" topLeftCell="A779" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J789" sqref="J789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15588,6 +16169,1280 @@
         <v>1284</v>
       </c>
     </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>1.3410250091505091E+18</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>1.34102350033358E+18</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>1.3410230829792829E+18</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>1.3409994934460291E+18</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>1.340944270388183E+18</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>1.3409441678080371E+18</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C703" t="s">
+        <v>273</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>1.3409077428908731E+18</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>1.3408551440370399E+18</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>1.340842555705942E+18</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>1.340838384567083E+18</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C707" t="s">
+        <v>405</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>1.3408369473426801E+18</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>1.3408248462262441E+18</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>1.3408165169382239E+18</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C710" t="s">
+        <v>154</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>1.3406719398204091E+18</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>1.34061992759869E+18</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>1.3405731575314189E+18</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C713" t="s">
+        <v>410</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>1.340516982307713E+18</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>1.3405146606766331E+18</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>1.3404666042455649E+18</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>1.340438384100033E+18</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>1.3402405365280599E+18</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>1.3402391995642509E+18</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>1.3402366422929651E+18</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>1.3402257443586291E+18</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>1.3401876241205409E+18</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>1.3401805650901891E+18</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C723" t="s">
+        <v>5</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>1.340170268057108E+18</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>1.3401597553066839E+18</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C725" t="s">
+        <v>706</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>1.3401453337712561E+18</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>1.340137257211073E+18</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D727" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>1.3401357065684869E+18</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>1.340133664206688E+18</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D729" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>1.3401292023689989E+18</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>1.3401180406759749E+18</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>1.339933291701387E+18</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>1.3399293961324951E+18</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>1.339910130339521E+18</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>1.339901911500169E+18</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>1.3398832827715011E+18</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C736" t="s">
+        <v>96</v>
+      </c>
+      <c r="D736" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>1.33988150447469E+18</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>1.339861533241737E+18</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>1.339861356153954E+18</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>1.3398579776924511E+18</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>1.3398578895030231E+18</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C741" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>1.3398568615629581E+18</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>1.3398430818274801E+18</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>1.339835570344788E+18</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>1.339818563071169E+18</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C745" t="s">
+        <v>154</v>
+      </c>
+      <c r="D745" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>1.339813805140767E+18</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>1.3397880187275709E+18</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D747" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>1.3397783103817851E+18</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D748" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>1.3397729174841431E+18</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D749" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>1.3397687989712159E+18</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>1.3397676142650611E+18</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>1.3397666698795909E+18</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>1.339757338677408E+18</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>1.3397567606644741E+18</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>1.3397504645778839E+18</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C755" t="s">
+        <v>743</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>1.339743809471574E+18</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>1.3397432227219661E+18</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D757" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>1.3396951222717189E+18</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C758" t="s">
+        <v>680</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>1.339614747482796E+18</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>1.3396023514646651E+18</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>1.3395874663453371E+18</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>1.339572842715746E+18</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>1.3395464619947991E+18</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>1.3395332979619799E+18</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C764" t="s">
+        <v>543</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>1.339516853379424E+18</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>1.339505659855786E+18</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C766" t="s">
+        <v>880</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>1.3395049027084449E+18</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C767" t="s">
+        <v>880</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>1.3395032872051551E+18</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>1.3395026366350249E+18</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C769" t="s">
+        <v>891</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>1.339500145235296E+18</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>1.3394977719931579E+18</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>1.3394944233238001E+18</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>1.3394930137566001E+18</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>1.33949036600995E+18</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>1.3394888136099351E+18</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>1.3394874471896059E+18</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>1.339483744411873E+18</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C777" t="s">
+        <v>697</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>1.3394790691302559E+18</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>1.339477874122711E+18</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>1.3394519633861629E+18</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>1.339440725700747E+18</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>1.3394343841185961E+18</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>1.3394225881167181E+18</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>1.3394201603570931E+18</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>1.339414522994389E+18</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>1.3394049963416819E+18</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>1.3393900854316109E+18</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>1.3393633134995251E+18</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C788" t="s">
+        <v>154</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1470</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="1916">
   <si>
     <t>id</t>
   </si>
@@ -6041,6 +6041,354 @@
   </si>
   <si>
     <t>Thu Dec 17 16:04:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>...segala aspek, termasuk pendidikan. Tabloid edisi khusus ini juga membahas bagaimana perkuliahan di Undip selama Pandemi, serta apa saja permasalahan yang dialami para civitas akademik dalam pembelajaran jarak jauh yang dituangkan ke dalam bentuk opini. ...</t>
+  </si>
+  <si>
+    <t>LPM_Manunggal</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 10:10:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh, namun kita selalu dekat. Mhihihi https://t.co/5pWQ1eTS2S</t>
+  </si>
+  <si>
+    <t>Zaenalwadud</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 05:58:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>@jenniesselle Aku di De Montfort University karena cari yang bisa pembelajaran jarak jauh. Lily rencananya mau dimana?</t>
+  </si>
+  <si>
+    <t>jakartanism</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 02:31:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>@tehstral pj itu apa kak aku taunya pjj pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>dnrfu</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 02:08:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tuntutan Pengembangan Karakter Anak Sebagai Output Pendidikan Selama Proses Pembelajaran Jarak Jauh di Masa Pandemi https://t.co/04GJULC3n4</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 01:00:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>jumlah positif per hari lebih tinggi dibanding awal pandemi dulu. Jadi sebetulnya tidak masuk di akal kok saat angka meningkat malah dibuka,"_ kata dia.
+Menurut dia, setelah lebih dari 8 bulan diselenggarakan Pembelajaran Jarak-Jauh (PJJ), banyak siswa yang mulai bosan dan ,</t>
+  </si>
+  <si>
+    <t>MasMenteri</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 10:53:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>@kueinjar Pembelajaran jarak jauh. Apa masih kulon? Libur nggak libur trabas aja?</t>
+  </si>
+  <si>
+    <t>dawnlucent</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 10:32:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dengan sistem pembelajaran jarak jauh , kemungkinan akan timbul beberapa masalah-masalah dalam berlangsungnya proses pembelajaran. Tentunya peserta didik maupun tenaga pendidik dari semua kalangan diharuskan memiliki akses jaringan internet yang baik. https://t.co/tXKTQiTmoc</t>
+  </si>
+  <si>
+    <t>muhammadiyah</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 08:45:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dalam kunjungannya ini, Kapolda menyerahkan bantuan antara lain berupa paket sembako dan gawai bagi warga yang membutuhkan untuk mengikuti pembelajaran jarak jauh.
+#infojakpus https://t.co/AKkmWL4dnK</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 07:43:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>KESAN - KESAN KETIKA PEMBELAJARAN JARAK JAUH 
+A Theard</t>
+  </si>
+  <si>
+    <t>winddecs</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 04:56:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>nah stlh itu mulailah kita duduk diam anteng di rumah. aku jemput anak2 ke ponpes krn smua dipulangkan dan mulai pembelajaran jarak jauh. semua event yg sdh ada jadualnya terpaksa di-cancel krn pandemi covid-19. aku manfaatkan utk WFH &amp;amp; nulis bbrp ebook
+https://t.co/E04cnc8AMv</t>
+  </si>
+  <si>
+    <t>ummihasfa</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 02:32:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Guru harus didukung meningkatkan kapasitasnya agar bisa memberikan pembelajaran jarak jauh yang lebih efektif, termasuk mendukung guru kunjung yang melayani siswa di daerah terpencil yang tak ada akses internet. 
+#Tajukrencana #adadikompas 
+https://t.co/jDCZ6AOVUw</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 01:03:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Penggunaan Media Pembelajaran Berbasis Video Selama Pembelajaran Jarak Jauh (PJJ) https://t.co/42SpAFhEEo</t>
+  </si>
+  <si>
+    <t>jasintafr</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 23:09:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Jawa Timur mengevaluasi penerapan pembelajaran jarak jauh selama pandemi COVID-19 melalui kegiatan "Refleksi Pendidikan 2020" yang digelar di Surabaya, Rabu.
+https://t.co/f7RGun5vDP</t>
+  </si>
+  <si>
+    <t>antarajatimcom</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 10:51:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dalam kesempatan tersebut juga dilakukan pembuatan video pembelajaran praktik operasi serta perawatan refrigerasi dan motor bakar. 
+Hal ini merupakan bentuk dari antisipasi Prodi MP dalam melaksanakan kegiatan pembelajaran jarak jauh semester ganjil TA 2020/2021. https://t.co/D4Fn0Rvysn</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 10:28:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>PT XL Axiata Salurkan Donasi Koneksi Internet Pembelajaran Jarak Jauh https://t.co/0P7M9R3T2j</t>
+  </si>
+  <si>
+    <t>Rakyat_Kalbar</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 07:43:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>itu salah satu yg dikeluhkan wali kelas adik q [sma] ktika aku td dateng ke skul utk ngambilin rapor
+dengerin cerita guru tentang pembelajaran jarak jauh kok huhuhu bgt😢 dr yg muridnya ga prnh buka GC, ditelfon di-reject, dichat di-read doang, tugas ga ngumpul, ujian ga join</t>
+  </si>
+  <si>
+    <t>frozenyogurl</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 05:41:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>ANALISIS FAKTOR MUNCULNYA GEJALA STRES PADA MAHASISWA AKIBAT PEMBELAJARAN JARAK JAUH DI MASA PANDEMI COVID-19
+https://t.co/zfEjWaNKUS</t>
+  </si>
+  <si>
+    <t>PsyArXivBot</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 05:09:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Buat kamu yang di Depok, Denpasar, Surabaya, Tangerang, dan Bekasi yang lokasinya dekat dengan XL HOME Edutainment Zone, yok langsung dimanfaatkan semaksimal mungkin 💪
+https://t.co/O36xfwurCD</t>
+  </si>
+  <si>
+    <t>xlhomeid</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 05:01:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Betapa ribet pembelajaran jarak jauh tugas dan tugas diberikan tanpa penjelasan cari aja di google semua tersedia tapi tetap saja banyak yg masih belum mengerti penjelasan tsb krn tetap saja perlu nalar otak disana apalagi tanpa org tua mendampingi</t>
+  </si>
+  <si>
+    <t>asyifa411</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 03:49:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mahasiswa UI Gagas Sistem Evaluasi Pendidikan Jarak Jauh https://t.co/ziskEGQmf8
+Para mahasiswa Universitas Indonesia (UI) telah mengembangkan kerangka evaluasi sistem pendidikan jarak jauh (PJJ) atau biasa dikenal sebagai pembelajaran elektronik (e-learning).</t>
+  </si>
+  <si>
+    <t>dewisumba</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 03:08:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Donasi Akses Internet Fiber untuk Pembelajaran Jarak Jauh
+#XLAxiata #Internet
+https://t.co/wY9hobb86j</t>
+  </si>
+  <si>
+    <t>indoposonline</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 03:07:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>@chunin_ki oalah yaallah aku baru ibget pjj itu pembelajaran jarak jauh 😭👈</t>
+  </si>
+  <si>
+    <t>jekiyood</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 02:17:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>#SahabatSekolahDasar sudah hampir 1 tahun pandemi Covid-19 tak kunjung usai. Tentunya hal ini berdampak pada pembelajaran yang harus dilakukan melalui jarak jauh. Apa saja yang kesan sahabat sekolah dasar selama Belajar Dari Rumah (BDR)?
+Apapun tantangannya tetap semangat ya💪 https://t.co/yUeTTz0Aeb</t>
+  </si>
+  <si>
+    <t>ditpsd_dikbud</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 00:58:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>CIREBON – Januari 2021 mendatang atau semester genap, Pemerintah Kota Cirebon berencana tetap melaksanakan pembelajaran jarak jauh (PJJ). Sehubungan belum terkendalinya covid-19. https://t.co/naOdNx6ZIX</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 00:14:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>#XL HOME Edutainment Zone Donasi Akses Internet Fiber untuk Pembelajaran Jarak Jauh. Kunjungi https://t.co/AoOtgS6F35 . #hdp #xlaxiata #xlhome https://t.co/YDL6xjV7rG</t>
+  </si>
+  <si>
+    <t>prokabar</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 16:08:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>XL Donasi Akses Internet Fiber untuk Pembelajaran Jarak Jauh https://t.co/5Zp2CyuZfh</t>
+  </si>
+  <si>
+    <t>inilahbanten</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 15:02:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID #GalaxyA01Core #GalaxyA01 &amp;amp; #GalaxyA11 paling tepat buat #SemangatTetapSekolah di rumah. Karena dengan fitur-fitur keren dan canggih yang pasti lengkap dan cukup untuk memaksimalkan kebutuhan para pelajar selama pembelajaran jarak jauh.</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 14:22:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>@collegemenfess Pendapat siswa mengenai pembelajaran jarak jauh di masa pandemi, skripsi nya temanku gitu nder</t>
+  </si>
+  <si>
+    <t>coconadelight</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 13:38:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>@collegemenfess PJJ (Pembelajaran Jarak Jauh)</t>
+  </si>
+  <si>
+    <t>not_sugardady</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 13:36:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ternyata Jarak;
+Bukan cuma jauh dan dekat.tapi juga soal rasa.
+Ada rindu dan harapan.. sering ada kecewa dan kesedihan.kadang malah ada pembelajaran.yang berkahir ikhlas meski tak harus melupakan.</t>
+  </si>
+  <si>
+    <t>hamzahgusnedi15</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 11:23:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>@IrvanKarta Ya Allah, iya banget, for better or for worse, di masa pembelajaran jarak jauh seperti sekarang ini, banyak kesulitan, banyak harus adaptasi, kebayang banget kalau ganti menteri, ganti kebijakan lagi. Guru-guru dan ortu nanti gimana.</t>
+  </si>
+  <si>
+    <t>sakdiyahmaruf</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 09:23:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh: Anies Pelopori, Nadiem Sudahi – CNN Indonesia – https://t.co/zHxkZ8ZR0A https://t.co/BvFFt7HusU</t>
+  </si>
+  <si>
+    <t>opsiin</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 05:40:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh: Anies Pelopori, Nadiem Sudahi – CNN Indonesia https://t.co/RgXvTXcMv8</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 05:39:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hadirnya Vaksin Covid-19 Bermanfaat Bagi Anak Agar Bisa Kembali Bersekolah Dengan Tenang Dan Mengakhiri Pembelajaran Jarak Jauh https://t.co/BrBgO7BHDq</t>
+  </si>
+  <si>
+    <t>romlahasana</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:58:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sedangkan “Kado Akhir Tahun” merupakan program yang dikemas oleh Dompet Dhuafa menjadi bingkisan terindah bagi anak yatim yang masih kesulitan dalam mengikuti pembelajaran jarak jauh (PJJ) saat masa pandemi Covid 19.
+#SmartRadioTalk</t>
+  </si>
+  <si>
+    <t>RadioSmartFM</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 02:50:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Selasa 22 Desember 2020 bagi siswa yang sedang mengikuti pembelajaran jarak jauh. https://t.co/buMPZHg28z</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 01:02:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>ORANG TUA DAN GURUKU, PENYEMANGATKU.
+・・・
+#Sahabat #DisdikbudKendal, Pembelajaran Jarak Jauh (PJJ) memiliki tantangan tersendiri bagi siswa maupun guru agar kegiatan belajar mengajar berjalan dengan baik.
+.
+https://t.co/kGen7MLVAD</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 00:49:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>CARA MEMBUAT SLIDE PEMBELAJARAN DENGAN POWERPOINT
+Inspirasi mempertajam kreatifitas untuk menampilkan pembelajaran Jarak Jauh yang kreatif, efektif dan menyenangkan.
+https://t.co/KWwBm43aWL</t>
+  </si>
+  <si>
+    <t>TheoGunawan1st</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 23:37:01 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -6403,10 +6751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D788"/>
+  <dimension ref="A1:D840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A779" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J789" sqref="J789"/>
+    <sheetView tabSelected="1" topLeftCell="A821" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J799" sqref="J799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17443,6 +17791,734 @@
         <v>1470</v>
       </c>
     </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>1.3424123058421271E+18</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>1.3423489752030001E+18</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>1.3422968919380749E+18</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>1.3422912019159859E+18</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>1.3422738838696509E+18</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C793" t="s">
+        <v>680</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>1.342060797426455E+18</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>1.3420556143614239E+18</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>1.3420284893152499E+18</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>1.3420130315390651E+18</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C797" t="s">
+        <v>202</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>1.34197098514722E+18</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>1.3419347291137019E+18</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>1.3419123916430989E+18</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C800" t="s">
+        <v>405</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>1.3418836673674281E+18</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>1.3416978484468411E+18</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>1.3416922390518331E+18</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C803" t="s">
+        <v>760</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>1.3416506333472561E+18</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>1.3416200341755489E+18</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>1.3416118465587279E+18</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>1.341609778003382E+18</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>1.3415918202417521E+18</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>1.3415813204853919E+18</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>1.341581108543017E+18</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>1.3415685563416819E+18</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>1.3415487878361779E+18</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>1.341537513614303E+18</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C813" t="s">
+        <v>703</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>1.3414153723821179E+18</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>1.3413987795939571E+18</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>1.3413887669262871E+18</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>1.341377523993612E+18</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>1.3413770860872829E+18</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>1.3413434765421491E+18</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>1.3413134955439391E+18</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>1.3412572221820851E+18</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>1.341257130159038E+18</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>1.341231706481644E+18</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>1.3412143749508101E+18</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>1.341187332574102E+18</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C825" t="s">
+        <v>154</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>1.3411839577951849E+18</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>1.3411658090711119E+18</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>1.3410250091505091E+18</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>1.34102350033358E+18</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>1.3410230829792829E+18</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>1.3409994934460291E+18</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>1.340944270388183E+18</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>1.3409441678080371E+18</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C833" t="s">
+        <v>273</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>1.3409077428908731E+18</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>1.3408551440370399E+18</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>1.340842555705942E+18</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>1.340838384567083E+18</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C837" t="s">
+        <v>405</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>1.3408369473426801E+18</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>1.3408248462262441E+18</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>1.3408165169382239E+18</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C840" t="s">
+        <v>154</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="1962">
   <si>
     <t>id</t>
   </si>
@@ -6389,6 +6389,150 @@
   </si>
   <si>
     <t>Mon Dec 21 23:37:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>#DiskusiPRFM Apa evaluasi anda terkait Kebijakan Pendidikan Menteri Nadiem di Masa Pandemi yaitu Pelaksanaan Pembelajaran Jarak Jauh (PJJ)? Kemudian apakah keputusan untuk melaksanakan sekolah tatap muka pada Januari 2021 nanti sudah tepat? komentar?</t>
+  </si>
+  <si>
+    <t>PRFMnews</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 14:28:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>@1nohon9 @tempodotco @dipoalam49 karena gak semua daerah sama. Semisal pembelajaran jarak jauh mungkin mudah buat orang di Jakarta, tapi di pedalaman, bahkan di desa di Jawa pun PJJ bisa sulit karena tidak ada sinyal dll. Aturan gak bisa pukul rata karena keberagaman Indonesia yang terlalu majemuk.</t>
+  </si>
+  <si>
+    <t>tettra15</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 12:26:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>April (21 April) = Pembentukan Warung Rakyat UII; Tempat mangkal daring pelaku ekonomi kerakyatan.
+Mei = Perpanjangan masa Kerja dari Rumah (KdR) dan Pembelajaran Jarak Jauh (PJJ) di UII.</t>
+  </si>
+  <si>
+    <t>UIIYogyakarta</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 10:59:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hasil survei Perhimpunan untuk Pendidikan dan Guru Indonesia  menunjukkan, 70% guru menggunakan media sosial untuk pembelajaran jarak jauh selama pandemi virus Covid-19. Media sosial apa saja?. #Databoks
+ https://t.co/QAm7Ubh7Pt</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 07:15:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hasil survei Perhimpunan untuk Pendidikan dan Guru Indonesia mencatat, 40% guru melakukan pembelajaran jarak jauh selama 1-2 jam per harinya di masa pandemi virus Covid-19. #Databoks
+ https://t.co/gjtL9ZA0no</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 06:15:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>PJJ ! PEMBELAJARAN JARAK JAUH | BELAJAR DARI RUMAH | EFEK COVID 19 https://t.co/zWsF3x2VOM via @YouTube</t>
+  </si>
+  <si>
+    <t>YayatSu72217285</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 04:40:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>"semoga Allah sentiasa memberikan minda yang sentiasa berlapang untuk menghadapi segala ujian dan mehnah dalam pembelajaran jarak jauh" - ustazah</t>
+  </si>
+  <si>
+    <t>raihanadee_</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 03:45:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>@GeiszChalifah Buat anak sekolah yg PJJ (Pembelajaran Jarak Jauh), untuk Wifi masuk kebutuhan primer apalagi saat ujian semester, bs nangis klo mendadak lemot.</t>
+  </si>
+  <si>
+    <t>Yuliawati0608</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 02:43:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kami menyediakan form untuk pembelajaran jarak jauh. Bagikan tautan https://t.co/bLWuBP8NJx
+Kepada siswa secara otomatis gong belajar melaporkan pelaksanaan belajar kepada guru mereka https://t.co/sNp7Uc8RQh</t>
+  </si>
+  <si>
+    <t>pancaran</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 02:11:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pelatihan bertujuan untuk membekali peserta dengan pengetahuan dan kemampuan teknis dalam  pemanfaatan dan pembuatan bahan ajar terbuka untuk diterapkan dalam pembelajaran jarak  jauh (PJJ) maupun pembelajaran di kelas. Akses materi pelatihan di https://t.co/vSA8DtKfUi</t>
+  </si>
+  <si>
+    <t>CC_ID</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 12:46:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>@d4naar @txtdaripelajar Pembelajaran jarak jauh kkkkkkwkwkwkwkwk sedunia onlen semua antara sedih atau miris dengan bangsa ini</t>
+  </si>
+  <si>
+    <t>nasikebuli07</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 10:21:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kabar baik hari ini. @UMYogya membangunkan radio komunitas untuk beberapa Sekolah di Kulonprogo. Solusi nyata di masa pandemi, bahwa pembelajaran jarak jauh tidak melulu internet. https://t.co/1CS3de7E1Q</t>
+  </si>
+  <si>
+    <t>fajarjun</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 09:38:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kepala BPPT @hammam_riza mengatakan pemberian tablet ini sebagai bentuk dukungan agar para santri dapat melaksanakan pembelajaran jarak jauh (Tele-Edukasi) secara lancar. https://t.co/YHrDZvAdsE</t>
+  </si>
+  <si>
+    <t>BPPT_RI</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 08:57:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kasus Covid-19 Kian Melonjak, DPR Dorong Pemerintah Sempurnakan Sistem Pembelajaran Jarak Jauh
+https://t.co/3uaY7EGvVd</t>
+  </si>
+  <si>
+    <t>pikiran_rakyat</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 07:32:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terimakasih kpd wali murid yg telah membantu peran guru utk mendampingi ananda di rumah sehingga tercipta sinergitas pembelajaran jarak jauh yg baik,
+SD Muh1da menyampaikan apresiasi tertinggi kpd Bpk/Ibu Wali Murid sbg Guru terbaik yg telah mendampingi ananda belajar di Rumah. https://t.co/797GALGEma</t>
+  </si>
+  <si>
+    <t>sdmuhida</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 02:13:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tips Gunakan Zoom untuk Pembelajaran Jarak Jauh https://t.co/fDpPJu52eJ #berita #terbaru #video</t>
+  </si>
+  <si>
+    <t>idnpublic</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 16:58:03 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -6751,10 +6895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D840"/>
+  <dimension ref="A1:D861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A821" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J799" sqref="J799"/>
+    <sheetView tabSelected="1" topLeftCell="A839" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I859" sqref="I859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18519,6 +18663,300 @@
         <v>1670</v>
       </c>
     </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>1.3432021118534569E+18</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>1.3431712700079309E+18</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>1.3431495536005279E+18</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>1.3430930110817851E+18</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C844" t="s">
+        <v>960</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>1.343077914376606E+18</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C845" t="s">
+        <v>960</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>1.3430540993993321E+18</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>1.3430401594161111E+18</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>1.3430247279047969E+18</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>1.3430167174552581E+18</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>1.3428140764900559E+18</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>1.342777605678793E+18</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>1.3427667271389629E+18</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>1.3427563675059E+18</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>1.342734991818559E+18</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D854" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>1.342654827604574E+18</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>1.3425149566384051E+18</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>1.3424123058421271E+18</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>1.3423489752030001E+18</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>1.3422968919380749E+18</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>1.3422912019159859E+18</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>1.3422738838696509E+18</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C861" t="s">
+        <v>680</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="2123">
   <si>
     <t>id</t>
   </si>
@@ -6533,6 +6533,543 @@
   </si>
   <si>
     <t>Fri Dec 25 16:58:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Juknis untuk buat Pembelajaran Jarak Jauh bagaimana ya? Pengen bner bner ngabdi buat anak-anak yg ga beruntung lanjut ke SMA/SMK</t>
+  </si>
+  <si>
+    <t>iqbalibay69</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 13:39:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh alias jauh banget males kelas https://t.co/O87siNVCQb</t>
+  </si>
+  <si>
+    <t>wonhajiahnjiman</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 13:13:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pandemi #COVID19 tidak hanya berdampak pada kehidupan orang dewasa, tetapi juga anak-anak. Pembatasan fisik dan pembelajaran jarak jauh menyebabkan #anak lebih banyak menghabiskan waktunya secara daring.
+Anak menjadi lebih rentan terhadap berbagai bahaya di ranah daring. https://t.co/czXfTbztt5</t>
+  </si>
+  <si>
+    <t>AtmaGoApp</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 13:09:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>[KAMPUS: Pembelajaran Jarak Jauh dan Kesehatan Mental Mahasiswa Menilik Perspektif Psikolog]
+PPJ karena pandemi bikin stress??
+Yuk baca artikelnya di https://t.co/q2xbKr8Kat 
+dJatinangor,
+Karena lisan sadJa tidak cukup!
+#djatinangor
+#kampus
+#kesehatanmental
+#perkuliahanonline https://t.co/RoeETLWnJz</t>
+  </si>
+  <si>
+    <t>dJatinangornews</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 12:10:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Serius aku nak ambil pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>put_ain</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 11:55:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>2.300 Siswa SMP di Kota Cimahi Bermasalah dalam Pembelajaran Jarak Jauh https://t.co/DeZNKyYJfQ https://t.co/9pMlE8mJQG</t>
+  </si>
+  <si>
+    <t>galamedianews</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 11:52:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Beberapa kepala daerah sudah mengeluarkan Surat Edaran (SE)  perpanjangan masa Pembelajaran Jarak Jauh (PJJ). Menurut saya ini kebijakan yang sangat baik mengingat pandemi belun kunjung usai di Negara kita</t>
+  </si>
+  <si>
+    <t>triwibowoilmu</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 11:30:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Asyik, Taman Impian Jaya Ancol Hadirkan Edutainment dan Wisata secara Virtual: Taman Impian Jaya Ancol menghadirkan wisata edukasi secara virtual di kala pandemi. Konsepnya adalah pembelajaran jarak jauh dengan cara menyenangkan, berkolaborasi dengan… https://t.co/Yixt6IFnLB</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 10:05:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>@dr_koko28 Setuju dokter...tgl 11 Januari mulai aktif sklh..sy sndri lbih milih pembelajaran jarak jauh  (PJJ) drpd pembelajaran tatap muka</t>
+  </si>
+  <si>
+    <t>AnnisaAnissa3</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 09:47:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>@pemkotdepok beredar surat walikota pembelajaran jarak jauh di depok hingga juni 2021. Itu valid gak kak min? Cc @IdrisAShomad</t>
+  </si>
+  <si>
+    <t>indrastt</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 09:31:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>kegep jaman PJJ (pembelajaran jarak jauh) https://t.co/YGicZLw9rf</t>
+  </si>
+  <si>
+    <t>wiradavid</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 09:19:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>dahal dibawah tulisan itu ada "pembelajaran jarak jauh" yha mata gue siwer</t>
+  </si>
+  <si>
+    <t>hnjsquokkaa</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 09:12:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>basis pendidikan di pesantren sangat mengandalkan metode muwajahah atau tatap muka. Hal itulah yang menjadi pembelajaran di pesantren sangat terganggu. Adanya metode Pembelajaran Jarak Jauh (PJJ) secara virtual pun masih kurang efektif.
+pak @BudiGSadikin &amp;amp; @PBIDI mohon pahami🙏 https://t.co/kyc9cmYStp</t>
+  </si>
+  <si>
+    <t>okandrsyh</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 07:07:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Merger Indosat dan 3 mungkin karena pemerintah sebagai konsumen utama, yang dimana dana bantuan untuk Pembelajaran Jarak Jauh.
+Btw makasih loh jadi bisa nikmatin internet gratis, semoga aja bisa selamanya hehe</t>
+  </si>
+  <si>
+    <t>Saepulohvudlinx</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 06:35:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Untuk mendukung sektor pendidikan di masa pandemi, Pemerintah memberikan subsidi kuota internet untuk siswa, mahasiswa, guru, dan dosen yang harus menjalankan Pembelajaran Jarak Jauh.
+Selain itu, dana BOS yang juga dapat digunakan untuk menanggulangi pandemi di sekolah. https://t.co/lMa4xfqP9s</t>
+  </si>
+  <si>
+    <t>KemenkeuRI</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:17:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>KBM Semester Genap 2021 di Kota Depok Tetap Pembelajaran Jarak Jauh
+https://t.co/0rUR6Xu182</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 04:35:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belum lagi, rumah yang memiliki keterbatasan gadget dan akses internet..
+Pembelajaran jarak jauh memang solusi paling aman, tapi tidak menutup mata, banyak sekali tantangannya..</t>
+  </si>
+  <si>
+    <t>isyaisyo</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 04:20:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pihak2 yang merasakan tantangan tinggi selama pembelajaran jarak jauh adalah siswa SMK yang butuh praktik langsung, kedua orangtua yang bekerja dan tidak punya pengasuh di rumah, orangtua yg bekerja dengan pengasuh di rumah, dan orangtua yang memiliki anak berkebutuhan khusus.</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 04:19:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Baca SE dari Gubernur DIY tertanggal 28/12/2020, PAUD tetap belajar jarak jauh. Jenjang lain akan menunggu hasil evaluasi Pembelajaran Tatap Muka Terbatas yang dimulai dari Perguruan Tinggi. https://t.co/XXZuFP95Og</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 04:16:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ProfesorZubairi yang parah nya lagi Kemendikbud di saat seperti ini bukannya memberi solusi pembelajaran jarak jauh yg baik malah mau mengadakan Assesmen nasional yang katanya pengganti UN, pdahl urgensi nya ga ada lebih baik fokus sosialisasi ke sekolah harus menyederhanakan kurikulum atau...</t>
+  </si>
+  <si>
+    <t>dranux</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 03:52:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bahwa pembelajaran  jarak jauh, tidak hanya dengan internet. Dengan kelebihan (dan juga kekurangan) radio komunitas seharusnya bisa dibangun dan dimanfaatkan https://t.co/MeJDal0zlr via @terakotaid</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 03:47:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Hilmi_As Muhun ang, ayeuna mah tos biasa di dunia pendidikan menjalankan open bimbingan online teh atau bahasa dinas pendidikan mah pembelajaran jarak jauh (PJJ). Taun depan mah menyapa dosen teh
+Assalamualaikum bu apa di tahun ini masih open BO</t>
+  </si>
+  <si>
+    <t>dwikiar</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 02:43:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>@tanyainrl guru cuma leha" maksud lu apa anjing, ibu gue guru kga ada leha" bikin status tuh yg ngotak dikit, ibu gue bela"in belajar bikin Vidio pembelajaran, tiap hari nelfon anak yang ga kirim tugas, rela penyimpanan hp penuh, lu pikir gampang ngajar anak jarak jauh gini hah anjing lo</t>
+  </si>
+  <si>
+    <t>BBRIGHTYOURDAYY</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 01:42:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Rabu 30 Desember 2020 bagi siswa yang sedang mengikuti pembelajaran jarak jauh. https://t.co/4zjY42Bsu7</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 00:35:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Radio komunitas, seharusnya menjadi salah satu pilihan pembelajaran jarak jauh di sekolah, bukan hanya melulu online.</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 23:29:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>you can read my article through this link
+Pembelajaran Jarak Jarak Jauh Pilihan Terbaik Ditengah Pademi Covid-19 https://t.co/gqXWc5jFE8</t>
+  </si>
+  <si>
+    <t>CASPER_GENUINE</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 15:35:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh dilanjutkan mulai 11 Januari 2021 hingga 25 Juni 2021.  https://t.co/95sjXGjYjW</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 13:51:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pengambilan langkah pembelajaran jarak jauh merupakan sikap Lemhannas RI dalam mencegah penyebaran COVID-19 dan juga bentuk komitmen Lemhannas RI untuk mendukung langkah pemerintah serta mengutamakan keselamatan bersama. https://t.co/LaLabAV31m</t>
+  </si>
+  <si>
+    <t>LemhannasRI</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 12:17:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pengambilan langkah pembelajaran jarak jauh merupakan sikap Lemhannas RI dalam mencegah penyebaran COVID-19 dan juga bentuk komitmen Lemhannas RI untuk mendukung langkah pemerintah serta mengutamakan keselamatan bersama. https://t.co/AOHWukBqNJ</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 12:09:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Banyak kebiasaan baru lainnya, masyarakat dituntut berinteraksi, bertransaksi secara online, meminimalisasi semua kegiatan secara langsung. Contohnya mulai dari pembelajaran jarak jauh dengan luring dan daring
+#DirumahAja</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 11:48:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Assalamualaikum wr.wb.
+Salam hangat teman-teman ✨✨ 
+Kami dari kelompok 12 kelas ST01 mohon dibantu dengan cara like infografis "Tipe Belajar Mahasiswa dan Pembelajaran Jarak Jauh (PJJ)"
+https://t.co/ZxfPeywKMH
+Terimakasih semuanyaa😊✨</t>
+  </si>
+  <si>
+    <t>renjalanjalan</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 11:10:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fakta menunjukan bahwa metode pembelajaran daring ini minim akan transfer ilmu yang benar benar di pahami dan di praktikan, dan cenderung malah membebankan tugas kepada peserta didik maupun pendidik demi tetap terjalanya proses kegiatan  Pembelajaran Jarak Jauh (PJJ).</t>
+  </si>
+  <si>
+    <t>myusufzidan8899</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 10:32:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jika anda adalah Ibu dengan kriteria : 
+1.Memiliki Anak usia 6 – 9 tahun atau setara dengan anak Sekolah dasar kelas 1 - 3
+2.Melakukan pendampingan pembelajaran jarak jauh (PJJ)
+3.Berstatus menikah</t>
+  </si>
+  <si>
+    <t>RSeptifani</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 09:48:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Perkenalkan, saya Riski Septifani, mahasiswi Magister Psikologi Profesi Universitas Gadjah Mada (UGM). Saat ini saya sedang melakukan penelitian terkait Pengasuhan Ibu dalam Pembelajaran jarak jauh (PJJ) anak.</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 09:47:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Apabila Anda adalah ibu dg kriteria:
+1. Memiliki anak usia 6-9 tahun atau setara dengan Sekolah Dasar kelas 1-3
+2. Mendampingi pembelajaran jarak jauh (PJJ) anak
+3. Berstatus menikah 
+Mohon bantuan mengisi angket yang bisa diakses link di bawah ini:
+https://t.co/KArhKVr570</t>
+  </si>
+  <si>
+    <t>Msholeh_s</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 09:36:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pemerintah Kabupaten Garut, Jawa Barat, memperpanjang Pembelajaran Jarak Jauh (PJJ) hingga tahun ajaran baru. https://t.co/zPypaLXgq4</t>
+  </si>
+  <si>
+    <t>GarutIklan</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 09:32:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pemerintah Kabupaten Garut, Jawa Barat, memperpanjang Pembelajaran Jarak Jauh (PJJ) hingga tahun ajaran baru. https://t.co/45cFj3CRHL</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 09:06:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>mulai dari pertengahan hingga akhir tahun dilaksanakannya proses Pembelajaran Jarak Jauh (PJJ). 
+Kemudian hasil dari Survei Akhir Paruh Tahun ini akan diolah untuk mengetahui pendapat, mendengar aspirasi, dan mendorong partisipasi IKM FHUI dalam menilai kinerja BPM FHUI.</t>
+  </si>
+  <si>
+    <t>BPMFHUI</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 09:03:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>CIREBON - Pemerintah Kota (Pemkot) Cirebon masih memberlakukan pembelajaran jarak jauh (PJJ) untuk sekolah di Kota Cirebon di tengah pandemi Covid-19. Pemberlakuan https://t.co/ZVR7vd89Y8</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 08:43:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pandemi Covid-19 berdampak luas bagi dunia pendidikan, khususnya perubahan cara dan perilaku belajar peserta didik di berbagai satuan pendidikan.
+Pembelajaran jarak jauh (PJJ) menyisakan masalah mendasar, seperti ketersediaan fasilitas, keterbatasan jar… https://t.co/mGobVTsuNt</t>
+  </si>
+  <si>
+    <t>driherdiansyah</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 08:11:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>KKN Tematik UPI 2020 Beri Pelatihan Pembuatan Google Form bagi Guru SD sebagai Media Evaluasi PJJ - https://t.co/UUh6IgBSc2 - https://t.co/UUh6IgBSc2 https://t.co/2zIn4ohj4G https://t.co/nad1XVmUHG</t>
+  </si>
+  <si>
+    <t>upibdg</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 07:14:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terserah kalau mau tatap muka, pahami saja resikonya  , kalau kami mah tetap Pembelajaran Jarak Jauh hingga selesai semester 2 ini https://t.co/F53f2TeDiX</t>
+  </si>
+  <si>
+    <t>Gilang_Mahesa</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 04:19:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ismailfahmi @syaltout Sementara jutaan anak Indonesia lain, berbulan-bulan bengong dengan pembelajaran jarak jauh. Orangtua kurang educated, ga bisa ngajarin di rumah. Sekolah memberi tugas tanpa penjelasan. Beruntung anak-anak yang punya previledge orangtua berpendidikan dan berpengalaman.</t>
+  </si>
+  <si>
+    <t>YuliSahir</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 02:23:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Solusinya, pakai https://t.co/rkMDP6o42u. Bisa terhubung dengan Zoom, Google Meet, dan Youtube Live Streaming.💻 https://t.co/Iq9k4kHWqi</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 02:18:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Selasa 29 Desember 2020 bagi siswa yang sedang mengikuti pembelajaran jarak jauh. https://t.co/VBr33e6WXN</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 00:02:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh. https://t.co/t46wE51gU7</t>
+  </si>
+  <si>
+    <t>putrinidya</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 10:28:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah utk Pembelajaran Jarak Jauh (PJJ)?
+Pasti mau kan.Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 
+Solusiny,pakai https://t.co/zfFtYP6AjT.Bisa terhubung dengan Zoom, Google Meet,dan Youtube Live Streaming https://t.co/HqYIQHZRH3</t>
+  </si>
+  <si>
+    <t>AbsensiMesin</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 08:52:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>@____desigraheni Kalau sekolah dan perguruan tinggi memang tdk tatap muka. Karena sdh jelas dr menteri kan hrs pembelajaran jarak jauh. Di mana2 jg guru dan dosen tdk ngajar scr langsung. Yang dimaksud udah masuk spt biasa adalah kantor2 pemerintahan lainnya, sdh byk masuk kantor.</t>
+  </si>
+  <si>
+    <t>cccc0123cccc</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 08:18:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Akung24591275 @CNNIndonesia Dan untuk BdR tidak ada tambahan gaget maupun perangkat lainnya.
+Sebelum ini telah tersedia gaget standar yang bisa digunakan untuk Pembelajaran Jarak Jauh.</t>
+  </si>
+  <si>
+    <t>iwanalidarmawan</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 06:07:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>@veraangg_g Sistem pembelajaran di UT ialah terbuka, mandiri dan jarak jauh. Layanan bantuan belajar UT bisa diikuti sesuai jadwal kalender akademik. https://t.co/kIDw2n9mF6
+Info selengkapnya hubungi Hallo UT di 1500024 (tekan 0 untuk berbicara dengan call center kami).
+Terima kasih
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 05:56:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>https://t.co/9o4HwmYar3 merupakan aplikasi manajemen sekolah online. Mendukung sistem pembelajaran jarak jauh (PJJ) yang dapat memudahkan proses belajar-mengajar. Kegiatan pembelajaran dapat dilakukan kapan saja dari mana saja, kelas belajar hingga rapat antar staf pendidik https://t.co/pJq2CHhJWa</t>
+  </si>
+  <si>
+    <t>yevyfingerspot</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 05:40:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>@nvtsyu Saya berharap smoga pandemi di negara kita tercinta ini bisa cepat berakhir sehingga kita bisa melakukan aktivitas kita seperti biasa, terutama bagi anak anak sekolah yang sudah melakukan pembelajaran jarak jauh ini smoga tetap di beri kesehatan dan smgt jugapjj ny#IndonesiaRaya</t>
+  </si>
+  <si>
+    <t>narendr71336204</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 04:41:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Pasti mau kan... Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆. https://t.co/taRjzIO62c</t>
+  </si>
+  <si>
+    <t>abdulfingerspot</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 04:07:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Pasti mau kan... Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆. https://t.co/JExptau2Yv</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 04:06:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Pasti mau kan... Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆.
+Solusinya, pakai https://t.co/22VHA3M9Jq. Bisa terhubung dengan Zoom, Google Meet, dan Youtube https://t.co/RZJukY0MNb</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 04:06:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pemerintah Kota Surakarta Merintis Radio dan TV Pendidikan untuk Pembelajaran Jarak Jauh menyikapi Pandemi.
+Selengkapnya Klik diSini
+https://t.co/PYjKF0HYuM https://t.co/k0gRCxtiFR</t>
+  </si>
+  <si>
+    <t>PEMKOT_SOLO</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 02:21:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dari MK media pembelajaran aku jadi tahu kalau pendidik itu buat materi nggak main-main, harus survive dulu. Apalagi sekarang pembelajaran jarak jauh, mereka juga hebat banget bisa atur waktu nyiapin materi dan urusan rumah😭</t>
+  </si>
+  <si>
+    <t>wxyzchh_</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 02:05:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Senin 28 Desember 2020 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/gohbzJEi5o</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 00:27:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ketidaksiapan Pembelajaran Jarak Jauh Mahasiswa Luar Kota https://t.co/6jcNI2TbEE</t>
+  </si>
+  <si>
+    <t>Mahasiswa_IDN</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 18:12:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>- Juara 3 
+atas nama Maulida Gadis Utami “Self-Directed Learning (SDL) sebagai Solusi Efektifitas Pembelajaran Jarak Jauh (PJJ)”
+https://t.co/Nz3l2V1vVh
+.
+.
+.
+Line:@snf.febui
+Instagram:@snf.febui
+Twitter:@snf_febui
+Facebook: SNF FEB UI
+Web: https://t.co/zU3hNJxuZj</t>
+  </si>
+  <si>
+    <t>SNF_FEBUI</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 16:02:31 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -6895,10 +7432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D861"/>
+  <dimension ref="A1:D930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A839" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I859" sqref="I859"/>
+    <sheetView tabSelected="1" topLeftCell="A911" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H927" sqref="H927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18957,6 +19494,972 @@
         <v>1821</v>
       </c>
     </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>1.344276830627402E+18</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>1.3442704670419231E+18</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>1.34426949090576E+18</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>1.3442545163092831E+18</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>1.3442506691888781E+18</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>1.344249898158313E+18</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>1.3442444097059761E+18</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>1.3442229617047391E+18</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C869" t="s">
+        <v>176</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>1.3442184456305129E+18</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>1.344214558693474E+18</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>1.3442114431393221E+18</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>1.344209654398636E+18</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>1.3441782651670689E+18</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>1.3441703372319831E+18</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C875" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D875" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>1.3441504994826939E+18</v>
+      </c>
+      <c r="B876" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C876" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D876" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>1.3441399984596621E+18</v>
+      </c>
+      <c r="B877" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C877" t="s">
+        <v>616</v>
+      </c>
+      <c r="D877" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>1.3441363482869509E+18</v>
+      </c>
+      <c r="B878" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C878" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D878" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>1.344136102987252E+18</v>
+      </c>
+      <c r="B879" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C879" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D879" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>1.3441353187194839E+18</v>
+      </c>
+      <c r="B880" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C880" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D880" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>1.3441293038946391E+18</v>
+      </c>
+      <c r="B881" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C881" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D881" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>1.3441279825002501E+18</v>
+      </c>
+      <c r="B882" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D882" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>1.3441118176273331E+18</v>
+      </c>
+      <c r="B883" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C883" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D883" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>1.3440965793392269E+18</v>
+      </c>
+      <c r="B884" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C884" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D884" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>1.3440796572267561E+18</v>
+      </c>
+      <c r="B885" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C885" t="s">
+        <v>154</v>
+      </c>
+      <c r="D885" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>1.344063066057495E+18</v>
+      </c>
+      <c r="B886" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D886" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>1.3439436338174121E+18</v>
+      </c>
+      <c r="B887" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C887" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D887" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>1.3439176703038551E+18</v>
+      </c>
+      <c r="B888" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D888" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>1.3438938992998441E+18</v>
+      </c>
+      <c r="B889" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C889" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D889" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>1.3438920137882749E+18</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C890" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D890" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>1.343886557082571E+18</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D891" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>1.343877008233665E+18</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C892" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D892" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>1.343867485561311E+18</v>
+      </c>
+      <c r="B893" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C893" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D893" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>1.343856440876777E+18</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C894" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D894" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>1.3438561055757069E+18</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C895" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D895" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>1.3438532700542689E+18</v>
+      </c>
+      <c r="B896" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C896" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D896" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>1.3438522813854761E+18</v>
+      </c>
+      <c r="B897" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C897" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D897" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>1.343845851429388E+18</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C898" t="s">
+        <v>154</v>
+      </c>
+      <c r="D898" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>1.3438449637426711E+18</v>
+      </c>
+      <c r="B899" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C899" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D899" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>1.3438399398223009E+18</v>
+      </c>
+      <c r="B900" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C900" t="s">
+        <v>703</v>
+      </c>
+      <c r="D900" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>1.3438320058558789E+18</v>
+      </c>
+      <c r="B901" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C901" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D901" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>1.3438176669899981E+18</v>
+      </c>
+      <c r="B902" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C902" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D902" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>1.343773656657248E+18</v>
+      </c>
+      <c r="B903" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C903" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D903" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>1.343744365865226E+18</v>
+      </c>
+      <c r="B904" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C904" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D904" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>1.34374314633363E+18</v>
+      </c>
+      <c r="B905" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D905" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>1.343708944703734E+18</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C906" t="s">
+        <v>154</v>
+      </c>
+      <c r="D906" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>1.343504065582432E+18</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C907" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D907" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>1.3434798950121961E+18</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C908" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D908" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>1.3434714338931259E+18</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C909" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D909" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>1.343438475555586E+18</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C910" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D910" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>1.3434356742553851E+18</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C911" t="s">
+        <v>5</v>
+      </c>
+      <c r="D911" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>1.3434316451273521E+18</v>
+      </c>
+      <c r="B912" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C912" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D912" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>1.343416790882271E+18</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C913" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D913" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>1.343408111902622E+18</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C914" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D914" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>1.3434080177279219E+18</v>
+      </c>
+      <c r="B915" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C915" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D915" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>1.343407930549236E+18</v>
+      </c>
+      <c r="B916" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C916" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D916" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>1.3433816298556659E+18</v>
+      </c>
+      <c r="B917" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C917" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D917" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>1.34337746339344E+18</v>
+      </c>
+      <c r="B918" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C918" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D918" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>1.343352723857535E+18</v>
+      </c>
+      <c r="B919" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C919" t="s">
+        <v>154</v>
+      </c>
+      <c r="D919" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>1.343258355473641E+18</v>
+      </c>
+      <c r="B920" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C920" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D920" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>1.3432257609626749E+18</v>
+      </c>
+      <c r="B921" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C921" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D921" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>1.3432021118534569E+18</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>1.3431712700079309E+18</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>1.3431495536005279E+18</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>1.3430930110817851E+18</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C925" t="s">
+        <v>960</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>1.343077914376606E+18</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C926" t="s">
+        <v>960</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>1.3430540993993321E+18</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>1.3430401594161111E+18</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>1.3430247279047969E+18</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>1.3430167174552581E+18</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1940</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="2123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="2267">
   <si>
     <t>id</t>
   </si>
@@ -7070,6 +7070,459 @@
   </si>
   <si>
     <t>Sun Dec 27 16:02:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Katanya Januari 2021 ini, sekolah boleh belajar tatap muka. Sementara angka penularan COVID-19 terus meningkat. Sistem pembelajaran apa yang harus dilakukan sekolah? #userstory dari Syarif Yunus https://t.co/zvmL9Xv5zt</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 14:30:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi (Pemprov) DKI Jakarta memutuskan tetap menerapkan pembelajaran jarak jauh (PJJ) belajar dari rumah karena kondisi pandemi Corona yang belum melandai hingga saat ini. Apa tanggapan Lukman Sardi sebagai orang tua yang anaknya masih ... https://t.co/4TUXmlsVJm</t>
+  </si>
+  <si>
+    <t>detikhot</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 14:16:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>@noturd0nut pembelajaran jarak jauh..</t>
+  </si>
+  <si>
+    <t>vxxlntxx</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 14:00:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>@noturd0nut pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>yedeesdam</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 13:59:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>@callmegyori Makasi kak🥺❤
+Pjj itu pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>se0ngmoo</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 13:21:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pelatih Pendidikan Keluarga Rangkul Padang Ungkap Hikmah Pembelajaran Jarak Jauh https://t.co/g2Wg69YDnD</t>
+  </si>
+  <si>
+    <t>haluanharian</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 12:47:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kepala Dinas Pendidikan Provinsi DKI Jakarta Nahdiana mengatakan kesehatan dan keamanan peserta didik, pendidik dan tenaga kependidikan menjadi prioritas yang utama di masa pandemi ini.
+https://t.co/FNQyIhr8kr</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 12:40:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Provinsi DKI Jakarta tetap memberlakukan pembelajaran dari rumah atau Pembelajaran Jarak Jauh (PJJ), untuk seluruh sekolah di Provinsi DKI Jakarta pada semester genap Tahun Ajaran (TA) 2020/2021.
+https://t.co/kkoT1ymnho
+#InfoPublik #GPRIndonesia #KominfoNewsroom https://t.co/PdBibigZbL</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 11:25:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Strategi Penerapan Pembelajaran Jarak Jauh Saat Pandemi Covids 19 https://t.co/hu8VyKH40D via @YouTube</t>
+  </si>
+  <si>
+    <t>bpsdmdbanten</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 11:12:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wakil gubernur DKI Jakarta menyatakan bahwa pelajar dan mahasiswa di Jakarta tetap melakukan pembelajaran dan perkuliahan jarak jauh dari rumah, demikian juga dengan para pekerja kantoran di Jakarta masih harus melakukan pekerjaan mereka dari rumah. kasus Covid-19 masih tinggi</t>
+  </si>
+  <si>
+    <t>AlbertSolo2</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 10:00:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kasus harian Covid-19 di Jakarta masih tinggi hingga awal tahun ini, Pemprov DKI Jakarta masih memberlakukan PSBB transisi hingga tiga pekan ke depan, dan pembelajaran tatap muka di batalkan dan tetap menerapkan pembelajaran jarak jauh dari rumah.</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 09:57:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Perkembangan ini menggembirakan kerana mahasiswa dan pensyarah yang tidak mempunyai kecacatan turut mendapat faedah pembelajaran jarak jauh. Namun, saya bimbang tentang apa yang akan berlaku apabila pembelajaran secara biasa dimulakan semula.
+#OKUMalaysia</t>
+  </si>
+  <si>
+    <t>bolehspace</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 09:44:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>@KompasTV Pemprov DKI Jakarta tetap memberlakukan pembelajaran jarak jauh (PJJ) pada awal semester genap Tahun Ajaran 2020/2021. (cont.)</t>
+  </si>
+  <si>
+    <t>RangkumBeritaa</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 08:53:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>PEMKAB Temanggung menunda pembelajaran jarak jauh (PJJ) karena tes usap untuk guru dan tenaga kependidikan
+belum bisa dilakukan akibat laboratorium masih penuh tes covid-19 yang belum selesai..  https://t.co/nqT3weSjxk</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 08:34:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kementerian Pendidikan dan Kebudayaan (Kemendikbud) Pertahankan Pembelajaran Jarak Jauh di TVRI https://t.co/v7i7P2N1kS</t>
+  </si>
+  <si>
+    <t>infogehnet</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 08:11:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kemendikbud Pertahankan Pembelajaran Jarak Jauh di TVRI https://t.co/yYFM0LU7sV</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 07:53:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>DKI Tetap Terapkan Pembelajaran Jarak Jauh https://t.co/9hwaJynNAu</t>
+  </si>
+  <si>
+    <t>soenardo</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 07:00:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemprov DKI Tetap Berlakukan Pembelajaran Jarak Jauh pada Semester Genap https://t.co/zf9WahjJFz</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 06:43:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>@collegemenfess Pembelajaran jarak jauh. Jadi mereka lebih dulu merasakan belajar via daring dri pada kita😂</t>
+  </si>
+  <si>
+    <t>MDSuryaW</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 06:05:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemprov DKI Tetap Berlakukan Pembelajaran Jarak Jauh pada Semester Genap: Pemerintah Provinsi (Pemprov) DKI Jakarta melalui Dinas Pendidikan Provinsi DKI Jakarta tetap memberlakukan pembelajaran dari rumah atau pembelajaran jarak jauh (PJJ) untuk seluruh… https://t.co/aCOWZiBI3H</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 05:42:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kabar terbaru:
+Pemprov DKI Jakarta mengumumkan pembelajaran tatap muka belum dapat dilaksanakan. Oleh karena itu, Jakarta akan tetap meneruskan pembelajaran jarak jauh (PJJ) untuk seluruh sekolah pada semester genap tahun ajaran 2020/2021.</t>
+  </si>
+  <si>
+    <t>asumsico</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 04:59:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>@_yusrilramadhan pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>ngopislurrrrr</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 04:31:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ini Alasan Dan Persiapan Pemprov DKI Jakarta Berlakukan Pembelajaran Jarak Jauh (PJJ) Hingga Akhir Tahun Ajaran 2020/2021
+https://t.co/CrEn7f4tPJ https://t.co/Abfu1waPTI</t>
+  </si>
+  <si>
+    <t>KATAKAMl</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 04:25:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ini Alasan Dan Persiapan Pemprov DKI Jakarta Berlakukan Pembelajaran Jarak Jauh (PJJ) Hingga Akhir Tahun Ajaran 2020/2021
+https://t.co/gRFsfzNR7l https://t.co/iJKtgpXSoh</t>
+  </si>
+  <si>
+    <t>MegaSimarmata</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 04:25:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>@hwiparammm Pembelajaran jarak jauh woi 😭</t>
+  </si>
+  <si>
+    <t>yuraudyy</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 04:14:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemprov DKI memutuskan Pembelajaran Jarak Jauh tetap dilanjutkan selama semester genap TA 2020/2021 demi keamanan siswa, pendidik, hingga tenaga kependidikan selama pandemi COVID-19. https://t.co/vYo6DzNBC7</t>
+  </si>
+  <si>
+    <t>qronoz</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 03:36:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Provinsi DKI Jakarta tetap memberlakukan pembelajaran dari rumah untuk seluruh sekolah di Provinsi DKI Jakarta pada semester genap Tahun Ajaran (TA) 2020/2021.  https://t.co/sGmZ0tPGiw</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 02:49:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kasus Covid-19 Masih Tinggi, Perhimpunan Guru Sarankan Pemprov DKI Lanjutkan Pembelajaran Jarak Jauh https://t.co/yXq0WzAIVH</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 01:56:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>@graxyji pjj pembelajaran jarak jauh bukan?</t>
+  </si>
+  <si>
+    <t>jimsthetics</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 01:39:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>@nufrijel Pembelajaran jarak jauh / daring / onlen</t>
+  </si>
+  <si>
+    <t>dydyahdiyah</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 01:31:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>@orangrandomnih Pembelajaran jarak jauh ngab (online)</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 01:25:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hari ini dapat kabar tidak dapat gaji, dan disuruh istirahat saja selama pembelajaran jarak jauh...</t>
+  </si>
+  <si>
+    <t>holilullohahmad</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 00:59:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kegiatan pembelajaran dan perkuliahan di Kota Kediri masih dilaksanakan secara daring https://t.co/IiMqgrEQj1</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 15:18:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tunggu Kepastian Vaksin Covid-19, Garut Perpanjang Pembelajaran Jarak Jauh
+https://t.co/np2BisT6FH</t>
+  </si>
+  <si>
+    <t>infogarut</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 14:05:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@mlftmwti Pembelajaran jarak jauh / onlen😿</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 14:05:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>@rkwydt Pembelajaran jarak jauh / online 😱😩😩</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 13:38:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wes bosen kelas onlen kan sobat GEN?
+Komisioner Bidang Pendidikan KPAI, Retno Listyarti mengatakan Sebanyak  78,17% dari 62.448 responden, mayoritas menyatakan setuju sekolah tatap muka, karena sudah jenuh pembelajaran jarak jauh (PJJ). 
+#infogenwanipooll 
+#gen1031fmsby https://t.co/lgVJNXJT7l</t>
+  </si>
+  <si>
+    <t>gen1031fmsby</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 12:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Resmi, Kemendikbud Beri 2 Alternatif Pembelajaran Jarak Jauh, Sekolah Tatap Muka Januari 2021 Batal? https://t.co/gaZcyVqoZz https://t.co/Q9bHLRZj6H</t>
+  </si>
+  <si>
+    <t>ahmadbayasut</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 11:55:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>2020 itu tahun yang mengajarkan banyak hal. Ketemu dan kenalan dengan orang baru. Dapat ilmu baru. Dan juga banyak hal-hal tidak terduga yang bikin speechless. Yang mulai dari pusing karna pembelajaran jarak jauh sampai yang tiba-tiba jualan brownies.</t>
+  </si>
+  <si>
+    <t>alyaahp</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 11:12:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>PT Medco E&amp;amp;P Indonesia kembali menyalurkan bantuan berupa gawai untuk membantu proses pembelajaran jarak jauh. Kali ini, bantuan diberikan kepada 200 pelajar di Anambas
+@HumasSKKMigas
+#medcogroup #medcofoundation #medcoenergi #covid19 #petrominer #anambas
+https://t.co/In6tmsAaIk</t>
+  </si>
+  <si>
+    <t>petrominer_com</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 09:35:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>2. Di 2020, pertama kalinya ngerasain pembelajaran jarak jauh :(
+Ya, lumayan struggling sih karena ternyata ku selalu mengantuk di pagi hari</t>
+  </si>
+  <si>
+    <t>Muthia_husna15</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 08:43:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Btw, karena gue ranah nya di pendidikan gimana caranya proposal atau skripsi gue harus bisa dilaksanain pada saat covid. Tapi ternyata, treatment yang gue pakai di skripsi gue tidak cocom untuk pembelajaran jarak jauh. Jadinya skripsi gue di rombak sama dospem dan ganti judul.</t>
+  </si>
+  <si>
+    <t>anindira_nara</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 17:26:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ikhsan291 Malam kak Ikhsan, jangan khawatir ya. Untuk sisa kuota bantuan dari pemerintah tidak akan hilang ya dan hanya layanan pelanggan khusus program bantuan kuota pemerintah untuk Pembelajaran Jarak Jauh (PJJ) yang akan ditutup di tanggal 31 Desember 2020. Thanks ^Dion</t>
+  </si>
+  <si>
+    <t>triindonesia</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 16:48:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>@SSRY0MEN Pembelajaran jarak jauh/daring</t>
+  </si>
+  <si>
+    <t>zahajime</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 13:30:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>PGRI: Guru di Indonesia Tidak Disiapkan untuk Pembelajaran Jarak Jauh https://t.co/unaF5Ze3Hu</t>
+  </si>
+  <si>
+    <t>tribunnews</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 12:49:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>[SUDAH TAYANG] 
+Thank GOD! to give this pandemic
+Sinopsis:
+Vincent pelajar kelas 1 sekolah dasar, harus mengikuti pembelajaran jarak jauh secara online dikarenakan pandemi covid19. Ayah dan ibunya yang tetap bekerja secara langsung, membuat vincent harus belajar secara mandiri.</t>
+  </si>
+  <si>
+    <t>Petrusyoshi</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 11:04:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>2020. Tahun yang berat untuk semuanya. Pertama kalinya melakukan pembelajaran jarak jauh, melihat wajah-wajah baru tanpa bisa menyentuh. Membiasakan diri dengan segala hal yg baru. Mencoba beradaptasi di tengah pandemi. Mencoba tetap berjuang walaupun banyak rintangan menghadang</t>
+  </si>
+  <si>
+    <t>JanuarAmbar</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 10:51:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh. Bantu Donasi dengan klik https://t.co/f2N8myLIUQ</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 07:55:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tak hanya itu, demi membantu para pelajar yang sedang menjalankan pembelajaran jarak jauh pada masa pandemi Covid-19 ini, Ketua DPRD Kabupaten PPU, Kalimantan Timur Jhon Kenedi juga menjalankan Gerakan Nasional #DemokratWifiGratis. https://t.co/6mOWni1WQA</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 05:58:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut kisah-kisah tragis hingga menyentuh di masa pembelajaran jarak jauh atau secara daring selama pandemi Covid-19. https://t.co/ZpQZhoh93v</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 23:11:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Page 366 of 366 ngga kerasa ya kita bisa survive ditengah kondisi saat ini. Pembiasaan diri memakai masker yg awalnya engap, cuci tangan, jaga jarak, pematuhan peraturan PSBB, jam malam, sekolah dan kuliah dg pembelajaran jarak jauh, sidang skripsi onlen, bahkan wisuda online.</t>
+  </si>
+  <si>
+    <t>regitaak</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 23:06:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>@collegemenfess Oh pembelajaran jarak jauh,ak mikir bgt njir , ak jg lah sama</t>
+  </si>
+  <si>
+    <t>sianakcangtip</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 17:22:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Setuju ah. Jangan ambil risiko
+ https://t.co/wfWCFJCeKL</t>
+  </si>
+  <si>
+    <t>MangPulsa</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 16:09:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kemendikbud Izinkan Sekolah Tatap Muka, 2021 Bandung Tetap Terapkan Pembelajaran Jarak Jauh https://t.co/EIfX4yYUgD</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 14:03:33 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -7432,10 +7885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D930"/>
+  <dimension ref="A1:D1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A911" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H927" sqref="H927"/>
+    <sheetView tabSelected="1" topLeftCell="A1001" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1007" sqref="I1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20460,6 +20913,1098 @@
         <v>1940</v>
       </c>
     </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>1.3453768219283699E+18</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C931" t="s">
+        <v>217</v>
+      </c>
+      <c r="D931" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>1.3453733959580301E+18</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C932" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D932" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>1.345369466054484E+18</v>
+      </c>
+      <c r="B933" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C933" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D933" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>1.345369121672757E+18</v>
+      </c>
+      <c r="B934" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C934" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D934" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>1.3453594612762419E+18</v>
+      </c>
+      <c r="B935" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C935" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D935" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>1.3453508902789609E+18</v>
+      </c>
+      <c r="B936" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C936" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D936" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>1.3453491197710871E+18</v>
+      </c>
+      <c r="B937" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C937" t="s">
+        <v>244</v>
+      </c>
+      <c r="D937" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>1.3453304384248379E+18</v>
+      </c>
+      <c r="B938" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C938" t="s">
+        <v>187</v>
+      </c>
+      <c r="D938" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>1.3453270075890109E+18</v>
+      </c>
+      <c r="B939" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C939" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D939" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>1.3453089557659689E+18</v>
+      </c>
+      <c r="B940" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C940" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D940" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>1.3453081572669069E+18</v>
+      </c>
+      <c r="B941" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C941" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D941" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>1.3453050706954529E+18</v>
+      </c>
+      <c r="B942" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C942" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D942" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>1.345292155690996E+18</v>
+      </c>
+      <c r="B943" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C943" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D943" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>1.3452872409398029E+18</v>
+      </c>
+      <c r="B944" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C944" t="s">
+        <v>244</v>
+      </c>
+      <c r="D944" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>1.3452815337085299E+18</v>
+      </c>
+      <c r="B945" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C945" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D945" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>1.345276956107895E+18</v>
+      </c>
+      <c r="B946" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C946" t="s">
+        <v>432</v>
+      </c>
+      <c r="D946" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>1.3452637741990669E+18</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C947" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D947" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>1.3452593046982981E+18</v>
+      </c>
+      <c r="B948" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C948" t="s">
+        <v>432</v>
+      </c>
+      <c r="D948" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>1.3452499195655859E+18</v>
+      </c>
+      <c r="B949" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C949" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D949" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>1.3452440607520891E+18</v>
+      </c>
+      <c r="B950" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C950" t="s">
+        <v>176</v>
+      </c>
+      <c r="D950" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>1.345233127845708E+18</v>
+      </c>
+      <c r="B951" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C951" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D951" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>1.345226290886922E+18</v>
+      </c>
+      <c r="B952" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C952" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D952" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>1.3452246862175439E+18</v>
+      </c>
+      <c r="B953" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C953" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D953" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>1.345224630009643E+18</v>
+      </c>
+      <c r="B954" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C954" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D954" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>1.3452218087823401E+18</v>
+      </c>
+      <c r="B955" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C955" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D955" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>1.345212416364171E+18</v>
+      </c>
+      <c r="B956" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C956" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D956" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>1.3452004151728289E+18</v>
+      </c>
+      <c r="B957" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C957" t="s">
+        <v>244</v>
+      </c>
+      <c r="D957" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>1.345187219984683E+18</v>
+      </c>
+      <c r="B958" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C958" t="s">
+        <v>193</v>
+      </c>
+      <c r="D958" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>1.3451829823703119E+18</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C959" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D959" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>1.345180937965847E+18</v>
+      </c>
+      <c r="B960" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C960" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D960" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>1.345179281081569E+18</v>
+      </c>
+      <c r="B961" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C961" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D961" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>1.3451729517887319E+18</v>
+      </c>
+      <c r="B962" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C962" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D962" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>1.3450266360816269E+18</v>
+      </c>
+      <c r="B963" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D963" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>1.3450082583108029E+18</v>
+      </c>
+      <c r="B964" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C964" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D964" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>1.3450082150213709E+18</v>
+      </c>
+      <c r="B965" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C965" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D965" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>1.345001471645868E+18</v>
+      </c>
+      <c r="B966" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C966" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D966" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>1.3449766682141251E+18</v>
+      </c>
+      <c r="B967" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C967" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D967" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>1.344975545071636E+18</v>
+      </c>
+      <c r="B968" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C968" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D968" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>1.3449646911776031E+18</v>
+      </c>
+      <c r="B969" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C969" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D969" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>1.3449404066776389E+18</v>
+      </c>
+      <c r="B970" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C970" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D970" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>1.344927185845375E+18</v>
+      </c>
+      <c r="B971" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C971" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D971" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>1.344696548924428E+18</v>
+      </c>
+      <c r="B972" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C972" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D972" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>1.3446869844476191E+18</v>
+      </c>
+      <c r="B973" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C973" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D973" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>1.3446371529869719E+18</v>
+      </c>
+      <c r="B974" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C974" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D974" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>1.344626697220415E+18</v>
+      </c>
+      <c r="B975" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C975" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D975" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>1.3446002410691169E+18</v>
+      </c>
+      <c r="B976" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C976" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D976" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>1.34459700842256E+18</v>
+      </c>
+      <c r="B977" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C977" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D977" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>1.3445528425272691E+18</v>
+      </c>
+      <c r="B978" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D978" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>1.3445234110374049E+18</v>
+      </c>
+      <c r="B979" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C979" t="s">
+        <v>363</v>
+      </c>
+      <c r="D979" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>1.344420761033822E+18</v>
+      </c>
+      <c r="B980" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C980" t="s">
+        <v>154</v>
+      </c>
+      <c r="D980" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>1.34441956833731E+18</v>
+      </c>
+      <c r="B981" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C981" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D981" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>1.344332965623394E+18</v>
+      </c>
+      <c r="B982" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C982" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D982" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>1.3443146767382899E+18</v>
+      </c>
+      <c r="B983" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C983" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D983" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>1.3442829824926971E+18</v>
+      </c>
+      <c r="B984" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C984" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D984" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>1.344276830627402E+18</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C985" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>1.3442704670419231E+18</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C986" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>1.34426949090576E+18</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>1.3442545163092831E+18</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>1.3442506691888781E+18</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>1.344249898158313E+18</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>1.3442444097059761E+18</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C991" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D991" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>1.3442229617047391E+18</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C992" t="s">
+        <v>176</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>1.3442184456305129E+18</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C993" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>1.344214558693474E+18</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C994" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>1.3442114431393221E+18</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>1.344209654398636E+18</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C996" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>1.3441782651670689E+18</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C997" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>1.3441703372319831E+18</v>
+      </c>
+      <c r="B998" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C998" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D998" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>1.3441504994826939E+18</v>
+      </c>
+      <c r="B999" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C999" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D999" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>1.3441399984596621E+18</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>1.3441363482869509E+18</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>1.344136102987252E+18</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>1.3441353187194839E+18</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>1.3441293038946391E+18</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>1.3441279825002501E+18</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>1.3441118176273331E+18</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>1.3440965793392269E+18</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>1.3440796572267561E+18</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>2027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="2267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="2585">
   <si>
     <t>id</t>
   </si>
@@ -7523,6 +7523,1025 @@
   </si>
   <si>
     <t>Wed Dec 30 14:03:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Guru skrng mah harus putar otak
+Gimana bisa memberikan pembelajaran dg tantangan jarak jauh tetapi tetap berkompeten,bermutu,menarik dan asik dan tercapai tujuan pembelajarannya</t>
+  </si>
+  <si>
+    <t>saya__anggit</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 14:56:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh ini emang bener-bener ngajarin sabar 🙃</t>
+  </si>
+  <si>
+    <t>sariratri_</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 14:39:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>"Kepala UPTD, pengawas sekolah, dan penilik tetap memantau jalannya pembelajaran dari rumah atau pembelajaran jarak jauh," kata Sekretaris Disdikbud Mamasa. #publisherstory https://t.co/IbbXUrNsk7</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 13:27:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wali Kota Bandung Oded M Danial menegaskan enam bulan ke depan siswa sekolah di Kota Bandung tertap belajar secara daring atau Pembelajaran Jarak Jauh (PJJ). #Bandung #Sekolah https://t.co/Ca0XlvbeFj</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 12:58:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>@giginyajunkyu pembelajaran jarak jauh pak, jd belajar dirumah gaboleh ke sekolah tatap muka gitu pak</t>
+  </si>
+  <si>
+    <t>Li0nBear</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 12:55:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kaget banget yaAllah,sebegini parah nya Pembelajaran jarak jauh ngebuat bbrapa siswa ak ada yg sampai kena gangguan jiwa🥺, semoga segera ada solusinya dri PJJ ini. Soalnya SMA full blm prnah tatap muka</t>
+  </si>
+  <si>
+    <t>ZulmiFarras</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 12:18:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Bukan Sekadar Video Conference https://t.co/BPkgYOzd1k</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 12:04:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>@piyeyobu Lagi PJJ (Pembelajaran Jarak Jauh) buk, belum bisa tatap muka🙏🏻</t>
+  </si>
+  <si>
+    <t>Ilhamdeanova</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 10:30:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tantangan Pembelajaran Jarak Jauh (PJJ) tidak hanya dirasakan oleh murid, tetapi juga oleh guru dan orang tua.
+Donasi untuk program #TerusBelajar masih dibuka hingga 14 Februari 2021. Silakan klik link tautan untuk berdonasi di bio kami atau di laman donasi fundraisers NR 8. https://t.co/XIjbfLuHTt</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 10:28:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Banyak sekolah dan pemerintah daerah memutuskan melanjutkan pembelajaran jarak jauh daring pada semester genap 2020/2021 karena risiko penularan Covid-19 masih sangat mengkhawatirkan. #Humaniora #AdadiKompas https://t.co/rVImjQqwlx</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 10:15:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dalam sebuah kunjungan kerja ke daerah...
+"Sejak PJJ (pembelajaran jarak jauh), penghuni kelas di sini makin banyak mas. Maklum sudah hampir setahun gak ada siswa"</t>
+  </si>
+  <si>
+    <t>drsukma</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 09:36:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persiapan Disdipora Bantul dalam penerapan pembelajaran jarak jauh, apa saja?
+https://t.co/Aeb8bululL</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 09:20:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sekolah di Sumenep Wajib Pembelajaran Jarak Jauh https://t.co/EVw4q6i46L https://t.co/qvWtJjA88Z</t>
+  </si>
+  <si>
+    <t>pha_opha1234</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 08:20:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh yang masih berlanjut, sejumlah sekolah di DKI Jakarta menyiapkan metode belajar-mengajar baru. Hal ini bertujuan agar siswa tidak merasa jenuh seperti yang terjadi pada semester ganjil. #Humaniora #AdadiKompas https://t.co/9xB2grx5J6</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 08:15:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Beberapa hari lagi para peserta didik akan kembali menjalani Pembelajaran Jarak Jauh (PJJ). Kira-kira apa saja ya yang perlu dipersiapkan untuk kembali menjalani PJJ?
+Baca selengkapnya di https://t.co/lLqIKYGNP7
+#BPKPENABURJakarta 
+#dirumahaja
+#PJJ
+#PembelajaranJarakJauh https://t.co/jgoj6F24b2</t>
+  </si>
+  <si>
+    <t>BPKPENABURJkt</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 08:05:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Secara umum, banyak sekolah langsung, nggak pakai lama memutuskan untuk melanjutkan PJJ (Pembelajaran Jarak Jauh) bagi peserta didiknya. Setuju, dan inilah keputusan yang waras menurut penulis.</t>
+  </si>
+  <si>
+    <t>CintaBudaya6</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:51:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>ahm_setiawan</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:51:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>PolitikSambat</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:51:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>DrPrasta</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:51:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>nttktf1</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:51:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mencengangkan! Diduga sesosok makhluk halus muncul saat Pembelajaran Jarak Jauh (PJJ) SMAN 78 Jakarta, Selasa, 5 Januari 2021. https://t.co/qgfzoVnwqZ</t>
+  </si>
+  <si>
+    <t>lydiahmertua</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 05:00:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>DPR: Pembelajaran Jarak Jauh Harus Tetap Jadi Prioritas Kemendikbud https://t.co/ZsUSUBOCH3</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 04:50:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Minggu pertama di semester 2 sengaja dialokasikan untuk minta feedback ke anak-anak terkait pelaksanaan Pembelajaran Jarak Jauh (PJJ). Hasilnya begini 😂 https://t.co/620xowWbaC</t>
+  </si>
+  <si>
+    <t>therusetiawan</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 04:48:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>maka pelaksanaan kegiatan semester genap masih dilakukan metode Pembelajaran Jarak Jauh (PJJ) terhitung dari tanggal 1 Januari - 31 Agustus 2021. Informasi lebih lanjut dapat dilihat pada surat di bawah. https://t.co/BtGFDvmShC</t>
+  </si>
+  <si>
+    <t>bemFMIPAUI</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 03:44:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@es__grim Semangat.  Sehat terus ya mas @es__grim Aamiin.  Ini hasil rapid test saya barusan.  Kami kembali PJJ - Pembelajaran Jarak Jauh. https://t.co/Z5tAPZqUlE</t>
+  </si>
+  <si>
+    <t>budis1909</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 03:42:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@namufortia Pembelajaran jarak jauh 😔</t>
+  </si>
+  <si>
+    <t>jkforpita</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 03:38:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Apa yang anda lakukan untuk mengisi waktu luang sejak work from home dan pembelajaran jarak jauh?
+Tahukah anda bahwa ada 8 lelah yang disukai Allah dan Rasul-Nya, diantaranya adalah lelah dalam menuntut ilmu, serta lelah dalam beribadah dan beramal shaleh https://t.co/DpxxdN3xIg</t>
+  </si>
+  <si>
+    <t>cinqo_education</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 03:10:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>🎧 Pandemi covid-19 memaksa aktivitas belajar-mengajar berubah di tahun 2020 kemarin. Di semester baru sekolah nanti besar kemungkinan akan online jg, masih ingatkah apa saja tantangannya saat mulai Pembelajaran Jarak Jauh? Share dengan reply twit ini ya.. 😉 👌 #BelajarDariRumah https://t.co/DAkfAWfVdl</t>
+  </si>
+  <si>
+    <t>AyoGerakBareng</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:36:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sejumlah daerah menggelar sekolah tatap muka di masa pandemi Covid-19. Daerah dengan angka kasus tinggi seperti DKI Jakarta, Banten dan Jawa Tengah masih memilih pembelajaran jarak jauh. https://t.co/D0zH3STyeb #CNNIndonesia https://t.co/9X7KWFSpai</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Banyak sekolah dan pemerintah daerah memutuskan melanjutkan pembelajaran jarak jauh daring pada semester genap  2020/2021 karena risiko penularan Covid-19 masih sangat mengkhawatirkan. 
+#Humaniora #adadikompas 
+https://t.co/AqHN4knomj</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 01:08:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Selasa 5 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/Y2zXRVO4CB</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 01:06:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Disdik Kota Madiun kembali memberlakukan pembelajaran jarak jauh kepada seluruh satuan pendidikan pada awal semester genap tahun ajaran 2020/2021 yang dimulai tanggal 4 Januari 2021.
+https://t.co/RNN6GXEfkZ</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 22:53:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fahira Idris Dukung Perpanjangan PSBB Transisi Dan Pembelajaran Jarak Jauh, baca @rmol_id
+https://t.co/Bsb9IYE7pu</t>
+  </si>
+  <si>
+    <t>fahiraidris</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 22:53:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Asus Vivobook 14 A416MA, Laptop Murah Cocok untuk Pembelajaran Jarak Jauh (PJJ) https://t.co/62P2DK356w #Laptophia</t>
+  </si>
+  <si>
+    <t>laptophia</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 18:46:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Jilid 2, Siapkah? https://t.co/jzrZAQBmWt</t>
+  </si>
+  <si>
+    <t>bugurcil</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 16:23:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kota Madiun berstatus zona merah Covid-19 https://t.co/HH6At0IplZ</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 16:09:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>buka twitter rame pada sebel PJJ (Pembelajaran Jarak Jauh) masih tetap diadakan. yg sebel rata2 emak2 yg udah puyeng ama anaknya. hmm susah kan jd guru? makanya jangan suka remehin :)</t>
+  </si>
+  <si>
+    <t>vinideliana</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 16:08:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Asus Vivobook 14 A416MA, Laptop Murah Cocok untuk Pembelajaran Jarak Jauh (PJJ) via @laptophia - https://t.co/hauyNhFO7k</t>
+  </si>
+  <si>
+    <t>dityatuxlin</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 15:23:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>@bubblekendy Pembelajaran jarak jauh😭</t>
+  </si>
+  <si>
+    <t>buccinppiyak2</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 13:12:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bahagia itu menyehatkan 🤩
+Buat anak-anak bahagia itu sederhana. Semangat mendukung pembelajaran jarak jauh untuk anak-anak kita. 
+#fastackfunschool
+#earlychildhoodeducation
+#schoolfromhome 
+#paudjogja https://t.co/scWwKDfjn8</t>
+  </si>
+  <si>
+    <t>FastrackSchool</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 12:39:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>@xxxjrhsm pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>blueMyGguk</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 12:10:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kualitas pendidikan semakin menurun, sikap dan sifat semakin tidak terkendali. Manusia sibuk saling menyalahkan. Guru menyalahkan orangtua, orangtua menyalahkan guru. Dan kabar buruknya adalah pembelajaran jarak jauh dilanjutkan hingga waktu yang ditentukan💔</t>
+  </si>
+  <si>
+    <t>hrfslmnr</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 12:06:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>@zheperine mana sekarang udah mulai pembelajaran jarak jauh :(</t>
+  </si>
+  <si>
+    <t>chiggiri</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 11:12:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Masuki Tahun Ajaran Baru, Dindik Kota Madiun Kembali Berlakukan PJJ
+MADIUN- Dinas Pendidikan (Dindik) Kota Madiun kembali memberlakukan pembelajaran jarak jauh (PJJ) kepada seluruh satuan pendidikan di tahun pelajaran 2020/2021 pada semester genap ini. … https://t.co/WFamcDnLwf https://t.co/7csYIIFG4Y</t>
+  </si>
+  <si>
+    <t>madiuntoday_</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 10:31:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buibu memang perlu menyiapkan berbagai hal menjelang pembelajaran jarak jauh januari ini
+https://t.co/nUT4E5rJhL cuzz baca ini tulisan mba @amma_chemist terus dipraktikkan 
+Tempe
+Page 4 of 365</t>
+  </si>
+  <si>
+    <t>dian_ismy</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 10:29:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>#jatimNow Dinas Pendidikan (Dindik) Kabupaten Ponorogo kembali menerapkan pembelajaran jarak jauh (PJJ) kepada 9 SMP dan 42 SD di Bumi Reog.
+https://t.co/4xgAXcqIwB</t>
+  </si>
+  <si>
+    <t>jatimNow</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 09:48:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Contoh sikap positif dengan pembelajaran jarak jauh: 
+1) Tetap ceria ketika sekolahnya ternyata online lagi.
+2) Semangat menyiapkan tugas yang mau dibahas ketika kelas online nanti.
+3) Bergairah nyiapin laptop full batere, kuota dari providernya masih full</t>
+  </si>
+  <si>
+    <t>vickylaurentina</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 09:24:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh sebetulnya tidak menghapus nilai keteraturan pada anak sekolah, kalau orang tua mau bekerja sama.
+Orang tua yang mau bersikap positif, akan gampang dicontek oleh anaknya untuk berkarakter positif juga.</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 09:22:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>#Pemprov DKI Jakarta Perpanjang Pembelajaran Jarak Jauh (PJJ) - https://t.co/opuireOKlT #DKIJakarta</t>
+  </si>
+  <si>
+    <t>DKl_Jakarta</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 08:59:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kemendikbud juga memfasilitasi pembelajaran jarak jauh (PJJ) dengan berbagai program televisi, di samping pembelajaran daring-luring dan/atau blended learning yang dikelola sendiri oleh satuan pendidikan.</t>
+  </si>
+  <si>
+    <t>SudirmanBagas</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 08:08:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>gulatbos</t>
+  </si>
+  <si>
+    <t>omjoni43265658</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 08:08:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>adudombajalani1</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 08:08:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>sukontlo1</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 08:08:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>MariniTatum</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 08:08:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>bulatsempurna1</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 08:08:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pjj itu pembelajaran jarak jauh kan</t>
+  </si>
+  <si>
+    <t>vtsxxrrrrr</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 07:11:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>@PacaarNanon @clownsma @lavoproust @tumcyai PJJ = Pembelajaran Jarak Jauh
+yahh benar</t>
+  </si>
+  <si>
+    <t>pikiiuuuu_</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 05:15:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>#IFAKTA Meskipun Kota Bandung sudah dinyatakan masuk dalam zona oranye, Dinas Pendidikan (Disdik) akan tetap memberlakukan pembelajaran jarak jauh (PJJ) pada semester ganjil tahun 2021. https://t.co/Dn3RCxGm8z</t>
+  </si>
+  <si>
+    <t>iradiobdg</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 04:53:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selama pembelajaran jarak jauh hanya dianggap sebagai "contingency plan" ya kaya gini terus jadinya, tarik ulur tatap muka vs terus lanjut. Hanya soal narasi kelas, dan argumen sepihak spt angka kekerasan kepada anak yang meningkat. Padahal angka kasusnya udah gede banget.</t>
+  </si>
+  <si>
+    <t>eldidito</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 04:36:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sekolah tatap muka ditunda, anak-anak masih melanjutkan sekolah online dulu hingga Covid-19 mereda https://t.co/5vph20ZZcb</t>
+  </si>
+  <si>
+    <t>Popmama_com</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 04:15:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>#MGTNews Kota Bandung Belum Mengizinkan Sekolah Tatap Muka Meski Kota Bandung kini sudah dinyatakan masuk dala zona oranye, Dinas Pendidikan (Disdik) menyebut akan tetap memberlakukan pembelajaran jarak jauh (PJJ) pada semester ganjil tahun 2021.
+https://t.co/xPtNtXeyJU</t>
+  </si>
+  <si>
+    <t>MGT_RADIO</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 04:15:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>PJJ (Pembelajaran Jarak Jauh) masih berlanjut di semester dua ini...hasil keputusan Gubernur Jateng @ganjarpranowo dan dinas pendidikan kota...karena angka covid masih tinggi di Jateng https://t.co/pwzPKDZOYU</t>
+  </si>
+  <si>
+    <t>insanskulkasih</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 03:32:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>@kihuangren nah ka masalah nya kan blm pernah ke sekolahnya😭, mungkin first impressions ttg pembelajaran jarak jauh ini kali ya😭</t>
+  </si>
+  <si>
+    <t>sunshinesh94</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 03:29:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>FEdu absensi online sekolah membantu dalam sistem manajemen sekolah. Mendukung pembelajaran jarak jauh ( PJJ) yang memudahkan dalam proses belajar  mengajar, ujian online, hingga kelas &amp;amp; meeting virtual.
+https://t.co/XU7RRhdC1z</t>
+  </si>
+  <si>
+    <t>fingerspot</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 03:05:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>@mywinterae Pembelajaran jarak jauh(?) Wkkwkw</t>
+  </si>
+  <si>
+    <t>yjiminjeong</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 02:58:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>@collegemenfess lulus wisuda baru offline sisanya pembelajaran jarak jauh trust me it's don't work wkwkwk</t>
+  </si>
+  <si>
+    <t>Xkuyda</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 02:48:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@subtanyarl @tanyainrl bismillah, aku sangat ingin menerima hadiah giveaway tersebut karena ingin membeli kuota untuk pembelajaran jarak jauh alias sekolah online karena aku sangat ingin belajar untuk utbk dan menambah ilmu tentunya. Terima kasih min❤️ https://t.co/TBqSCcQMvv</t>
+  </si>
+  <si>
+    <t>II_Aoon</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 02:30:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>@emerson_yuntho @KompasTV Sebaiknya jangan pikirkan untuk tergesa belajara tatap muka. Justru alihkan konsentrasi bahwa pembelajaran jarak jauh ini akan lama bahkan permanen. Konsentrasikan untuk terus menerus meningkatkan kualitas PJJ. Diknas justru harus fokus bikin kebijakan dan sarana prasarana u itu!</t>
+  </si>
+  <si>
+    <t>rpton</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 02:06:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>@KompasTV Kalau gak mau ngurus anak, jangan maksa punya anak, makanya @KPAI_official!!! Segala alesan pembelajaran jarak jauh hanya melayani anak orang kaya.. pro aktif dong jadi orang tua, sat. Enak banget membebani semua kegiatan pembelajaran ke guru semata</t>
+  </si>
+  <si>
+    <t>dagadgetboi</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:54:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh semester genap telah dimulai pagi ini. Selamat rebutan HP dengan anak bagi para ortu yg hanya punya 1 hempon ☺☺🙏🙏🙏
+percayalah anda tidak sendiri. Sayapun demikian😀😀😀</t>
+  </si>
+  <si>
+    <t>bakoel_cilok</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:39:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>PJJ : pembelajaran jarak jauh mwehe https://t.co/4OBsX9dyDh</t>
+  </si>
+  <si>
+    <t>beeenjiandai</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:31:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Page 4 of 365
+Selamat berkutat dg pembelajaran jarak jauh kembali , semangat</t>
+  </si>
+  <si>
+    <t>pacarnyaseokhon</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:25:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hari pertama sekolah 🤓
+Jakarta msih menerapkan pembelajaran jarak jauh.
+Semangat untuk kita, ibu2 yg harus mendampingi anak2nya belajar dirumah walau harus berbagi Hp &amp;amp; berbagi waktu dgn kewajiban rumah tangga 🙏🏻😇💪🏻
+Smoga pandemi ini selesai &amp;amp; smua bs kembali normal
+ Aamiin</t>
+  </si>
+  <si>
+    <t>YantiBahrii</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:10:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemprov DKI kembali memberlakukan PSBB transisi hingga tanggal 17 Januari mendatang, tingginya kasus harian Covid-19 di Jakarta, membuat pembelajaran tatap muka di batalkan dan tetap melakukan pembelajaran jarak jauh dari rumah dengan media daring.</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:32:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Hildayesung3 Pembelajaran jarak jauh? Eh line berapa?</t>
+  </si>
+  <si>
+    <t>Jang_Zia_Chan</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:17:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Bluebuub pembelajaran jarak jauh bund</t>
+  </si>
+  <si>
+    <t>ekofhzg</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:13:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>@chocodrunc Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>rikkakawaii_</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:10:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat datang 2021 dan selamat berjumpa di semester 2. Mari belajar, masih dengan Pembelajaran Jarak Jauh. Semoga pandemi ini cepat hilang agar bisa Belajar Tatap Muka. Aamiin #sdntangerang15tidakmenyerahlawancorona https://t.co/F4XaKQdWIz</t>
+  </si>
+  <si>
+    <t>ceria15</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:04:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>*sigh* masih pembelajaran jarak jauh😞</t>
+  </si>
+  <si>
+    <t>markwatermellon</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 00:03:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>🙏
+Selamat pagi, apa kabar? Semoga senantiasa dalam keadaan sehat 💪 
+saat ini masih pandemi, maka memasuki pembelajaran semester 2 kita masih melaksanakan Pembelajaran Jarak Jauh (PJJ), Belajar Dari Rumah
+#bdr 
+#pjj</t>
+  </si>
+  <si>
+    <t>Hartonospd</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 23:43:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>@subtanyarl @tanyainrl Kalau aku menang Giveawaynya buat membeli kuota untuk pelajaran jarak jauh dan belajar materi utbk lewat video pembelajaran. Karena, ditempatku sekolahnya masih online dikarenakan peningkatan kasus covidnya tinggi dan termasuk zona merah.</t>
+  </si>
+  <si>
+    <t>naret_27</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 20:34:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>KKN Tematik UPI 2020: Mahasiswa UPI Beri Pelatihan Pembuatan Google Form bagi Guru SD sebagai Media Evaluasi Pembelajaran Jarak Jauh (PJJ) pada Masa Pandemi - https://t.co/UUh6IgBSc2 - https://t.co/UUh6IgBSc2 https://t.co/aV77S03dIB https://t.co/FfhIQKX37Z</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 19:11:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@achmadrayhan18 @txtdaridepok pembelajaran jarak jauh bang</t>
+  </si>
+  <si>
+    <t>kyriemasoara2</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 16:54:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>@janicebryant_ pembelajaran jarak jauh😌</t>
+  </si>
+  <si>
+    <t>minnsugarr_</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 16:13:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dari sekitar 6.000 responden guru, hampir lima puluh persennya menyatakan setuju. Alasannya, materi pelajaran selama ini sangat sulit disampaikan dengan metode pembelajaran jarak jauh.
+iya sulit karena lo cuman mindahin ruang kelas dari sekolah ke zoom bay</t>
+  </si>
+  <si>
+    <t>Nurburuuj</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 15:20:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@eszevee pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>SUNFL0EWGURL</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 14:48:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>@ttermungil pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>pacntone</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 14:42:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>#MGTNews Meski Kota Bandung kini sudah dinyatakan masuk dalam zona oranye, Dinas Pendidikan (Disdik) menyebut akan tetap memberlakukan pembelajaran jarak jauh (PJJ) pada semester ganjil tahun 2021. https://t.co/ZCoGUoiXWf</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 14:40:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Absensi online sekolah &amp;amp; universitas yang banyak banget fiturnya. Manajemen sekolah pun juga jadi lebih mudah. Pas banget dipake selama pembelajaran jarak jauh (PJJ) 😘😍
+https://t.co/wp0i7hNGsk</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 14:39:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>@woncrops pembelajaran jarak jauh 😁</t>
+  </si>
+  <si>
+    <t>wonwhui</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 14:37:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>besok senin
+besok udah mulai pembelajaran jarak jauh (lagi)
+😪😪😪😪😪😪</t>
+  </si>
+  <si>
+    <t>fitriarahma33</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 14:03:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pertemuan Tatap Muka atau Pembelajaran Jarak Jauh via @jabarekspres https://t.co/axCeTxTqKQ</t>
+  </si>
+  <si>
+    <t>jabarekspres</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 13:21:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>@KompasTV Komisioner Komisi Perlindungan Anak Indonesia (KPAI) Retno Listyarti mengatakan sistem pembelajaran jarak jauh hanya melayani anak-anak kaya. Namun juga ia mengingatkan agar belajar tatap muka harus dimulai perlahan, (cont.)</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 13:09:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>KPAI: Pembelajaran Jarak Jauh Hanya Melayani Anak-anak Kaya https://t.co/1dB5jsc4fg https://t.co/6WdZtqTB8e</t>
+  </si>
+  <si>
+    <t>KompasTV</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 13:09:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk semangat lagi belajar nya 
+#kembalibelajar
+@kompasiana
+Mood, Komunikasi dan Protokol Kesehatan Untuk Pembelajaran Jarak Jauh https://t.co/EM58GXb2pi</t>
+  </si>
+  <si>
+    <t>fajarpricetag</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 12:47:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemprov DKI Jakarta secara resmi membatalkan rencana pembelajaran tatap muka di sekolah mulai bulan ini.
+Sebagai gantinya, pemerintah akan meneruskan pembelajaran jarak jauh (PJJ) pada semester genap 2020/2021. #SorotanMedia https://t.co/ol6bKEhXqa</t>
+  </si>
+  <si>
+    <t>LokadataID</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 12:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>@shlabieber ha loe ga tau? pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>loveyoug00dbye</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 11:54:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Semester Genap Tahun Ajaran 2020/2021🤩 https://t.co/HP3Mp1JGr9</t>
+  </si>
+  <si>
+    <t>nu_said7</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 11:02:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Masa PJJ diperpanjang meski banyak sekolah siap menggelar sekolah tatap muka. https://t.co/GTPHS0DWdL</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 10:52:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>@gxcol @rlowhydi PJJ = Pembelajaran Jarak Jauh
+BDR = Belajar Dari Rumah 
+bajilak salah nulis dudu WFO kudune WFH
+WFO = Work From Office
+WFH = Work From Home</t>
+  </si>
+  <si>
+    <t>NandiPurwono</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 10:33:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sudah 5 tahun pakai ini :(
+Pembelajaran Jarak Jauh pun pakai ini.</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 10:31:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Brightlyflo pembelajaran jarak jauh yank</t>
+  </si>
+  <si>
+    <t>istriohmnamon</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 09:10:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Meskipun Kemendikbud telah memberikan izin terkait sistem pembelajaran tatap muka, namun Pemkot Bandung tak ingin mengambil risiko, dan tetap masih akan menerapkan sistem pembejalaran jarak jauh di awal 2021.
+#StayFitForLife
+#TetapFIT
+#AkhirPekan
+#WaspadaCovid19 https://t.co/sF3GX8MsUU</t>
+  </si>
+  <si>
+    <t>FitRadioBandung</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 08:40:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Penyebaran Covid-19 di Jakarta masih tinggi sehingga sekolah tatap muka berisiko.  https://t.co/ijTuPMMRax</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 08:36:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>kiat uas sit in saat pembelajaran jarak jauh: baca sekilas aje yg penting tau bagian a, b, c di ppt yg mana wkwkwkwkwk auto bersinar dah tuh</t>
+  </si>
+  <si>
+    <t>keosbgtbray</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 07:35:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Virus corona (covid-19) membuat anak harus melaksanakan pembelajaran jarak jauh (PJJ) dari rumah. Bunda, cat ruang belajar anak pengaruhi konsentrasinya lo. #catrumah https://t.co/f5vXZi17J6</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 07:26:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>[SADBOI 1.1]
+Sadewa Beri Informasi
+Tak terasa sudah hampir 1 tahun Indonesia melaksanakan Pembelajaran Jarak Jauh (PJJ) karena pandemi Covid-19. Praktiknya, terdapat banyak tantangan, salah satunya adalah akses komunikasi, padahal PJJ membutuhkan internet. https://t.co/JPkerARow3</t>
+  </si>
+  <si>
+    <t>SadewaIND</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 06:39:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>@_JKT48TeamJ Karena pandemi jdi pembelajaran jarak jauh sehingga bisa kuliah di rumah,bisa kumpul sama keluarga pas lebaran dan tahun baru(biasanya engga bisa),bisa nonton theater walau online,oshi ngumumin grad #JKT48InYear2021</t>
+  </si>
+  <si>
+    <t>sayanyda</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 06:10:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>@_JKT48TeamJ cukup singkat. bertemu dengan orang-orang baru yang baik sekali, mulai pembelajaran jarak jauh, dan tentunya berpartisipasi dalam event video call bersama oshiku satu-satunya hehehe #JKT48InYear2021</t>
+  </si>
+  <si>
+    <t>ochinwashere</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 05:53:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>@_yesttasari Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>rannriego</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 04:30:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh ( Online ) tetap berlaku di Semester Genap Tahun Ajaran 2020-201 untuk Wilayah DKI Jakarta part 2.
+Tetap Semangat...👍👌 https://t.co/hOpKBnkuYV</t>
+  </si>
+  <si>
+    <t>smaimpianbunda2</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 03:54:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh ( Online ) tetap diberlakukan di Semester Genap Tahun Ajaran 2020-2021 untuk Wilayah DKI Jakarta.
+Tetap Semangat...👍👌 https://t.co/9Tg8YDWlhy</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 03:52:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Itu Tatap Muka Bukan Jarak Jauh atau Daring https://t.co/GmEphpOpri</t>
+  </si>
+  <si>
+    <t>husita_dj</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 03:31:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Itu Tatap Muka Bukan Jarak Jauh atau Daring https://t.co/x3GbVyr53v</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 02:18:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kepatuhan masyarakat Jawa Timur menerapkan protokol kesehatan belakangan agak kendur, sehingga kasus Covid-19 kembali naik. Di DKI, pembelajaran jarak jauh kembali diterapkan demi memutus penularan wabah. 
+#Nusantara #adadikompas 
+https://t.co/tj32XEQ4U6</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 02:18:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>#KomisiAndaElshinta : Sejumlah kepala daerah tidak mengijinkan sekolah tatap muka tahun Januari 2021, apa yg harus diperbaiki agar pembelajaran jarak jauh berjalan efektif? https://t.co/JXOFUI2eGL</t>
+  </si>
+  <si>
+    <t>RadioElshinta</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 18:26:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sejumlah kepala daerah tidak mengijinkan sekolah tatap muka tahun Januari 2021, apa yg harus diperbaiki agar pembelajaran jarak jauh berjalan efektif? 
+#DiskusiInteraktifElshinta https://t.co/MJPQBO0Wpf</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 17:01:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sejumlah kepala daerah tidak mengijinkan sekolah tatap muka tahun Januari 2021, apa yg harus diperbaiki agar pembelajaran jarak jauh berjalan efektif? https://t.co/N5Le3YDKpi</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 15:51:14 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -7885,10 +8904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1008"/>
+  <dimension ref="A1:D1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1001" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1007" sqref="I1007"/>
+    <sheetView tabSelected="1" topLeftCell="A1142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1173" sqref="H1173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22005,6 +23024,2064 @@
         <v>2027</v>
       </c>
     </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>1.346470647212331E+18</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>1.3464662956094011E+18</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>1.3464481201759401E+18</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>1.3464408176495291E+18</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>1.346440197408375E+18</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>1.3464308772035379E+18</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>1.3464272338590799E+18</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>1.346403756884201E+18</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>1.346403177965388E+18</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>1.3463997932752279E+18</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>1.346390016985952E+18</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>1.346385952055435E+18</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>1.3463709363421509E+18</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>1.346369594118857E+18</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>1.3463673166913039E+18</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>1.3463637746687181E+18</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>1.346363752564756E+18</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>1.3463637477287199E+18</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>1.3463637434672581E+18</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>1.346363737490432E+18</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>1.346320733010498E+18</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>1.346318138959307E+18</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>1.3463175167971981E+18</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>1.346301413555519E+18</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>1.346300908238303E+18</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>1.346300018165121E+18</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>1.34629307393282E+18</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>1.3462842913749199E+18</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>1.346275223537119E+18</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>1.3462623239088909E+18</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>1.3462616495151549E+18</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>1.3462283579946719E+18</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>1.3462282586609659E+18</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>1.346166177081545E+18</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>1.3461302137347651E+18</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>1.3461266048969321E+18</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>1.346126327783465E+18</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>1.3461150847292951E+18</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>1.346081978076918E+18</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>1.346073767756268E+18</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>1.346066498918334E+18</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>1.3460654918114509E+18</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>1.3460518109061279E+18</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>1.346041591199359E+18</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>1.346040951253291E+18</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>1.34603081858655E+18</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>1.3460246221860659E+18</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>1.3460240665246679E+18</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>1.3460184320771479E+18</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>1.3460056816026299E+18</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>1.3460056797907269E+18</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>1.3460056739689961E+18</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>1.34600564707088E+18</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>1.34600564411809E+18</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>1.3460056405025961E+18</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>1.3460056345047411E+18</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>1.34599113310559E+18</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>1.3459619346553731E+18</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>1.34595641599155E+18</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>1.3459522342033039E+18</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>1.3459468240544891E+18</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>1.345946817477964E+18</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>1.3459360645197051E+18</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>1.34593534394239E+18</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>1.345929262038016E+18</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>1.3459276659627341E+18</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>1.345925049572737E+18</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>1.3459205612481541E+18</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>1.3459145946828311E+18</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>1.345911482630828E+18</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>1.345907725503328E+18</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>1.3459056426875E+18</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>1.345904135665697E+18</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>1.345900429666763E+18</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>1.345890854561407E+18</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>1.3458870743191219E+18</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>1.34588608477379E+18</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>1.345885346454622E+18</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>1.3458837067545349E+18</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>1.345883505574625E+18</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>1.3458784138950331E+18</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>1.3458308882868219E+18</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>1.3458099223703759E+18</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>1.345775432256246E+18</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>1.345765139136479E+18</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>1.345751906728042E+18</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>1.3457437565872699E+18</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>1.3457423542845729E+18</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>1.345741720768672E+18</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>1.3457415410887191E+18</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>1.3457409981067469E+18</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>1.345732485288587E+18</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>1.345722025453654E+18</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>1.3457188469009979E+18</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>1.345718818786562E+18</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>1.3457134521956109E+18</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>1.3457014444023519E+18</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>1.345700086228009E+18</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>1.3456869196072471E+18</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>1.3456844703811789E+18</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>1.3456796736493361E+18</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>1.3456792687185961E+18</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>1.3456588208952609E+18</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>1.3456511096884669E+18</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>1.34565013435743E+18</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>1.3456348565799401E+18</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>1.3456324919027021E+18</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116">
+        <v>1.345620865984E+18</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>1.345613518070944E+18</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>1.345609235858538E+18</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>1.345588289223287E+18</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>1.3455793725274189E+18</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>1.3455786930291999E+18</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>1.345573388878709E+18</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>1.3455551122954199E+18</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>680</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>1.345555015637684E+18</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>1.3454364271489559E+18</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>1.34541499812259E+18</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>1.3453972456050811E+18</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>1.3453768219283699E+18</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>1.3453733959580301E+18</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>1.345369466054484E+18</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>1.345369121672757E+18</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>1.3453594612762419E+18</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>1.3453491197710871E+18</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>1.3453304384248379E+18</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>1.3453270075890109E+18</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>1.3453089557659689E+18</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>1.3453081572669069E+18</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>1.3453050706954529E+18</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>1.345292155690996E+18</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>1.3452872409398029E+18</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>1.3452815337085299E+18</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>1.345276956107895E+18</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>1.3452637741990669E+18</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>1.3452593046982981E+18</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>1.3452499195655859E+18</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>1.3452440607520891E+18</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>1.345233127845708E+18</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>1.345226290886922E+18</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>1.3452246862175439E+18</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>1.345224630009643E+18</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>1.345212416364171E+18</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>1.3452004151728289E+18</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>1.345187219984683E+18</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>1.3451829823703119E+18</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>1.3451729517887319E+18</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>2207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="2585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="2766">
   <si>
     <t>id</t>
   </si>
@@ -8542,6 +8542,589 @@
   </si>
   <si>
     <t>Sat Jan 02 15:51:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah menyatakan bahwa pembelajaran dan perkuliahan di seluruh Jawa dan Bali masih menggunakan sistem jarak jauh dari rumah dengan metode PJJ melalui daring.demikian pula dengan para pekerja kantor mereka masih harus bekerja dari rumah dengan metode daring selama PPKM</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 13:55:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Disdik Kota Bekasi Kembali Terapkan Pembelajaran Jarak Jauh https://t.co/3uoY6NpTyQ https://t.co/wssKjaxz1Y</t>
+  </si>
+  <si>
+    <t>fat4h7</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 12:19:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Disdik Kota Bekasi Kembali Terapkan Pembelajaran Jarak Jauh https://t.co/kPzTteexBI https://t.co/q33jaYKznf</t>
+  </si>
+  <si>
+    <t>Berita_3</t>
+  </si>
+  <si>
+    <t>serasa punya anak, ikut rapat wali murid terkait program pembelajaran jarak jauh atau milih kesediaan kelas tatap muka wkwkw https://t.co/eJi1z5NCsY</t>
+  </si>
+  <si>
+    <t>alim_pangestu</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 10:14:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kami merangkum isu penting yang menjadi perhatian utama selama pendidikan di masa pandemi. Selain tantangan, banyak pembelajaran yg dapat dijadikan panduan relevan, entah itu msh dalam proses pembelajaran jarak jauh maupun ketika nanti proses pembelajaran berjalan normal kembali.</t>
+  </si>
+  <si>
+    <t>djalaluddinpane</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:37:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>@stayencr @collegemenfess engga kok, bisa untuk umum yg lagi ngejalanin pembelajaran jarak jauh. oiya ini linknya ya https://t.co/jCPpebJBsp makasih banyak yaa. makasihhhh 🤗🤗</t>
+  </si>
+  <si>
+    <t>kvt4lyfe</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:07:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>@untukdimiliki Pjj tu pembelajaran jarak jauh 😭🔫</t>
+  </si>
+  <si>
+    <t>luvanerin</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:05:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah perlu memerinci program-program pendidikan yang harus diprioritaskan dan yang bisa ditunda selama PJJ. https://t.co/3G9HuJyOqi</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 02:41:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sejumlah kebijakan juga diterapkan di antaranya, kapasitas tempat kerja dengan work from home 75 persen, pembelajaran daring atau jarak jauh, pembatasan jam operasional pusat perbelanjaan hingga pukul 19.00 WIB.</t>
+  </si>
+  <si>
+    <t>infobogor</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 02:12:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Memasuki semester genap tahun ajaran 2020/2021, Kegiatan pembelajaran di SMK N 2 Kota Pekalongan dilaksanakan menggunakan metode Pembelajaran Jarak Jauh dengan aplikasi Sistem Manajemen Mutu atau SMM Learning Sistem.
+#Liveinterview</t>
+  </si>
+  <si>
+    <t>radio_kotabatik</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 01:36:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>https://t.co/MBZB9nFDeu
+Pandemi Covid - 19 berdampak pada berbagai sektor, termasuk pendidikan. Guru harus cerdas, kreatif, dan inovatif dalam mengemas proses pembelajaran jarak jauh
+#AGII2020 #JadiGuruInspiratifIndonesia</t>
+  </si>
+  <si>
+    <t>EmmaRoslina</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 23:15:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Jumat 8 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/iPuTFURC1N</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 22:56:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>sch! Halo temen-temen, aku lagi nulis artikel tentang pembelajaran jarak jauh dan aku kekurangan responden utk aku masukin ke artikelku itu. ada yang berkenan mau ngisi kuesioner? kalau iya, nanti linknya aku rep dibawah ya. makasih semua 🤗🥰</t>
+  </si>
+  <si>
+    <t>schfess</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 14:29:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>✅  KOTA TANGERANG, https://t.co/WyGTDLIwxe — Dinas Pendidikan Kota Tangerang menggelar Sosialisasi Protokol Kesehatan pada Pelaksanaan Pembelajaran Jarak Jauh Semester Genap Tahun… https://t.co/Pc57w3lJXx #KotaTangerang #Pendidikan #Sekolah #BelajarOnline Selengkapnya ⬇⬇⬇ https://t.co/GI6XOWidwt</t>
+  </si>
+  <si>
+    <t>PelitaBantenCom</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 13:15:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Maka pelaksanaan Pembelajaran Jarak Jauh (PJJ) Metode Dalam Jaringan (Daring) sebagai pengganti perkuliahan tatap muka dalam kondisi Pandemi Corona Virus Disease 2019 (COVID-19) diperpanjang sampai akhir Semester Ganjil.</t>
+  </si>
+  <si>
+    <t>himaska_unri</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 12:27:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hhh Pembelajaran Jarak Jauh. Rasanya ..?..
+Otak pusing, banyak tugas ..duarrrrrrr mo pecah pala gw ajggg</t>
+  </si>
+  <si>
+    <t>PecelLe47458972</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 11:21:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>CIREBON - Pembelajaran dengan sistem daring atau pembelajaran jarak jauh (PJJ) ini, terdapat beberapa masalah yang muncul. Mulai dari kuota internet yang https://t.co/hbweuIQxzb</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 10:41:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>1. Masih mau nyari temen, masih seneng main-main, dan anak manggis
+2. Pernah ngebadutin @JlHNHYUK waktu pindah ke sini jadi Olivia, trus dia gatau kalo saya yg PDKT sama pacar saya yg sekarang :)
+3. Pembelajaran Jarak Jauh yg semakin ribet berkas-berkasnya //</t>
+  </si>
+  <si>
+    <t>kogyeog</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 10:18:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>MIN 3 Palangka Raya Masih Memilih Pembelajaran Jarak Jauh 
+ https://t.co/KK6hFaZrKa</t>
+  </si>
+  <si>
+    <t>BORNEONEWS</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 09:16:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>@menfesssyg pembelajaran jarak jauh, liburan jarak jauh dari rumah,</t>
+  </si>
+  <si>
+    <t>Akhyar60369148</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 08:55:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sehingga pembelajaran jarak jauh atau PJJ bisa diterima dengan baik oleh anak dan berjalan efektif. https://t.co/s0X70ny91g</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 08:16:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pandemi belum juga berakhir, proses belajar mengajar pun masih ada yang mengharuskan siswa-siswi dan mahasiswa melakukan pembelajaran secara jarak jauh. Nah, ada tips dari Sobat Muda untuk menghilangkan stres saat belajar daring. #BlogMuda https://t.co/CNdOme3f2j</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 08:15:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemkot Bekasi Tekankan Pembelajaran Jarak Jauh https://t.co/2lsCNvLPTX lewat @mas_triadhianto @bang_pepen2017 @kotabekasikeren @Kel__Jatiasih @kec_jatiasih #PSBBUntukKitaSehat</t>
+  </si>
+  <si>
+    <t>Rhakkan09</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 06:37:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemkot Bekasi Tekankan Pembelajaran Jarak Jauh https://t.co/85Oi1oOIwV</t>
+  </si>
+  <si>
+    <t>cendananews</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 05:42:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pelaksana tugas (Plt) Sekjen Kemendikbud, Ainun Na’im menyatakan, bahwa program subsidi bantuan kuota internet untuk penunjang Pembelajaran Jarak Jauh (PJJ) tahun ini dilanjutkan. Namun, skemanya tidak akan sama dengan tahun lalu. @jabarekspres https://t.co/X6e30uegNZ</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 05:09:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fraksi PKS DPRD DKI Jakarta Dukung Pembelajaran Jarak Jauh
+@SolikhahID @marifin_pks @Israyanirahman @ThamrinPKS_id
+@DKIJakarta
+#BersamaMelayaniRakyat
+#fraksipksdkijakarta
+#DPRDDKIJakarta
+#dkijakarta
+#pjj
+#sekolahonline
+#sekolahdaring https://t.co/lqh6NqrrVi</t>
+  </si>
+  <si>
+    <t>fpksdkijakarta</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 04:49:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>@shoshiine pembelajaran jarak jauh hjskdhskjs</t>
+  </si>
+  <si>
+    <t>dritadi</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 03:39:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>@zulhendrajufri [1/2] Sistem pembelajaran dan perkuliahan di UT dilakukan secara jarak jauh, terbuka dan mandiri. Mahasiswa bisa melakukan pembelajaran secara mandiri melalui bahan ajar UT, UT menyediakan layanan tutorial untuk menunjang pembelajaran mahasiswa.
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:49:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>📌 Pelaksanaan Pembelajaran Jarak Jauh (PJJ) Metode Dalam Jaringan (Daring) sebagai pengganti perkuliahan tatap muka dalam kondisi Pandemi COVID-19 *DIPERPANJANG* sampai akhir Semester Ganjil dimaksud (25 Januari 2021)</t>
+  </si>
+  <si>
+    <t>himabisnisunri</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:11:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kata Kepala SMAN 16 Surabaya , “kami sudah mbuat edaran utk dua minggu niy bakal dilaksanakan pembelajaran jarak jauh ( PJJ ) sembari qt melihat situasi ( Covid - 19 ) di Jawa Timur, khususnya Surabaya , ” " Khofifah Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:10:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kata Kepala SMAN 16 Surabaya , “kami sudah bikin edaran u/ 2 minggu iniih bakalan dilaksanakan pembelajaran jarak jauh ( PJJ ) sembari kt melihat situasi ( Covid - 19 ) di Jatim, khususnya Surabaya , ” " Khofifah Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>AmaliinaNursafa</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:10:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>“Kami sudah mbuat edaran utk dua minggu niy bakal dilaksanakan pembelajaran jarak jauh ( PJJ ) sembari qt melihat situasi ( Covid - 19 ) di Jawa Timur, khususnya Surabaya , ” ujar Kepala SMAN 16 Surabaya " Khofifah Gubernur Provinsi Jawa Timur "</t>
+  </si>
+  <si>
+    <t>FitriMadad</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:10:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>“Kami sudah bikin edaran u/ 2 minggu iniih bakalan dilaksanakan pembelajaran jarak jauh ( PJJ ) sembari kt melihat situasi ( Covid - 19 ) di Jatim, khususnya Surabaya , ” ujar Kepala SMAN 16 Surabaya " Khofifah Gubernur Provinsi Jatim "</t>
+  </si>
+  <si>
+    <t>AhhNovi</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:10:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kata Kepala SMAN 16 Surabaya, “kami sudah membuat edaran untuk dua minggu ini akan dilaksanakan pembelajaran jarak jauh (PJJ) sembari kita melihat situasi (Covid-19) di Jatim, khususnya Surabaya,” "Khofifah Gubernur Jawa Timur"</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:02:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>“Kami sudah membuat edaran untuk dua minggu ini akan dilaksanakan pembelajaran jarak jauh (PJJ) sembari kita melihat situasi (Covid-19) di Jatim, khususnya Surabaya,” ujar Kepala SMAN 16 Surabaya "Khofifah Gubernur Provinsi Jatim"</t>
+  </si>
+  <si>
+    <t>NovitaSaskia1</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:02:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Rekan-rekan @DKIJakarta @Disdik_DKI @aniesbaswedan @BangAriza telah bijaksana selama masa pandemi Covid-19 dalam melaksanakan Pembelajaran Jarak Jauh untuk tujuan melindungi dan menjaga kesehatan Siswa, Siswi dan Pengajar. Jangan sampai krn satu hal Buku Tahunan mrk terekspose</t>
+  </si>
+  <si>
+    <t>ferdy666</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 00:00:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Kamis 7 Januari 2021 bagi siswa PAUD dan SD yang ikut pembelajaran jarak jauh. https://t.co/6wyBX0xJLu</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 22:23:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>@H3333JINyu Pembelajaran jarak jauh jauhan?</t>
+  </si>
+  <si>
+    <t>JINYOUNGnyu</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 18:41:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>@BEBAN_TIM_ pembelajaran jarak jauh
+daring gitu xixi</t>
+  </si>
+  <si>
+    <t>cxerful</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 17:29:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berdasarkan Surat Edaran dari Kementerian Pendidikan dan Kebudayaan Universitas Riau nomor B/15/UN19/PK.01.03/2021 tentang Pelaksanaan Perkuliahan Semester Ganjil 2020/2021 menyatakan bahwa pelaksanaan Pembelajaran Jarak Jauh (PJJ) Metode Dalam Jaringan (Daring) sebagai pengganti</t>
+  </si>
+  <si>
+    <t>himafifmipaunri</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 15:24:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh ( PJJ ) menjadi lebih mudah pakai 👇
+https://t.co/cHhq2kQoYa</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 13:40:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pandemi Covid-19 membuat MIN 3 Palangka Raya memilih untuk menggelar pembelajaran jarak jauh secara daring.
+https://t.co/tPoxZpgdNh</t>
+  </si>
+  <si>
+    <t>KemenagKalteng</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 12:04:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Guru skrng mah harus putar otak
+Gimana bisa memberikan pembelajaran dengan tantangan jarak jauh tapi tetap berkompeten,bermutu,menarik dan asik dan tercapai tujuan pembelajarannya</t>
+  </si>
+  <si>
+    <t>sherlysrosita</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 11:16:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>‼️Info Perpanjangan Kuliah Online‼️
+Assalamualaikum Wr.Wb.
+Hidup Mahasiswa!
+Hidup Akuntansi!
+Hima-Ak?Keluarga Kita!
+Pelaksanaan Pembelajaran Jarak Jauh (PJJ) metode Dalam Jaringan (Daring) diperpanjang sampai akhir semester ganjil atau sampai tanggal 25 Januari 2021. https://t.co/DDXLxBCBVb</t>
+  </si>
+  <si>
+    <t>ak_UR</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 11:15:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>maka pelaksanaan pembelajaran jarak jauh ( PJJ ) metode dalam jaringan ( Daring) diperpanjang sampai akhir semester ganjil dimaksud ( 25 Januari 2021 )</t>
+  </si>
+  <si>
+    <t>himapar_fisipur</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 10:48:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Jangan Cuma Memindahkan Sekolah ke Rumah
+https://t.co/gSgMgnIfkL</t>
+  </si>
+  <si>
+    <t>e100ss</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 10:05:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sekolah Muhammadiyah di Gresik Diimbau Tetap Lakukan Pembelajaran Jarak Jauh https://t.co/IywgPydJH4</t>
+  </si>
+  <si>
+    <t>Fi3NurulHidayat</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 10:03:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Belum Bisa Tatap Muka, Pemprov Jatim Optimalkan Pembelajaran Jarak Jauh
+https://t.co/l7Z6V9VON1</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 09:57:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Jangan Cuma Memindahkan Sekolah ke Rumah https://t.co/6Xz82DB4ux</t>
+  </si>
+  <si>
+    <t>bloka_media</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 09:39:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>IDAI menyampaikan pembukaan sekolah untuk kegiatan belajar mengajar tatap muka mengandung risiko tinggi terjadinya lonjakan kasus covid-19.  https://t.co/UYQ3eDRBXy</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 08:29:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akrilik dapat digunakan untuk membuat meja notebook / laptop akrilik.
+Meja akrilik ini sangat berguna ketika sedang bekerja di rumah (Work From Home atau WFH) dan juga Pembelajaran Jarak Jauh (PJJ).
+https://t.co/7M6EKMk4k9
+#distributoracrylicindonesia #distributoracrylic https://t.co/fpyjLJk7kk</t>
+  </si>
+  <si>
+    <t>acrylicmica</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 08:06:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Guru disarankan merekam pemberian materi agar kuota internet lebih efisien. https://t.co/GpVX5YSAoz</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 08:02:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sejumlah perangkat digital seperti gawai dan internet, sangat dibutuhkan untuk menunjang proses pembelajaran secara jarak jauh atau PJJ. https://t.co/Swpas9ioX4 lewat @MonitorCoID</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 06:36:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berbagai kendala ini harus terus dipantau&amp;amp; ditanggulangi oleh pemerintah khususnya Kemendikbud, jg sekolah, orang tua, siswa&amp;amp; masyarakat di saat pembelajaran jarak jauh yg msh banyak diperlukan untuk keamanan kesehatan.
+#agentoleransi
+#kemendikbud
+#daring
+https://t.co/YmPxNB6VHM</t>
+  </si>
+  <si>
+    <t>YukToleran</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 06:22:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fuck pembelajaran jarak jauh, all my SMK homies tetep praktek tatap muka 👎🏻 https://t.co/oZXkLTPgGG</t>
+  </si>
+  <si>
+    <t>seunowlyz</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 03:54:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Eve_JKT48 @S_NandaJKT48 Mungkin semua guru punya SPP dalam pembelajaran jarak jauh mungkin wkkwkw</t>
+  </si>
+  <si>
+    <t>Haidarihsan17</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 02:27:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>@hatiwanita__ Bu saya ngak bisa hadir di pembelajaran jarak jauh, tp saya bisa jarak dekat, kira kira kapan ibu bisa berkunjung ke tempat saya</t>
+  </si>
+  <si>
+    <t>Alone63495602</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:51:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Program Belajar dari Rumah sebagai alternatif pembelajaran jarak jauh dapat diakses mulai bulan Januari hingga Maret 2021. https://t.co/Ol0LLn0Ni6</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:37:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>@scorpiliciouss @keizhaad Pembelajaran jarak jauh kalo ga salah</t>
+  </si>
+  <si>
+    <t>ajaanew</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:37:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dibutuhkan keterlibatan aktif baik peserta didik, orang tua wali, maupun guru agar pembelajaran jarak jauh dpt sukses dijalankan. Baik materi pembelajaran yg telah di modifikasi, jadwal pembelajaran disusun sesuai dari hasil koordinasi, dan sesi tanya jawab dirangkai dengan baik. https://t.co/OWgLIyvi3R</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:33:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berkunjung ke rumah murid karena tak hadir di pembelajaran jarak jauh dan berbicara dengan orang tuanya
+Pencitraan ya... https://t.co/sPedk3gkxh</t>
+  </si>
+  <si>
+    <t>hatiwanita__</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:33:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalo ada evaluasi pembelajaran jarak jauh berarti masih lama dong masuknya!??</t>
+  </si>
+  <si>
+    <t>arslabilla</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:23:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>#News: Risiko Pembelajaran Jarak Jauh Saat Pandemi https://t.co/91vQj99SIZ | Depok News</t>
+  </si>
+  <si>
+    <t>depokinfo_</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:10:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Risiko Pembelajaran Jarak Jauh Saat Pandemi https://t.co/2WTYRm140i</t>
+  </si>
+  <si>
+    <t>depoknews</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 00:42:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>07.15 #BeritaSONORA - 
+Sebanyak 14 provinsi menyatakan siap menggelar pmbelajaran tatap muka di Sekolah.Sementara itu,4 provinsi melakukan pembelajaran tatap muka &amp;amp; pembelajaran jarak jauh,serta 16 prov.memutuskan menunda pembelajaran tatap muka.
+#RedaksiKOMPASbicara pkl 07.20wib https://t.co/7gDrAGu3Aw</t>
+  </si>
+  <si>
+    <t>SonoraFM92</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 00:18:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat Pagi Sahabat Kompas,
+Sebanyak 14 provinsi menyatakan siap menggelar  pembelajaran tatap muka  di sekolah. Sementara itu,  4 provinsi melakukan pembelajaran tatap muka dan pembelajaran jarak jauh, serta 16 provinsi memutuskan menunda pembelajaran tatap muka.
+#adadikompas https://t.co/HnvGAH20Du</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 23:35:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Rabu 6 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/s9eOX7sHiZ</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 22:41:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>selaselagot</t>
   </si>
 </sst>
 </file>
@@ -8904,10 +9487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1155"/>
+  <dimension ref="A1:D1253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1173" sqref="H1173"/>
+    <sheetView tabSelected="1" topLeftCell="A1241" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1254" sqref="H1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25082,6 +25665,1378 @@
         <v>2207</v>
       </c>
     </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156">
+        <v>1.347542368271041E+18</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157">
+        <v>1.347518172560126E+18</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158">
+        <v>1.3475181717715891E+18</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159">
+        <v>1.347486851930604E+18</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160">
+        <v>1.347447265548329E+18</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161">
+        <v>1.3473945633049029E+18</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162">
+        <v>1.3473940226674811E+18</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163">
+        <v>1.347372840039797E+18</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164">
+        <v>1.34736547084066E+18</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165">
+        <v>1.3473563669695281E+18</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166">
+        <v>1.347321032269472E+18</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167">
+        <v>1.3473162172042079E+18</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168">
+        <v>1.347188647884255E+18</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169">
+        <v>1.3471698820732969E+18</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170">
+        <v>1.347157929711989E+18</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171">
+        <v>1.3471413142156979E+18</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172">
+        <v>1.347131324361015E+18</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173">
+        <v>1.347125403958145E+18</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174">
+        <v>1.3471098617801971E+18</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175">
+        <v>1.347104616572363E+18</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176">
+        <v>1.347094760838762E+18</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177">
+        <v>1.3470943698666409E+18</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178">
+        <v>1.3470697138351921E+18</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179">
+        <v>1.3470559424169449E+18</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180">
+        <v>1.347047689888809E+18</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181">
+        <v>1.347042538289463E+18</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182">
+        <v>1.347025113598677E+18</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183">
+        <v>1.347012333994795E+18</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184">
+        <v>1.3470028766573571E+18</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1185">
+        <v>1.3470026830565619E+18</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1186">
+        <v>1.347002657823543E+18</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1187">
+        <v>1.3470026032221681E+18</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1188">
+        <v>1.3470025822170691E+18</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1189">
+        <v>1.3470006600850189E+18</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1190">
+        <v>1.347000634772386E+18</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191">
+        <v>1.3469698666667991E+18</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192">
+        <v>1.3469453971770199E+18</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193">
+        <v>1.3468897161430469E+18</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194">
+        <v>1.3468714822496051E+18</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195">
+        <v>1.3468400461296681E+18</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196">
+        <v>1.346813859487572E+18</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197">
+        <v>1.3467896379062851E+18</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198">
+        <v>1.346777708806558E+18</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199">
+        <v>1.3467773292724101E+18</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200">
+        <v>1.3467707172709171E+18</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201">
+        <v>1.3467598508736141E+18</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202">
+        <v>1.346759193617814E+18</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203">
+        <v>1.3467578095645701E+18</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204">
+        <v>1.346753133922324E+18</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205">
+        <v>1.3467355923111439E+18</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206">
+        <v>1.3467298403768571E+18</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207">
+        <v>1.346728751124468E+18</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208">
+        <v>1.3467071679365939E+18</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209">
+        <v>1.3467036765224709E+18</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210">
+        <v>1.3466663008488371E+18</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211">
+        <v>1.3466445010544069E+18</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212">
+        <v>1.3466354190860621E+18</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213">
+        <v>1.3466319601902761E+18</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214">
+        <v>1.3466318350155159E+18</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215">
+        <v>1.3466310395028851E+18</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216">
+        <v>1.346630999736607E+18</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217">
+        <v>1.346628464133034E+18</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218">
+        <v>1.3466251125529111E+18</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219">
+        <v>1.3466181518873679E+18</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220">
+        <v>1.346612125922284E+18</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221">
+        <v>1.3466011389513201E+18</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222">
+        <v>1.3465876668888389E+18</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223">
+        <v>1.346470647212331E+18</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224">
+        <v>1.3464662956094011E+18</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225">
+        <v>1.3464481201759401E+18</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226">
+        <v>1.3464408176495291E+18</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227">
+        <v>1.346440197408375E+18</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228">
+        <v>1.3464308772035379E+18</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229">
+        <v>1.3464272338590799E+18</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230">
+        <v>1.346403756884201E+18</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231">
+        <v>1.346403177965388E+18</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232">
+        <v>1.3463997932752279E+18</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233">
+        <v>1.346390016985952E+18</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234">
+        <v>1.346385952055435E+18</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235">
+        <v>1.3463709363421509E+18</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236">
+        <v>1.346369594118857E+18</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237">
+        <v>1.3463673166913039E+18</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1238">
+        <v>1.3463637746687181E+18</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>1.346363752564756E+18</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1240">
+        <v>1.3463637477287199E+18</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1241">
+        <v>1.3463637434672581E+18</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1242">
+        <v>1.346363737490432E+18</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1243">
+        <v>1.346320733010498E+18</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1244">
+        <v>1.346318138959307E+18</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1245">
+        <v>1.3463175167971981E+18</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1246">
+        <v>1.346301413555519E+18</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>1.346300908238303E+18</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>1.346300018165121E+18</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1249">
+        <v>1.34629307393282E+18</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1250">
+        <v>1.3462842913749199E+18</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1251">
+        <v>1.346275223537119E+18</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1252">
+        <v>1.3462623239088909E+18</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1253">
+        <v>1.3462616495151549E+18</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>2344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="2766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="2954">
   <si>
     <t>id</t>
   </si>
@@ -9125,6 +9125,617 @@
   </si>
   <si>
     <t>selaselagot</t>
+  </si>
+  <si>
+    <t>CIREBON - Dinas Pendidikan Kota Cirebon saat ini sedang mengoptimalkan Pembelajaran Jarak Jauh (PJJ) dengan sistem Video Conference.  Hal tersebut diungkapkan Kepala https://t.co/EnbpMFiZAm</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 13:50:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>sebelum covid menyerang @UnivTerbuka sudah melakukan pembelajaran jarak jauh. #wowfakta</t>
+  </si>
+  <si>
+    <t>modskyyyy</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 11:03:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dosen/guru bertanggungjawab pasti priksa tiap tugas, kalau engga dia lepas perannya. Beri tugas jika dan hanya jika sanggup dipriksa dan dibutuhkan.
+:").
+Oh iya guys, tolong bagi2 opini dan masukan tugas kuliah spt apa yg cocok di tengah pembelajaran jarak jauh. Trims berat yes https://t.co/S0NkNnB76l</t>
+  </si>
+  <si>
+    <t>KeviNobel</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 10:10:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Majelis Pinggiran @rumpunsabda_id
+https://t.co/xNKt8EzX9X</t>
+  </si>
+  <si>
+    <t>zuliadiandalas</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 09:30:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>@jokowi pak kenapa waterbom cikarang bisa berenang2 enak ya? mau sampai kapan saya berenang dalam air mata di pembelajaran jarak jauh?</t>
+  </si>
+  <si>
+    <t>jocgwnfl</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 08:53:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Teman-teman mohon dukungannya saya ikut blog competition. Kunjungi blo berikut atau silahkan tinggalkan komentar. https://t.co/dVlHNcGETF</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 08:50:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>sch! coba ceritakan kendala kalian selama pembelajaran jarak jauh/daring atau pendapat kalian ttg pjj ini
+✄・・・
+🤔 Trivia: Makin' adalah kata baku dari 'semakin'</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 08:47:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>kayanya semangat belajar beda cerita sih kalo kondisinya kita ga pembelajaran jarak jauh tapi ya mau gimana lagi harus bisa adaptasi</t>
+  </si>
+  <si>
+    <t>user081123xxxxx</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 07:25:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akibat Pandemik Covid-19, seluruh sekolah terpaksa mengadakan pembelajaran jarak jauh atau daring selama kurang lebih 9 bulan lamanya. https://t.co/HrQTZkDPH0</t>
+  </si>
+  <si>
+    <t>dikunciiiiiii</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 07:25:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>@dounsedap Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>selenefa_</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 07:20:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akibat Pandemik Covid-19, seluruh sekolah terpaksa mengadakan pembelajaran jarak jauh atau daring selama kurang lebih 9 bulan lamanya. 
+https://t.co/Qhm3vZEbRB</t>
+  </si>
+  <si>
+    <t>EchaNadia2</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 07:14:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akibat Pandemik Covid-19, seluruh sekolah terpaksa mengadakan pembelajaran jarak jauh atau daring selama kurang lebih 9 bulan lamanya. Untuk itu, Pemprov Papua Barat kini membolehkan sekolah mengadakan... https://t.co/mPRBivEKIK</t>
+  </si>
+  <si>
+    <t>tiksss6</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 06:57:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akibat Pandemik Covid-19, seluruh sekolah terpaksa mengadakan pembelajaran jarak jauh atau daring selama kurang lebih 9 bulan lamanya. Untuk itu, Pemprov Papua Barat kini membolehkan sekolah mengadakan pembelajaran tatap muka... https://t.co/PBxTyRUvAK</t>
+  </si>
+  <si>
+    <t>losdolopowae</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 06:57:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>WEBINAR MGMP BAHASA INGGRIS SMK KOTA DEPOK &amp;amp; STMIK NUSA MANDIRI.
+STMIK Nusa Mandiri mengadakan webinar dengan tema "Kiat Penyelenggaraan Pembelajaran Jarak Jauh Untuk Peningkatan Kualitas Guru MGMP di Era New Normal". 
+Linkpendaftaran:
+https://t.co/1MS6QLOQZc
+#NusaMandiri https://t.co/4hAhZ91djy</t>
+  </si>
+  <si>
+    <t>_NusaMandiri</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 06:31:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>"LIVE PESANTREN JUARA"
+🗓 Senin, 11 Januari 2021
+🕕 Pukul 19.30 – 20.30 WIB
+🔸 Tema :
+Komunikasi Efektif Antara Guru, Orang Tua dan Siswa Dalam Pembelajaran Jarak Jauh
+#mqtv #mqtv60 #ProgramTv #PesantrenJuara #SICC #Stayathome #DiRumahAja #NontonMQTV https://t.co/q7zAplVXnL</t>
+  </si>
+  <si>
+    <t>MQTV60</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 06:20:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>@sugarbayik pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>bisadiemmga</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 06:13:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akibat Pandemik Covid-19, seluruh sekolah terpaksa mengadakan pembelajaran jarak jauh/daring selama krg/lebih 9 bulan lamanya. Utk itu, Pemprov PaBar kini membolehkan sekolah mengadakan pembelajaran tatap muka, tetapi tdk mewajibkannya,serta hrs mendpt izin kepala daerah setempat https://t.co/jh8zLSTdJl</t>
+  </si>
+  <si>
+    <t>SantuyTwitt</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 06:11:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akibat Pandemik Covid-19, seluruh sekolah terpaksa mengadakan pembelajaran jarak jauh atau daring selama kurang lebih 9 bulan lamanya. 
+#OtsusPapuaJilidII #papuafornkri #papua #welovepapua #papuabarat #covid19 https://t.co/UjKLznNywx</t>
+  </si>
+  <si>
+    <t>bening_mis</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 05:59:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>@cheonsaalretha pembelajaran jarak jauh (sekolah online)</t>
+  </si>
+  <si>
+    <t>rlyslaii</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 05:47:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mulai Pembelajaran Jarak Jauh lagi.
+Menanti bantuan kuota pendidikan dari DepDikBud
+#BelumJelas</t>
+  </si>
+  <si>
+    <t>LuckyLaba2</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 05:41:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akibat Pandemik Covid-19, seluruh sekolah terpaksa mengadakan pembelajaran jarak jauh atau daring selama kurang lebih 9 bulan lamanya. Untuk itu, Pemprov Papua Barat kini membolehkan sekolah mengadakan pembelajaran tatap muka, tetapi tidak mewajibkannya https://t.co/EHFi8D4Eyn</t>
+  </si>
+  <si>
+    <t>BegadangBujang</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 05:28:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Akibat Pandemik Covid-19, seluruh sekolah terpaksa mengadakan pembelajaran jarak jauh atau daring selama kurang lebih 9 bulan lamanya. Untuk itu, Pemprov Papua Barat kini membolehkan sekolah mengadakan pembelajaran tatap muka, tetapi tidak mewajibkannya https://t.co/0E8V2cQVJB</t>
+  </si>
+  <si>
+    <t>CacaNatasha5</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 05:26:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>@socalledtwo Pembelajaran jarak jauh 😁 biasa, anak yg sekolah, emak yg riweuh, soalnya di rumah belajarnya</t>
+  </si>
+  <si>
+    <t>IraStaygold</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 05:24:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Me__youweall Pembelajaran jarak jauh 😔</t>
+  </si>
+  <si>
+    <t>luckyyinaa</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 04:01:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>@putrabaskarra pjj? pembelajaran jarak jauh?</t>
+  </si>
+  <si>
+    <t>ethereal_vi</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 04:00:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Orangtua merupakan mitra kerja yang utama bagi guru dalam pendidikan anak, terutama di masa pandemi ini. Perpanjangan pembelajaran jarak jauh menjadi tantangan bagi orangtua untuk menjaga semangat belajar anak.
+#Humaniora #adadikompas 
+https://t.co/1bZOU3lK26</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 03:44:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh web al muhajirin lagi error 😑</t>
+  </si>
+  <si>
+    <t>dininiandini</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 03:16:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Masa pandemi ini, bagi #sobatBPSDMP yang menjalani Pembelajaran Jarak Jauh (PJJ) secara virtual dengan menggunakan PC, laptop atau handphone dan berlangsung selama berjam-jam.
+Berikut ini beberapa tips untuk menjaga kesehatan mata semoga bermanfaat ya
+Sumber: @bpsdmp151 https://t.co/KpDRpcDAGf</t>
+  </si>
+  <si>
+    <t>Kota_Tangerang</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 02:53:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>@hoonlvry pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>KYUSMOL</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 02:42:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>haduu. Ni PJJ (pembelajaran jarak jauh) makin meresahkan deh. Gue kepo deh, guru2 ini kepikiran gk ya klo ada materi pelajaran yg mungkin aja gk nyantol ama seorang ank tp mau gak mau hrs lanjut materi. Sumpah deh ni corona bgst bgt, gak semua materi gue bs ajarin woy 😭 monangis</t>
+  </si>
+  <si>
+    <t>thegreatdina</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 02:37:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>sch! boleh minta saran ga objek penelitian buat sosiologi, contohnya "pengaruh pembelajaran jarak jauh terhadap uang jajan", klo ada saran drop ya klo bisa topiknya yg ringan-ringan aja🤗</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 02:23:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Konon hari ini dimulailah Pembatasan Sosial Berskala Besar seJawa-Bali.
+Ngambil dan ngedrop materi pembelajaran jarak jauh di sekolah bocah jadi sistem drive through.
+I need maccas.</t>
+  </si>
+  <si>
+    <t>thisAdzania</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 02:20:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sorry min musimnya Pembelajaran Jarak Jauh wkwk https://t.co/57m45SYCQD</t>
+  </si>
+  <si>
+    <t>drsaningtiyas</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 01:52:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>@pefjaka pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>whislle</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 01:33:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>@turttttleee1618 pembelajaran jarak jauh 😭😭😭</t>
+  </si>
+  <si>
+    <t>chocoochim</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 00:50:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bismillah.
+Hari ini, di tahun baru, dengan semangat menggebu, Pembelajaran Jarak Jauh (PJJ) kembali dimulai. 
+Kesehatan dan keselamatan adalah yang pertama. Pendidikan tetap utama. 
+Mari kita mulai #haripertamasekolah dengan sukacita 💪💪🤗 https://t.co/n5WEN1Cy9F</t>
+  </si>
+  <si>
+    <t>smkbhs</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 00:38:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>@kemkominfo berkaitan dgn kebijakan privasi terbaru aplikasi WhatsApp, untuk keperluan pembelajaran jarak jauh apakah tidak ada rekomendasi ke sekolah2 untuk menggunakan aplikasi lain, "Signal" misalnya?</t>
+  </si>
+  <si>
+    <t>diantn</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 23:35:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>@ibuperiberber pjj kok disekolah.. namanua kan pembelajaran jarak jauh, kl disekolah mah ga jarak jauh.. ya jauh c, jauh dr rumah maksudnya.</t>
+  </si>
+  <si>
+    <t>cacingkremyyy</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 19:45:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Proses belajar daring, sungguh tidak cocok untuk para calon-calon pejuang Dakwah___Transfer ilmu bisa dilakukan melalui Zoom, namun pembelajaran ibadah, adab dan Akhlak tidak bisa dilakukan dari jarak jauh.
+.</t>
+  </si>
+  <si>
+    <t>ellyNPuji</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 16:17:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh (PJJ) secara daring akan kembali diperpanjang oleh Poltekkes Kemenkes Makassar (Polkesmas) hingga semester genap tahun ajaran 2020/2021 sesuai surat edaran (SE) Gubernur bernomor 420/0014/Disdik.
+Baca selengkapnya: https://t.co/91EmdZtFXE https://t.co/DgogzPIEMf</t>
+  </si>
+  <si>
+    <t>LpmIntelligent_</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 14:52:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Istirahat dulu ya teman-teman. Aku udah mulai ngantuk. Besok aku harus ngajar jam 06.30 Pembelajaran Jarak Jauh. 
+Sampai besok ya... 
+Met tidur 😴</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 14:38:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Surat Edaran tentang Kegiatan Belajar Mengajar Semester Genap Tahun Pelajaran 2020/2021 dilaksanakan secara daring/on-line (Pembelajaran Jarak Jauh). https://t.co/8kI9jbEumg</t>
+  </si>
+  <si>
+    <t>sman4bekasi</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 13:37:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Di tahun 2021 ini, saya punya target 1 bulan 1 buku, semoga sempet ya meskipun ditengah-tengah kesibukan menyiapkan materi pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>AFamin_</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 13:37:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@byunbohu pembelajaran jarak jauh😶</t>
+  </si>
+  <si>
+    <t>byunmilky</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 13:33:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>@peonykook Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>JJT11330</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 13:30:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Leeyvlr</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 13:29:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut merupakan hasil analisis BEM KM FKG UGM terkait pelaksanaan Pembelajaran Jarak Jauh FKG UGM yang dapat diakses melalui :
+https://t.co/BAhzmQu9tj 
+#TerbangSelarasSatukanAsa
+Departemen Advokasi dan Kajian Strategis
+BEM KM FKG UGM
+Kabinet Selaras Asa</t>
+  </si>
+  <si>
+    <t>bemkmfkgugm</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 12:30:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seiring dengan hal itu, kami membuat survei untuk menganalisa bagaimana pelaksanaan Pembelajaran Jarak Jauh FKG UGM. Survei dilaksanakan 2 kali yakni pada Juni 2020 dan Desember 2020 melalui Google Form dengan 134 responden pada survei pertama dan 111 responden pada survei kedua.</t>
+  </si>
+  <si>
+    <t>Besok anak mulai masuk pembelajaran jarak jauh alias PJJ IT'S STRANGE WHAT MY MINDS DO = FORGETTING THAT TOMORROW EXIST🙏
+Wkwkwkwk🥲</t>
+  </si>
+  <si>
+    <t>deaadhi</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 10:18:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fraksi PKS Dukung Pembelajaran Jarak Jauh
+@fpksdkijakarta https://t.co/uwv4xoxygy</t>
+  </si>
+  <si>
+    <t>SolikhahID</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 09:27:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bagian penyimpanan salah satu bagian penting juga buat para pelajar dalam proses pembelajaran jarak jauh, berbagai bentuk file tugas-tugas perlu ruang yang bisa menampung semuanya.</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 06:39:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ukuran RAM  sangat menentukan kinerja dari laptop, RAM 2 GB dirasa kurang mendukung apabila dipergunakan untuk pembelajaran jarak jauh terlebih bagi pengguna seperti saya sebagai pendidik yang akan lebih banyak membuka beragam apikasi dan membuat konten-konten pembelajaran,…</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 06:39:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dalam tulisan ini saya mau bahas tentang tips memilih laptop untuk pembelajaran jarak jauh dan laptop ASUS  VivoBook 14 (A416) yang dapat menjadi pilihan yang cocok laptop harga 4-jutaann buat teman-teman pelajar yang saat ini menjalani pembelajaran jarak jauh.</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 06:39:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Orangtua, pelajar dan mahasiswa masih banyak nih yang bingung memilih laptop yang cocok buat pembelajaran jarak jauh. Jadi bukan sembarang laptop yang dijual dipasaran ya dapat dipakai, lebih baik tetapkanlah sesuai kebutuhan dan budget yang tersedia.</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 06:39:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kelas tatap muka dipindah ke kelas virtual, dimulainya pembelajaran jarak jauh. Salah satu alat paling utama yang diperlukan saat ini untuk  memenuhi kebutuhan tersebut adalah laptop.</t>
+  </si>
+  <si>
+    <t>Awal tahun 2020 lalu semenjak mewabahnya Virus Covid-19 siapa yang bakalan menduga bahwa akan ada istilah-istilah seperti Work From Home (WFH), Belajar Dari Rumah (BDR) dan Pembelajaran Jarak Jauh (PJJ).</t>
+  </si>
+  <si>
+    <t>Laptop Asus VivoBook 14 (A416) Menjadi Pilihan untuk Pembelajaran Jarak Jauh (PJJ)
+A thread ⬇️ https://t.co/dVlHNcGETF</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 06:38:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sudahkan kalian mencukur rambut kalian saat pembelajaran jarak jauh ini? Namun apa jadinya bila ada Barber yang terhalang oleh sebuah paradox? Tentukan nasib dari Barber ini, Yuk simak malmingan amat berikut! https://t.co/0Mrnhw0KeW</t>
+  </si>
+  <si>
+    <t>HMDMathUI</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 14:41:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran semester genap 2021 di Garut tetap sistem jarak jauh https://t.co/U6wbHfTt7Y</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 13:09:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran semester genap 2021 di Garut tetap sistem jarak jauh - ANTARA News Jawa Barat https://t.co/yizG4j44HF</t>
+  </si>
+  <si>
+    <t>Antara_Jabar</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 12:59:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Anak mengawasi orang tuanya yang sedang melakukan pembelajaran jarak jauh. https://t.co/BjD5zGpNvz</t>
+  </si>
+  <si>
+    <t>permasyarakatan</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 11:14:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>@SilviaChezia Pembelajaran jarak jauh kak:(
+Iya...tadi aku juga dah liat SG kakak haha😂</t>
+  </si>
+  <si>
+    <t>cassiopeiae_1</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 10:42:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>@digitalline7 @eremikass @tanyainrl pembelajaran jarak jauh 
+bener ga si? correct me if i wrong😗</t>
+  </si>
+  <si>
+    <t>akuwusekali</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 05:47:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Presentasi video hasil praktik dalam peningkatan pembelajaran melalui media video berbasis Android. Tetap sinau dalam meninhkatkan kualitas pembelajaran jarak jauh SMA N 1 Pegandon. Bersama narasumber dari BPTIKP Jawa Tengah. https://t.co/hyc7BZvX7R</t>
+  </si>
+  <si>
+    <t>NurHadi42720096</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 05:14:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh ini bikin🥴😵</t>
+  </si>
+  <si>
+    <t>Kuniafifah98</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 04:28:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Lomba Vlog Instagram Pembelajaran Jarak Jauh
+Kategori Peserta : SD - SMA
+Syarat &amp;amp; ketentuan di https://t.co/BLJf01Cgqh
+#hutmi51 #pjjhutmi2021 #pjjdbl2021 https://t.co/H8Q7OqathN</t>
+  </si>
+  <si>
+    <t>DariBalikLensa</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 04:24:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ponpes Darunnajah Jakarta kembali mengoptimalkan pembelajaran jarak jauh. https://t.co/5i53VeyRjg</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 02:29:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Semangat pagi dan semangat belajar Sahabat #DisdikbudKendal dan Anak-anak #KendalHandal.
+Pandemi Covid-19 belum berakhir. 
+Tetap semangat belajar ya, seperti pembelajaran jarak jauh yang dilakukan di SD Negeri 2 Patukangan.
+https://t.co/Wc9Ay8SJj8</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 23:14:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah masih mengijinkan masyarakat untuk makan di tempat dengan catatan satu meja satu orang dan kapasitas restoran atau warung makan tidak boleh di atas 50% dan harus di bawah itu.perkuliahan dan pembelajaran masih di lakukan secara jarak jauh dari rumah lewat  daring</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 21:02:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Disdik Kota Bekasi Kembali Terapkan Pembelajaran Jarak Jauh https://t.co/PtLFkdH8KP https://t.co/6LSk8bewbp</t>
+  </si>
+  <si>
+    <t>masturohquthb</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 19:11:04 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -9487,10 +10098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1253"/>
+  <dimension ref="A1:D1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1241" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1254" sqref="H1254"/>
+    <sheetView tabSelected="1" topLeftCell="A1304" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1322" sqref="J1322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27037,6 +27648,1126 @@
         <v>2344</v>
       </c>
     </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1254">
+        <v>1.348628451574604E+18</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1255">
+        <v>1.3485862299194821E+18</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1256">
+        <v>1.3485730652742779E+18</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257">
+        <v>1.348562959027511E+18</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258">
+        <v>1.3485537225787059E+18</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259">
+        <v>1.3485527869175401E+18</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260">
+        <v>1.34855198693376E+18</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261">
+        <v>1.348531499117601E+18</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262">
+        <v>1.3485313723783171E+18</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>1.3485302626535869E+18</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>1.348528575348031E+18</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>1.3485245068856771E+18</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>1.348524379588555E+18</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1267">
+        <v>1.3485178062543949E+18</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1268">
+        <v>1.3485149853123579E+18</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1269">
+        <v>1.348513289844662E+18</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1270">
+        <v>1.348512890043605E+18</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1271">
+        <v>1.348509794605302E+18</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1272">
+        <v>1.3485066880353201E+18</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1273">
+        <v>1.3485052965539551E+18</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1274">
+        <v>1.3485019254366899E+18</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1275">
+        <v>1.3485014547938299E+18</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1276">
+        <v>1.3485011202393741E+18</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1277">
+        <v>1.3484802126657249E+18</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1278">
+        <v>1.3484799551396539E+18</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1279">
+        <v>1.3484758821306611E+18</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1280">
+        <v>1.348468715797451E+18</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1281">
+        <v>1.3484631123708639E+18</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1282">
+        <v>1.3484601542247099E+18</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1283">
+        <v>1.348459058643157E+18</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1284">
+        <v>1.348455584824062E+18</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>1.3484547200214879E+18</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>1.3484477741198459E+18</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>1.3484428949447229E+18</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1288">
+        <v>1.348432061174977E+18</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1289">
+        <v>1.3484290206695181E+18</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1290">
+        <v>1.3484131520613619E+18</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1291">
+        <v>1.3483551775987059E+18</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1292">
+        <v>1.348303046485238E+18</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1293">
+        <v>1.348281540594209E+18</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1294">
+        <v>1.3482781425745469E+18</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1295">
+        <v>1.3482627209198551E+18</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1296">
+        <v>1.348262704088191E+18</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1297">
+        <v>1.3482617686032059E+18</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1298">
+        <v>1.3482608536199539E+18</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299">
+        <v>1.34826073836048E+18</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1300">
+        <v>1.348245943443808E+18</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1301">
+        <v>1.3482459414809439E+18</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1302">
+        <v>1.348212717295788E+18</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1303">
+        <v>1.3481997493929001E+18</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1304">
+        <v>1.348157441523945E+18</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1305">
+        <v>1.3481574396155331E+18</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1306">
+        <v>1.348157377569194E+18</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1307">
+        <v>1.3481573762689431E+18</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1308">
+        <v>1.348157375581098E+18</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1309">
+        <v>1.348157374847062E+18</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1310">
+        <v>1.348157350159413E+18</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1311">
+        <v>1.3479164075440251E+18</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1312">
+        <v>1.3478931949696079E+18</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1313">
+        <v>1.347890852685758E+18</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1314">
+        <v>1.347864399449506E+18</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1315">
+        <v>1.3478563878298619E+18</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1316">
+        <v>1.3477820204248471E+18</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1317">
+        <v>1.3477737846070029E+18</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1318">
+        <v>1.3477620812741061E+18</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1319">
+        <v>1.3477612395191621E+18</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1320">
+        <v>1.3477321726653519E+18</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1321">
+        <v>1.3476832029371469E+18</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1322">
+        <v>1.3476499333529759E+18</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1323">
+        <v>1.3476218627846999E+18</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1324">
+        <v>1.347542368271041E+18</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1325">
+        <v>1.347518172560126E+18</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1326">
+        <v>1.3475181717715891E+18</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1327">
+        <v>1.347486851930604E+18</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1328">
+        <v>1.347447265548329E+18</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1329">
+        <v>1.3473945633049029E+18</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1330">
+        <v>1.3473940226674811E+18</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1331">
+        <v>1.347372840039797E+18</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1332">
+        <v>1.34736547084066E+18</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1333">
+        <v>1.3473563669695281E+18</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>2611</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="2954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="3363">
   <si>
     <t>id</t>
   </si>
@@ -9736,6 +9736,1353 @@
   </si>
   <si>
     <t>Fri Jan 08 19:11:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>halo teman-teman bantuin temen aku isi kuesioner penelitian ya 
+✨Kriteria Guru :✨
+1. Guru SMA.
+2. Mengajar di Jakarta.
+3. Melakukan Pembelajaran Jarak Jauh (PJJ).
+Link survey:
+https://t.co/RjGETRq8qK
+Terima Kasih</t>
+  </si>
+  <si>
+    <t>AABUMIPIRAPAT2</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 14:42:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>@lovieyukhei pembelajaran jarak jauh beb</t>
+  </si>
+  <si>
+    <t>holosupp</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 10:53:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>@maskoeki @collegemenfess Yupp.. pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>13yj05sb</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 10:27:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>@NuguYour @collegemenfess Pembelajaran jarak jauh nder</t>
+  </si>
+  <si>
+    <t>rhyustr</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 10:26:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>@NuguYour @collegemenfess Pembelajaran Jarak Jauh -ns</t>
+  </si>
+  <si>
+    <t>mfizmrhzs</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 10:26:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>@suppasimt @collegemenfess pembelajaran jarak jauh sayang</t>
+  </si>
+  <si>
+    <t>checkibunegara</t>
+  </si>
+  <si>
+    <t>@collegemenfess PJJ : Pembelajaran Jarak Jauh</t>
+  </si>
+  <si>
+    <t>oreopelangi</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 10:26:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>@suppasimt @collegemenfess Pembelajaran jarak jauh nder</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 10:26:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@NuguYour @collegemenfess Pembelajaran jarak jauh
+cmiiw*</t>
+  </si>
+  <si>
+    <t>apctoxin</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 10:25:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh dan Teachers Burnout https://t.co/gfsU3dAJAu via @suyantodotid</t>
+  </si>
+  <si>
+    <t>Suyanto152</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 08:45:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Deti Prasetyaningrum: Pembelajaran Jarak Jauh dan Teachers Burnout https://t.co/3bnXz7gN9E</t>
+  </si>
+  <si>
+    <t>SuyantoDotID</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 07:17:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/8bShsn3YYa
+CP (Hanifa / 081321392253) https://t.co/jZZAT57QUf</t>
+  </si>
+  <si>
+    <t>eventmalang</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 03:02:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Banyak sekali tantangan yang harus mereka hadapi jika harus melaksanakan pembelajaran jarak jauh. https://t.co/baEvTBIsuT</t>
+  </si>
+  <si>
+    <t>the_geotimes</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:56:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Metode pembelajaran tahun 2021 msih sama w/ dua ribu dua puluh, yakni pembelajaran jarak jauh secara daring, kata Wahid " Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>DuhpusingPalagw</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:44:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Metode pembelajaran tthn 2021 mash samaa dngn '20, yaitu pembelajaran jarak jauh secara daring, kata Wahid " Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>DiahGita7</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:44:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Metode pembelajaran thn 2021 msh ma dgn 2020, ialah pembelajaran jarak jauh secara daring, kata Wahid " Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>AnaknyaibuIbu</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:44:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Metode pembelajaran taun 2021 macih ama dg dua ribu dua puluh, adalah pembelajaran jarak jauh secara daring, kata Wahid " Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:44:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid mengatakan, metode pembelajaran tahun 2021 msih sama w/ dua ribu dua puluh, yakni pembelajaran jarak jauh secara daring " Khofifah Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:43:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid mengatakan, metode pembelajaran tthn 2021 mash samaa dngn '20, yaitu pembelajaran jarak jauh secara daring " Khofifah Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:43:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid mengatakan, metode pembelajaran thn 2021 msh ma dgn 2020, ialah pembelajaran jarak jauh secara daring " Khofifah Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:43:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid mengatakan, metode pembelajaran taun 2021 macih ama dg dua ribu dua puluh, adalah pembelajaran jarak jauh secara daring " Khofifah Gubernur Jawa Timur "</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:43:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dampak positif yang diakibatkan pendemi adalah mempercepat implementasi merdeka belajar w/ pemanfaatan teknologi komunikasi, ntuk pembelajaran jarak jauh, kata Wahid [ Gubernur Provinsi Jawa Timur ]</t>
+  </si>
+  <si>
+    <t>HanaSusanti6</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:37:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dampak positif yg diakibatkan pendemi adlh mempercepat implementasi merdeka belajar dngn pemanfaatan teknologi komunikasi, untk pembelajaran jarak jauh, kata Wahid [ Gubernur Provinsi Jatim ]</t>
+  </si>
+  <si>
+    <t>NovaFujiati</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:36:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dampak positif yang diakibatkan pendemi adlah mempercepat implementasi merdeka belajar dgn pemanfaatan teknologi komunikasi, utk pembelajaran jarak jauh, kata Wahid [ Gubernur Jawa Timur ]</t>
+  </si>
+  <si>
+    <t>AdeUnjani</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:36:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dampak positif yg diakibatkan pendemi adalh mempercepat implementasi merdeka belajar dg pemanfaatan teknologi komunikasi, u/ pembelajaran jarak jauh, kata Wahid [ Gubernur Jatim ]</t>
+  </si>
+  <si>
+    <t>TinaWidiastuti3</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:36:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menuturkan, dampak positif yang diakibatkan pendemi adalah mempercepat implementasi merdeka belajar w/ pemanfaatan teknologi komunikasi, ntuk pembelajaran jarak jauh [ Khofifah Indar Parawansa ]</t>
+  </si>
+  <si>
+    <t>GabriellaHassa2</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:36:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menuturkan, dampak positif yg diakibatkan pendemi adlh mempercepat implementasi merdeka belajar dngn pemanfaatan teknologi komunikasi, untk pembelajaran jarak jauh [ Khofifah Indar Parawansa ]</t>
+  </si>
+  <si>
+    <t>GandiSatyaNugr1</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:36:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menuturkan, dampak positif yang diakibatkan pendemi adlah mempercepat implementasi merdeka belajar dgn pemanfaatan teknologi komunikasi, utk pembelajaran jarak jauh [ Khofifah Indar Parawansa ]</t>
+  </si>
+  <si>
+    <t>YahyaPrakasa</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:36:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menuturkan, dampak positif yg diakibatkan pendemi adalh mempercepat implementasi merdeka belajar dg pemanfaatan teknologi komunikasi, u/ pembelajaran jarak jauh [ Khofifah Indar Parawansa ]</t>
+  </si>
+  <si>
+    <t>RajataVero</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:36:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menjelaskan , " pembelajaran jarak jauh butuh peran keluarga dan org tua w/ ikut memfasilitasi serta mendorong agar yang belajar dr rumah nyaman , " ( Khofifah Gubernur Provinsi Jawa Timur )</t>
+  </si>
+  <si>
+    <t>OktaOktaMelinda</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:35:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menjelaskan , " pembelajaran jarak jauh butuh peran keluarga dn orang tua dngn ngikut memfasilitasi serta mendorong agar yg belajar dari rumah nyaman , " ( Khofifah Gubernur Provinsi Jatim )</t>
+  </si>
+  <si>
+    <t>1IntanKartika_</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:35:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menjelaskan , " pembelajaran jarak jauh butuh peran keluarga n orng tua dgn ikut memfasilitasi serta mendorong agar yang belajar dri rumah nyaman , " ( Khofifah Gubernur Jawa Timur )</t>
+  </si>
+  <si>
+    <t>RezaBahbah</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:35:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menjelaskan , " pembelajaran jarak jauh butuh peran keluarga &amp;amp; org tua dg ngikut memfasilitasi serta mendorong agar yg belajar dr rumah nyaman , " ( Khofifah Gubernur Jatim )</t>
+  </si>
+  <si>
+    <t>endra_pangestu</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:35:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid mengatakan, metode pembelajaran tahun 2021 masih sama dengan 2020, yakni pembelajaran jarak jauh secara daring "Khofifah Gubernur Jawa Timur"</t>
+  </si>
+  <si>
+    <t>KemalSantoso1</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:32:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dampak positif yang diakibatkan pendemi adalah mempercepat implementasi merdeka belajar dengan pemanfaatan teknologi komunikasi, untuk pembelajaran jarak jauh, kata Wahid [ Gubernur Jatim ]</t>
+  </si>
+  <si>
+    <t>AnggriawanPanca</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:30:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menuturkan, dampak positif yang diakibatkan pendemi adalah mempercepat implementasi merdeka belajar dengan pemanfaatan teknologi komunikasi, untuk pembelajaran jarak jauh [ Khofifah Indar Parawansa ]</t>
+  </si>
+  <si>
+    <t>DarmantoRadit</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:30:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/hQqGCq0o5A
+CP (Hanifa / 081321392253) https://t.co/nLqkgoo1Tq</t>
+  </si>
+  <si>
+    <t>EventJakartaCom</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:15:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>"Pembelajaran jarak jauh butuh peran keluarga dan orang tua dengan ikut memfasilitasi serta mendorong agar yang belajar dari rumah nyaman,” jelasnya [ Gubernur Jawa Timur ]</t>
+  </si>
+  <si>
+    <t>WisnuHidayat77</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:05:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>@mayupamungkas @teslonik Pembelajaran jarak jauh, eta teeeeh</t>
+  </si>
+  <si>
+    <t>gendatmike</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 00:56:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 14 A416 Dukung Pembelajaran Jarak Jauh Jadi Lebih Efisien
+@apura_meity 
+https://t.co/jeno4MKIUM
+@bloggerbengkulu #UpdateBlogBloggerBengkulu</t>
+  </si>
+  <si>
+    <t>Inokari_</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 00:27:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dalam kesehariannya sebelum pandemi, Mbah Imah berjualan jajanan di salah satu sekolah dasar di sekitar rumahnya. Namun, selama pandemi, sekolah tersebut melaksanakan pembelajaran jarak jauh dan murid-murid belajar dari rumah. https://t.co/R2wvn8fs2r</t>
+  </si>
+  <si>
+    <t>KemenBUMN</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 23:45:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran daring yang kudu responsif dengan perubahan
+#UpdateBlogBloggerBengkulu
+Baca yuk! 
+Artikel menarik dari mba @apura_meity
+ASUS VivoBook 14 A416 Dukung Pembelajaran Jarak Jauh Jadi Lebih Efisien -- https://t.co/TahfYC6nkP</t>
+  </si>
+  <si>
+    <t>Ikapasca</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 20:36:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>@bnubblegum pjj itu pembelajaran jarak jauh wkwkwk. jadi kuliahnya via zoom gitu. aku masih kuliah wkwkwk. ohh kamu dah lulus yaa. okee2 aku baru ngerti konteks "kangen ngampus"nyaa wkwk.</t>
+  </si>
+  <si>
+    <t>cohensunn</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 08:49:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>#DubesHeriAkhmadi hadir secara virtual dalam Musyawarah Tahunan Pimpinan Cabang Istimewa Muhammadiyah Jepang &amp;amp; sampaikan topik wawasan kebangsaan dalam bersyarikat. Dubes Heri juga sampaikan rencana Pembelajaran Jarak Jauh serta dorong inovasi pemberdayaan ekonomi masyarakat. https://t.co/5RC1IkO9OR</t>
+  </si>
+  <si>
+    <t>KBRITokyo</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 05:53:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/8bShsn3YYa
+CP (Hanifa / 081321392253) https://t.co/aSQfY0QrDM</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 03:02:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ratusan Komputer Sekolah di Cianjur Digondol Maling Selama Pembelajaran Jarak Jauh https://t.co/o0fbWHXOVB</t>
+  </si>
+  <si>
+    <t>WartaEkonomi</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 03:00:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:56:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>@urlovelypotatoo pembelajaran jarak jauh.. daring, sekolah wkwkwk</t>
+  </si>
+  <si>
+    <t>cuddlygyushi</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:55:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Banyak sekali tantangan yang harus mereka hadapi jika harus melaksanakan pembelajaran jarak jauh. https://t.co/baEvTBqR6j</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:53:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:40:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:39:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:39:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>RizkynstMd</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:36:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>arian_arrasyid</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:35:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>IqlilahF</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:35:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>JodohnyaKamu8</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:35:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>MaheraSandra</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:35:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>SyifaSaskia3</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:35:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Metode pembelajaran tahun 2021 masih sama dengan 2020, yakni pembelajaran jarak jauh secara daring, kata Wahid "Gubernur Jawa Timur"</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:32:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:32:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:30:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>risnadamay</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:30:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wahid menjelaskan, "pembelajaran jarak jauh butuh peran keluarga dan orang tua dengan ikut memfasilitasi serta mendorong agar yang belajar dari rumah nyaman," (Khofifah Gubernur Jatim)</t>
+  </si>
+  <si>
+    <t>faniaaasarah</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:30:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Proses kegiatan PJJ memang selalu membutuhkan kuota internet  dan yang tak kalah penting adalah kelancaran sinyalnya. 
+Selengkapnya https://t.co/20hDAmqMt6 oleh J. Masruro</t>
+  </si>
+  <si>
+    <t>rahmadotid_</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:28:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/hQqGCq0o5A
+CP (Hanifa / 081321392253) https://t.co/EI0hl7wR1P</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:15:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:05:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Praktik Pendidikan Gaya Bank dalam Google Classroom selama Pembelajaran Jarak Jauh Masa Pandemi https://t.co/7utRRZr5Qv</t>
+  </si>
+  <si>
+    <t>indonesiana</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 01:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/hQqGCq0o5A
+CP (Hanifa / 081321392253) https://t.co/gfoQU48SKX</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 16:15:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>@yjaehy @treasurebabble pembelajaran jarak jauh, jadi mereka ga akan ada di tk nya</t>
+  </si>
+  <si>
+    <t>chocomilk_cia</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 13:44:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>@ViantyTJP Beli pulsa buat keperluan anak pembelajaran jarak jauh. Kebetulan yg didaftarkan sekolah utk bantuan pulsa dari kemendikbud no nya tdk sesuai 😊🙏</t>
+  </si>
+  <si>
+    <t>bunda1026</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 13:00:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selama pandemi melanda para pelajar masih harus melakukan pembelajaran jarak jauh. Berbagai tekanan psikologis dirasakan tidak hanya oleh siswa dan orang tua, tapi juga guru. Dukungan psikososial sangat dibutuhkan untuk membantu mereka melalui proses belajar mengajar tersebut. https://t.co/oks4D4yyzk</t>
+  </si>
+  <si>
+    <t>KSRPMIUnitUNJ</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 11:41:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>RPP Daring Satu Lembar Mapel PAI Kelas 1, 2, 3, 4, 5, dan 6: Rencana pelaksanaan pembelajaran mapel PAI dan BP.Meskipun proses pembelajaran selama pandemi covid-19 dilaksanakan dengan pembelajaran jarak jauh atau daring, khususnya guru mata pelajaran… https://t.co/tNA0huHYjo https://t.co/33eZwNAn3t</t>
+  </si>
+  <si>
+    <t>kanakaprivate</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 10:24:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hai, sobat Eduprisma !!
+Bagi yang sedang ingin belajar membuat dan mengelola e-learning sendiri, terlebih di masa penerapan Pembelajaran Jarak Jauh (PJJ). Simak aja link materi berikut :
+1. E-Learning (Bagian 1): Definisi Dan Konsep | https://t.co/DDnfBA0Fzv
+ ... Lanjut &amp;gt;&amp;gt;</t>
+  </si>
+  <si>
+    <t>yogaprismanata</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 06:52:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>pagi tadi udah disuguhin pertanyaan berat sama emak
+emak: "dampak negatif berjangka panjang apa yang kamu takutin pasca pandemi selain resesi ekonomi?"
+dan aku jawabnya cuma "penurunan kualitas pendidikan setelah adanya pembelajaran jarak jauh" haha:'</t>
+  </si>
+  <si>
+    <t>siamjink</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 05:35:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>kenapa guru sekolah gua lebih merhatiin rambut siswa yg gondrong/atribut sekolah, ketimbang pemahaman murid terhadap pembelajaran jarak jauh yakk. bingung brow</t>
+  </si>
+  <si>
+    <t>rifqiipranata</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 04:14:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/8bShsn3YYa
+CP (Hanifa / 081321392253) https://t.co/ySr6MzYrVt</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 03:02:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 02:55:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>@cigarettesfire pembelajaran jarak jauh yez</t>
+  </si>
+  <si>
+    <t>beyourrrs</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 02:28:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>dan STMIK Nusa Mandiri dengan mengusung tema "Kiat Penyelenggaraan Pembelajaran Jarak Jauh Untuk Peningkatan Kualitas Guru MGMP di Era New Normal". Acara webinar ini merupakan peningkatan kualitas pembelajaran jarak jauh.
+#NusaMandiri
+#GenerasiMandiri</t>
+  </si>
+  <si>
+    <t>Nusamandiri_JTW</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 02:26:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>nusamandirics03</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 02:23:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selama pandemi, Fastrack Funschool menerapkan konsep pembelajaran jarak jauh. Berbagai cara dilakukan sehingga proses pembelajaran ini bisa efektif,  interaktif dan fun untuk anak-anak.
+Tersedia free trial juga, lho!
+#FastrackFunschool 
+#freetrialclass 
+#paudjogja 
+#playgroup https://t.co/aKF1SVTYzy</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 02:23:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dengan pembelajaran jarak jauh gini bisa melatih dan mengupgrade tingkat kesabaran</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 02:01:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>@jjtenry Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>hrjphile</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 01:07:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Jumat 15 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/ULV4mVhHgo</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 00:42:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Lg ikut Digital Access National Network Meet Up UK. Untuk pembelajaran jarak jauh, banyak banget inisiatif masyarakat daerah untuk donasi dan refurbish laptop/tablet untuk anak2 di desa belajar. Termasuk diajarkan pengelolaan limbah elektronik 🧐 https://t.co/jpbh5gpCX0</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 19:04:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>mau share sedikit mengenai tata krama pembelajaran jarak jauh semasa pandemi covid ini besok pagi. ini sih hanya berdasarkan pengalaman saya selama hampir 3 semester terakhir tentu dari sisi guru. Kalo kemaren banyak siswa yg ngeluh karna pjj banyak tugas, sama kami juga kok.</t>
+  </si>
+  <si>
+    <t>wahyuidaP</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 17:01:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>sch!
+apa yang kalian dapat dari pembelajaran jarak jauh?
+all student:
+✄・・・
+🤔 Trivia: Kita tidak akan bersin saat tidur karena saraf yang mengontrol bersin juga beristirahat https://t.co/6qjYNjA1u7</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 12:36:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Keputusan belajar tatap muka atau pembelajaran jarak jauh sama-sama berpotensi memberikan dampak yang negatif bagi anak. Jika memang terpaksa melakukan belajar tatap muka, berikut #RekomendasiSMERU untuk pemerintah daerah. https://t.co/355KAs9gH1</t>
+  </si>
+  <si>
+    <t>SMERUInstitute</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 12:31:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kedua, kurang dari 1% anak-anak dari rumah tangga miskin yang memiliki akses ke internet untuk pembelajaran jarak jauh (PJJ). Padahal, lebih dari 60% inisiatif PJJ nasional mengandalkan platform daring.</t>
+  </si>
+  <si>
+    <t>WSugeni</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 12:05:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah Kota Cirebon, Jawa Barat, tahun ini tetap memberlakukan model Pembelajaran Jarak Jauh (PJJ), karena kasus positif COVID-19 belum menunjukkan adanya penurunan. #publisherstory https://t.co/0wNoyU665e</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 11:44:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@thatlullabye bisa pjj, pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>syarifbustamann</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 11:39:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>RPP Daring Satu Lembar Mapel PAI Kelas 6 SD Kurikulum 2013: RPP PAI dan BP kelas 6 pembelajaran online.Meskipun proses pembelajaran selama pandemi covid-19 dilaksanakan dengan pembelajaran jarak jauh atau daring, khususnya guru mata pelajaran Pendidikan… https://t.co/0gEVcwr20S https://t.co/yTS5adb02w</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 10:21:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@DSeptilaa [1/4] Universitas Terbuka adalah perguruan tinggi negeri yang menerapkan sistem pembelajaran terbuka dan jarak jauh.
+Kuliah di UT, yaitu dengan belajar secara mandiri bisa dari rumah atau dimanapun, dengan mempelajari modul UT.
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 09:16:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo # SobatPusbangdarat!
+Selama Pembelajaran Jarak Jauh (PJJ) kita diharapkan dapat menjadi pembelajar yang mandiri nih. Untuk itu, cari tahu yuk teknik belajar yang efektif sesuai dengan gaya belajar #SobatPusbangdarat. https://t.co/hWYWv7AvW9</t>
+  </si>
+  <si>
+    <t>PPSDMPD</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 07:51:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Anda masih kesulitan melakukan pembelajaran jarak jauh? 
+Tunggu apalagi, ajak sekolah dan daerah Anda untuk mengikuti program Sekolah Lawan Corona yang sudah diikuti puluhan ribu guru dan ribuan sekolah dari puluhan daerah di Indonesia. 
+Informasi: https://t.co/ohtxvQKhjz https://t.co/DUyf8GrNgr</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 07:42:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>RPP Daring Satu Lembar Mapel PAI Kelas 5 SD Kurikulum 2013: Download RPP PAI dan BP daring kelas 5.Meskipun proses pembelajaran selama pandemi covid-19 dilaksanakan dengan pembelajaran jarak jauh atau daring, khususnya guru mata pelajaran Pendidikan… https://t.co/LG7MRvb0rs https://t.co/ZOkXZim6LM</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 07:23:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>RPP Daring Satu Lembar Mapel PAI Kelas 4 SD Kurikulum 2013: Meskipun proses pembelajaran selama pandemi covid-19 dilaksanakan dengan pembelajaran jarak jauh atau daring, khususnya guru mata pelajaran Pendidikan Agama Islam dan Budi Pekerti tetap wajib… https://t.co/q0x9L09UAE https://t.co/oGaTs4Ti67</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 07:23:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/8bShsn3YYa
+CP (Hanifa / 081321392253) https://t.co/8QfApt0isH</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 03:02:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 02:53:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dilansir dari JHU CSSE, jumlah kasus baru covid-19 bertambah sebanyak 100. 420. Hal tersebut mengakibatkan pembelajaran jarak jauh dilanjutkan untuk semua jenjang pendidikan, termasuk perguruan tinggi.</t>
+  </si>
+  <si>
+    <t>ItsMeDina16</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 02:21:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dengan masih dilanjutkannya aturan untuk Pembelajaran Jarak Jauh,  maka kita harus dapat membuat anak tetap semangat dalam menjalankan belajar online.
+Berikut tips yang bisa Anda lakukan supaya anak bisa lebih semangat belajarnya saat #DirumahSaja #NUVOfamily #BeraniEksplorasi https://t.co/tiTPcUvYRI</t>
+  </si>
+  <si>
+    <t>NuvoFamily</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 01:44:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>@ilovenextar pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>harutosyafridho</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 01:16:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah Arab Saudi memutuskan melanjutkan kegiatan pembelajaran jarak jauh bagi semua jenjang pendidikan memasuki semester kedua tahun akademik. Keputusan itu diambil karena pandemi COVID-19 belum mereda. https://t.co/4EmGFgbqLQ</t>
+  </si>
+  <si>
+    <t>DeenAssalam99</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 01:13:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah Arab Saudi memutuskan melanjutkan kegiatan pembelajaran jarak jauh bagi semua jenjang pendidikan memasuki semester kedua tahun akademik. Keputusan itu diambil karena pandemi COVID-19 belum mereda. https://t.co/VzvGL3NQ8P</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 01:13:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>@FirstMediaCares Pasti sangat tau khan ya sudah dari kuartal kedua tahun 2020 itu berjalan Pembelajaran Jarak Jauh dan Kerja Dari Rumah.... hayo donk masa gak belajar2 dari outage sebelumnya..</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 00:27:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Keputusan itu diambil karena pandemi COVID-19 belum mereda. #kumparanNews https://t.co/t33wGOlsI0</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 23:31:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menghadirkan Narasumber Bapak Menteri Perhubungan Budi Karya Sumadi dan Bapak Menteri Kesehatan Budi Gunadi Sadikin.
+Jangan lewatkan, Kuliah Umum "Disiplin 5M Jan Kunci Sukses Pembelajaran Jarak Jauh" yang dapat diikuti secara LIVE melalui aplikasi Zoom dan channel YouTube pada</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 23:27:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Oleh karena itu untuk memberikan motivasi &amp;amp; semangat kepada para taruna/I  Sekolah Transportasi di Lingkungan Kementerian Perhubungan yang saat ini sedang melaksanakan PJJ, @BPSDMP151 menyelenggarakan Kuliah Umum dengan tema "Disiplin 5M Jan Kunci Sukses Pembelajaran Jarak Jauh".</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 23:26:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hingga akhirnya Pemerintah kembali memutuskan utk Pemberlakuan Pembatasan Kegiatan Masyarakat (PPKM) atau PSBB di Jawa-Bali mulai tanggal 11 Januari lalu. Sehingga kegiatan belajar mengajar di Sekolah-sekolah di lingkungan @kemenhub151 kembali menerapkan Pembelajaran Jarak Jauh.</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Kamis 14 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/awn28TUXfb</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 22:09:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 14:32:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>[ Adab Buat Tolibul Ilm ]
+Masing-masing penuh dengan tekanan dan depression akibat pembelajaran jarak jauh ini. Sifat saling memahami dan cuba untuk memahami perlu banyak diaplikasikan masa kini.</t>
+  </si>
+  <si>
+    <t>taqiyuddinsabri</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 12:50:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>3.Evaluasi dan perbaikan sistem pembelajaran jarak jauh di UNY.
+4.Evaluasi dan perbaikan sistem uang pangkal (UPPA).
+5.Pencegahan dan penyembuhan korban kekerasan seksual di UNY.
+6.Penandatanganan pakta integritas oleh birokrasi.</t>
+  </si>
+  <si>
+    <t>irstud_</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 12:47:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dilansir dari JHU CSSE, jumlah kasus baru covid-19 bertambah sebanyak 100.420. Hal tersebut mengakibatkan pembelajaran jarak jauh dilanjutkan untuk semua jenjang pendidikan, termasuk perguruan tinggi. 
+https://t.co/2MMdxaHpPn</t>
+  </si>
+  <si>
+    <t>suarasikap</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 12:42:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Testimoni pembelajaran jarak jauh~ https://t.co/owV6IK3eiw</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 11:32:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Solusi Pembelajaran Jarak Jauh (PJJ) Yang Lengkap Untuk Perguruan Tinggi https://t.co/EXH21jKh0I https://t.co/FYcDOvTrze</t>
+  </si>
+  <si>
+    <t>sevima_official</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 10:52:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Saat PJJ Pembelajaran jarak jauh. Banyak iklan pendidikan di Televisi swasta berkeliaran. Produk indonesia atau china kah itu</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 10:17:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh akan lebih optimal jika menggunakan layanan e-learning hosting seperti dijelaskan di sini
+https://t.co/POoOU7czGU</t>
+  </si>
+  <si>
+    <t>mutia_karamoy</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 09:59:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Notis Penutupan Sekolah bermula 13hb Januari 2021 sehingga 26hb Januari 2021 berikutan PKP.
+Walau bagaimana pun Pembelajaran Jarak Jauh Atas Talian bermula 20hb Januari 2021. 
+Follow &amp;amp; Like FB, IG, Twitter, YouTube @srisgramal https://t.co/jIZsM7DHnO</t>
+  </si>
+  <si>
+    <t>srisgramal</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 09:31:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>[ARTIKEL]
+Pembelajaran Jarak Jauh Diperpanjang, Sinergi Guru dan Orang tua Harus Dikuatkan
+https://t.co/nKtc3TPJEd</t>
+  </si>
+  <si>
+    <t>parist_id</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 05:25:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Disdik Bojonegoro Terapkan Pembelajaran Jarak Jauh Lewat Radio Malowopati FM
+https://t.co/a84NBl6ZVR https://t.co/vzhzUBL1xO</t>
+  </si>
+  <si>
+    <t>pemkab_bjn</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 01:59:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tulisan pertama saya di Kumparan. Selamat membaca dan semoga bermanfaat.
+Desain Pembelajaran Jarak Jauh: Guru Perlu Perhatikan Hal Ini  https://t.co/j07TW54AJj</t>
+  </si>
+  <si>
+    <t>NurArviyanto</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 01:36:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bagaimana Cara Menjadi Kesal Selama Menjalani Pembelajaran Jarak Jauh
+Volume 1</t>
+  </si>
+  <si>
+    <t>skmtxmshm11_</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 01:35:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>RPP Daring Satu Lembar Mapel PAI Kelas 3 SD Kurikulum 2013:  Download RPP PAI satu lembar kelas 3 SD.Meskipun proses pembelajaran selama pandemi covid-19 dilaksanakan dengan pembelajaran jarak jauh atau daring, khususnya guru mata pelajaran Pendidikan… https://t.co/rZEjT4Qstb https://t.co/W36TOmFaQl</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 01:26:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Baik pembelajaran tatap muka atau pembelajaran jarak jauh, pelaksanaan keduanya di tengah pandemi harus melalui beberapa pertimbangan yang matang. #userstory dari Asep Totoh https://t.co/bvoKX0KyNR</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 00:50:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@yyyeopo_ @squidwardfess Pembelajaran Jarak Jauh beb</t>
+  </si>
+  <si>
+    <t>nadaquarious</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 00:35:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@FirstMediaCares Internet di areaku super lelet. Pembelajaran Jarak jauh anakku &amp;amp; Aku sebentar lagi dimulai. Mohon segera diperbaiki.
+FM ID: 91144301</t>
+  </si>
+  <si>
+    <t>najihmuh</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 23:41:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Rabu 13 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/SwiqRC5bJ9</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 22:35:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@hixscript wah di STAN, keren xD masih pembelajaran jarak jauh ya</t>
+  </si>
+  <si>
+    <t>ochakocchi</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 16:44:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>#sobatTINS, Pembelajaran jarak jauh (PJJ) yang dilaksanakan secara daring (dalam jaringan) tak membuat para siswa penerima beasiswa pendidikan PT Timah yang bersekolah di SMAN 1 Pemali menjadi terlena. https://t.co/GtIUnpEuZl</t>
+  </si>
+  <si>
+    <t>Official_TIMAH</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 13:49:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kegiatan belajar Sekolah tetap harus berjalan meski pandemi masih mewabah, sebagai solusi dilakukan PJJ (Pembelajaran Jarak-Jauh). Tapi, masih banyak Guru &amp;amp; Siswa yg kekurangan gawai untuk melakukannya, maka itu hadir kegiatan ini. #bantuan #Sekolah2021 https://t.co/LUqG2V5nQ5</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 13:45:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>selamat malam semuaaa!malam ini aku lagi kerjain tugas bahasa sunda ku nih dari sekolah, karna aku sudah mulai pembelajaran jarak jauh, teman-teman. Kalau kalian gimanaa nih hari ini? udah belajar apaaa ajaa? yukk komen.
+Jangan lupa jaga kesehatan yaa!!! https://t.co/kQWCKbmrAj</t>
+  </si>
+  <si>
+    <t>marsyastudy</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 13:36:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>RPP Daring Satu Lembar Mapel PAI Kelas 1 SD Kurikulum 2013: Download RPP satu lembar PAI kelas 1 SD.Meskipun proses pembelajaran selama pandemi covid-19 dilaksanakan dengan pembelajaran jarak jauh atau daring, khususnya guru mata pelajaran Pendidikan… https://t.co/gj1PV2twux https://t.co/zAiyI9KLXF</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 13:26:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Asus Vivobook 14 M415DA, Laptop Ideal untuk Pembelajaran Jarak Jauh (PJJ) 2021 https://t.co/HdIUryp15r #Laptophia</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 11:38:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ambil contoh nyata,ini skolah tempat istri ngajar. Jarak ke ibukota jg ga jauh,plg mentok2 jg 3 jam. Tp angka putus sekolah tinggi banget.
+Kenapa?
+Ya semenjak pembelajaran daring ini dgn kondisi perekonomian ortu mrka yg pas2an gmn mau (continued)</t>
+  </si>
+  <si>
+    <t>wicaks91</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 11:16:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Disdik Bojonegoro Terapkan Pembelajaran Jarak Jauh Lewat Radio Malowopati FM https://t.co/oeOnLAT1Sk https://t.co/UF9MR7Jvjy</t>
+  </si>
+  <si>
+    <t>mediacenterBJN</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 10:56:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Asus Vivobook 14 M415DA, Laptop Ideal untuk Pembelajaran Jarak Jauh (PJJ) 2021 via @laptophia - https://t.co/pub22gsMTF</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 10:21:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>#Kendala dalam Pembelajaran Jarak Jauh di Masa Pandemi Covid-19 - https://t.co/nQpKcQWyoi - https://t.co/nQpKcQWyoi #KBBI https://t.co/nvtyRMgzom</t>
+  </si>
+  <si>
+    <t>kamusbesarkbbi</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 10:11:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>@NaruhaAtsuko hahahah pembelajaran jarak jauh😂 kiranya macam dia share video n resepi dalam group lah..kalau nak tqnya pape ke boleh direct tanya tips gitu..tp resepi tak boleh share dgn org haa gitu</t>
+  </si>
+  <si>
+    <t>Honey_Flour</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 09:45:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>@muuIes @schfess pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>xstobeliii</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 08:28:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>#Kendala dalam Pembelajaran Jarak Jauh di Masa Pandemi Covid-19 - https://t.co/nQpKcQWyoi - https://t.co/nQpKcQWyoi #KBBI https://t.co/zlCWa8dfU3</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 08:11:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>@bngchnkce Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 08:03:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Keuntungan apa yang bisa didapatkan dari Cisco Webex untuk membantu pembelajaran jarak jauh?</t>
+  </si>
+  <si>
+    <t>Cisco_ID</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 08:01:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh
+negatif corona
+positif mata minus
+positif nyareri cangkeng
+positif dompet kosong
+positif buriq
+positif nolep</t>
+  </si>
+  <si>
+    <t>gabolehah</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 07:07:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sahabat Muda,
+Udah bosen dengan Pembelajaran Jarak Jauh (PJJ)? Makin gabut atau stres dengan PJJ? Simak tips dari Kak Fina Febriani, psikolog, tentang topik seputar Bagaimana Mengelola Stress Akademik Selama PJJ.
+https://t.co/7FlKkLPedH
+#sahabatku_app #sahabatayahbunda</t>
+  </si>
+  <si>
+    <t>5ahabatKu</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:29:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Awalnya, pembelajaran jarak jauh menggunakan HT hanya akan dilakukan hingga Desember kemarin. COVID-19 yang belum mereka membuat kegiatan itu berlanjut. #publisherstory https://t.co/zF9RxYQdN2</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 04:27:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>@sershlovebot Lagi di kantor, tapi disuruh zoom pembelajaran jarak jauh ni wkwk km lagi apa say</t>
+  </si>
+  <si>
+    <t>dokyeomchu</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 04:07:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh SMA PGII 1 Bandung sebagai bentuk pelayanan kepada seluruh siswa untuk mencerdaskan kehidupan bangsa
+@cadisdik7 
+@disdikjabar 
+@kemdikbud.ri @ Smas Pgii 1 https://t.co/98SVOasqvK</t>
+  </si>
+  <si>
+    <t>smapgii1bdg</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 03:50:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>kenapa harus ada kerja kelompok di pembelajaran jarak jauh hAh gak efektif tau</t>
+  </si>
+  <si>
+    <t>karetgeIang</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 03:43:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>tau gaa, aku dpt tugas bikin film pendek kan temanya pembelajaran jarak jauh. maksimal durasi tuh 10 menit. hp ku bikin video 2 menit aja ga sanggup hiks😭😭what should i do ya ampun nangiss😭😭😭</t>
+  </si>
+  <si>
+    <t>hyungwonchaeeee</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 02:41:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Teman² yabg sedang menempuh pendidikan S1 dan sedang menjalani pembelajaran jarak jauh, saya boleh meminta bantuannya untuk mengisi kuisioner super singkat untuk keperluan UAS saya kah? Nanti saya dm linknya</t>
+  </si>
+  <si>
+    <t>yrboyz</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 02:22:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>@P_ZahraJKT48 Hehe. Maklumin aja dek. Ya pembelajaran jarak jauh pasti ada kendalanya. Nikmati aja.
+Siap meramaikan #showroompuweel</t>
+  </si>
+  <si>
+    <t>ganda_akay</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 02:20:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bagi siswa yang sedang mengikuti pembelajaran jarak jauh (PJJ) dan belajar apa itu matahari, ini penjelasannya. https://t.co/Rt82FtENFf</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 02:18:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>@irdescentae @vkookfess pembelajaran jarak jauh 😭</t>
+  </si>
+  <si>
+    <t>xcellentae</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 02:11:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>@dwwetsyu Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>jacksyeols</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 01:33:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>WEBINAR MGMP BAHASA INGGRIS SMK KOTA DEPOK &amp;amp; STMIK NUSA MANDIRI
+STMIK Nusa Mandiri mengadakan webinar dgn tema "Kiat Penyelenggaraan Pembelajaran Jarak Jauh Untuk Peningkatan Kualitas Guru MGMP di Era New Normal".
+Link pendafataran webinar 
+https://t.co/k2WMWCimY3
+#NusaMandiri https://t.co/XJPUcN1M9H</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 01:33:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>@dwwetsyu Pembelajaran jarak jauh,  daring wkwk</t>
+  </si>
+  <si>
+    <t>0nlykyungsoo_</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 01:32:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>WEBINAR MGMP BAHASA INGGRIS SMK KOTA DEPOK &amp;amp; STMIK NUSA MANDIRI
+STMIK Nusa Mandiri mengadakan webinar dgn tema "Kiat Penyelenggaraan Pembelajaran Jarak Jauh Untuk Peningkatan Kualitas Guru MGMP di Era New Normal".
+Link pendafataran webinar 
+https://t.co/5U67s3BoLY
+#NusaMandiri https://t.co/hPXACgvH6n</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 01:32:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>@hyuites pembelajaran jarak jauh...?
+APAASU GUE JG GA TAU KEPANJANGANNYA APA</t>
+  </si>
+  <si>
+    <t>910HAN</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 01:08:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh ini untuk cegah kejenuhan siswa https://t.co/yVXTm2ddhO</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 00:37:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh ini untuk cegah kejenuhan siswa https://t.co/DB7kokeNFI</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 00:00:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Selasa 12 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/hemg8B0DeZ</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 22:20:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>jocelotehan</t>
+  </si>
+  <si>
+    <t>urbae_vi</t>
   </si>
 </sst>
 </file>
@@ -10098,10 +11445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1333"/>
+  <dimension ref="A1:D1527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1304" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1322" sqref="J1322"/>
+    <sheetView tabSelected="1" topLeftCell="A1507" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1521" sqref="I1521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28768,6 +30115,2722 @@
         <v>2611</v>
       </c>
     </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1334">
+        <v>1.3508156845365939E+18</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1335">
+        <v>1.3507581628490959E+18</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1336">
+        <v>1.350751535165108E+18</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1337">
+        <v>1.350751297960481E+18</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1338">
+        <v>1.3507512550317591E+18</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1339">
+        <v>1.3507512539286569E+18</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1340">
+        <v>1.350751250455777E+18</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1341">
+        <v>1.3507512323574049E+18</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1342">
+        <v>1.350751205178282E+18</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1343">
+        <v>1.350725882420183E+18</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1344">
+        <v>1.3507038122400479E+18</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1345">
+        <v>1.3506394841577759E+18</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1346">
+        <v>1.350637969577824E+18</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1347">
+        <v>1.350635092238975E+18</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1348">
+        <v>1.350635037599797E+18</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1349">
+        <v>1.3506350116370921E+18</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1350">
+        <v>1.3506349528371359E+18</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1351">
+        <v>1.350634910722081E+18</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1352">
+        <v>1.3506348650251709E+18</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1353">
+        <v>1.350634835048468E+18</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1354">
+        <v>1.350634784565854E+18</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1355">
+        <v>1.350633193364341E+18</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1356">
+        <v>1.3506331638951281E+18</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1357">
+        <v>1.3506331386370501E+18</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1358">
+        <v>1.3506330839642519E+18</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1359">
+        <v>1.350633058702017E+18</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1360">
+        <v>1.3506330041509151E+18</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1361">
+        <v>1.350632974543307E+18</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1362">
+        <v>1.3506329362786921E+18</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1363">
+        <v>1.350632889981964E+18</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1364">
+        <v>1.3506328604876229E+18</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1365">
+        <v>1.350632827474199E+18</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1366">
+        <v>1.3506328015366021E+18</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1367">
+        <v>1.3506320276665841E+18</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1368">
+        <v>1.3506315303144041E+18</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1369">
+        <v>1.3506315190988639E+18</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1370">
+        <v>1.3506276609767629E+18</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1371">
+        <v>1.3506251575308859E+18</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1372">
+        <v>1.350607966030815E+18</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1373">
+        <v>1.3506006649849411E+18</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1374">
+        <v>1.3505899593636741E+18</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1375">
+        <v>1.3505425561703419E+18</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1376">
+        <v>1.350364539460567E+18</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1377">
+        <v>1.3503201351526971E+18</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1378">
+        <v>1.3502770960572741E+18</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1379">
+        <v>1.3502766186069199E+18</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1380">
+        <v>1.3502755815192581E+18</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1381">
+        <v>1.3502754369750469E+18</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1382">
+        <v>1.3502748266534989E+18</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1383">
+        <v>1.3502715650787489E+18</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1384">
+        <v>1.3502715146926569E+18</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1385">
+        <v>1.3502714935281751E+18</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1386">
+        <v>1.3502706016219789E+18</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1387">
+        <v>1.3502705469953841E+18</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1388">
+        <v>1.3502705175765481E+18</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1389">
+        <v>1.3502704880821701E+18</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1390">
+        <v>1.3502704460217221E+18</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1391">
+        <v>1.3502704081555461E+18</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1392">
+        <v>1.3502696894866921E+18</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1393">
+        <v>1.350269634449035E+18</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1394">
+        <v>1.3502691634160891E+18</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1395">
+        <v>1.3502691048930391E+18</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1396">
+        <v>1.350269058298442E+18</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1397">
+        <v>1.3502685352521149E+18</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>1.35026527310705E+18</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>1.3502627744593759E+18</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>1.35024639150386E+18</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>1.350114282692895E+18</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>1.350076450175554E+18</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>1.3500652920770109E+18</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>1.3500455625491369E+18</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>1.350026071501013E+18</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>1.3499727653113321E+18</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>1.3499533393167931E+18</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>1.349933054840566E+18</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>1.349914708858581E+18</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>1.3499129421674209E+18</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>1.349906369722282E+18</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>1.349905643562443E+18</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>1.3499051357202719E+18</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>1.349905117739274E+18</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>1.3498994352668959E+18</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>1.3498858272627789E+18</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>1.3498794883272699E+18</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>1.3497945579326259E+18</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>1.349763621329388E+18</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>1.3496969736878001E+18</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>1.349695642470281E+18</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>3174</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>1.3496891349740301E+18</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>1.3496838171880041E+18</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>1.349682442337047E+18</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>1.349662930183156E+18</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>1.3496465516567219E+18</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>1.3496250693460129E+18</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>1.3496229599802529E+18</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>1.349618017919926E+18</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>1.3496180122534259E+18</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>1.3495523213956339E+18</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>1.3495500508719639E+18</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>1.3495421031649651E+18</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>1.3495327011166661E+18</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>1.3495258858339981E+18</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>1.349525013955658E+18</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>1.349524961275232E+18</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>1.349513334668706E+18</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>1.3494993538580769E+18</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>1.3494982085363141E+18</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>1.349498206724375E+18</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>1.3494982050969851E+18</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>1.3494787157642939E+18</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>1.3493636607165279E+18</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>1.3493380395799391E+18</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>1.3493373088062789E+18</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>1.349335920726528E+18</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>1.3493184444039859E+18</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>1.349308345526624E+18</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>1.3492994602249129E+18</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>1.3492950721734531E+18</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>1.3492878480426429E+18</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>1.3492260253144719E+18</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>1.349174087117984E+18</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>1.3491684193047309E+18</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>1.349168188584468E+18</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>1.3491659060526159E+18</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>1.3491568464272471E+18</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>1.3491529528884311E+18</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>1.3491394897891039E+18</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>1.3491228695281951E+18</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>1.3490345917057349E+18</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>1.348990562657993E+18</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>1.3489893597149509E+18</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>1.348987315054526E+18</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>1.3489847173123441E+18</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>1.3489574470929001E+18</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>1.3489520196759309E+18</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>1.3489469610852559E+18</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>1.34893814667998E+18</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>1.34893558397293E+18</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>1.3489292042140631E+18</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>1.3489097278754409E+18</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>1.348905467850977E+18</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>1.3489033536407391E+18</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>957</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>1.3489030271057019E+18</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>1.348889383680705E+18</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>1.3488646754845571E+18</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>1.348848953106711E+18</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>1.3488440601281331E+18</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>3320</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>1.3488396546452319E+18</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>1.3488378932052301E+18</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>1.3488223428021819E+18</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>1.3488177063891479E+18</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>1.3488171411479921E+18</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>1.348816605627617E+18</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1487">
+        <v>1.3488148553908311E+18</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1488">
+        <v>1.3488052346303821E+18</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1489">
+        <v>1.3488051419572349E+18</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1490">
+        <v>1.3488050701213901E+18</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1491">
+        <v>1.348805004891628E+18</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1492">
+        <v>1.3487990872026319E+18</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1493">
+        <v>1.3487911867402849E+18</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1494">
+        <v>1.3487817938816451E+18</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1495">
+        <v>1.348756709586604E+18</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>3359</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1496">
+        <v>1.348628451574604E+18</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1497">
+        <v>1.3485730652742779E+18</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1498">
+        <v>1.348562959027511E+18</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1499">
+        <v>1.3485537225787059E+18</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1500">
+        <v>1.34855198693376E+18</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1501">
+        <v>1.3485313723783171E+18</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1502">
+        <v>1.3485302626535869E+18</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1503">
+        <v>1.348528575348031E+18</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1504">
+        <v>1.3485245068856771E+18</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1505">
+        <v>1.348524379588555E+18</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1506">
+        <v>1.3485178062543949E+18</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1507">
+        <v>1.3485149853123579E+18</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1508">
+        <v>1.348513289844662E+18</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1509">
+        <v>1.348512890043605E+18</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1510">
+        <v>1.348509794605302E+18</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1511">
+        <v>1.3485052965539551E+18</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1512">
+        <v>1.3485019254366899E+18</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1513">
+        <v>1.3485014547938299E+18</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1514">
+        <v>1.3485011202393741E+18</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1515">
+        <v>1.3484802126657249E+18</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1516">
+        <v>1.3484799551396539E+18</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1517">
+        <v>1.3484758821306611E+18</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1518">
+        <v>1.348468715797451E+18</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1519">
+        <v>1.3484631123708639E+18</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1520">
+        <v>1.3484601542247099E+18</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1521">
+        <v>1.348459058643157E+18</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1522">
+        <v>1.348455584824062E+18</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1523">
+        <v>1.3484547200214879E+18</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1524">
+        <v>1.3484477741198459E+18</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1525">
+        <v>1.3484428949447229E+18</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1526">
+        <v>1.348432061174977E+18</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1527">
+        <v>1.3484290206695181E+18</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>2868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="3363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4975" uniqueCount="3665">
   <si>
     <t>id</t>
   </si>
@@ -11083,6 +11083,1052 @@
   </si>
   <si>
     <t>urbae_vi</t>
+  </si>
+  <si>
+    <t>@ernestprakasa Kalau punya Galaxy S21, gue mau bikin video  tentang perjuangan siswa Mts di lereng Gunung Slamet melakukan pembelajaran jarak jauh. Secara daerah merek susah sinyal internet. Dengan adanya donatur pembelajaran tetap berjalan dengan menggunakan HT. @ernestprakasa</t>
+  </si>
+  <si>
+    <t>rizaotong</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 12:30:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tuhh saat PJJ pembelajaran jarak jauh iklan Ruang Guru dan sejenis di back up televisi. Terus dimana peran negara mencerdaskan..</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 10:54:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>daring, 6 huruf.
+pembelajaran melalui jarak jauh (online), apa saja yang kmu dapatkan dari daring? 99% stress, 1% ilmu walaupun ilmunya cmn mampir bentar ke otak lalu hilang lagi. daring sucks.</t>
+  </si>
+  <si>
+    <t>jenongambis</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 10:16:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>16.13 #BeritaSONORA - Nadiem mengatakan, meskipun pembelajaran jarak jauh belum optimal namun proses belajar selama pandemi harus tetap berjalan. https://t.co/YWy2AsmVYm @kompascom</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:13:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menteri Nadiem dorong daerah di wilayah tertinggal, terdepan dan terluar (3T) untuk melakukan pembelajaran tatap muka karena pembelajaran jarak jauh di sana sulit dilakukan.
+https://t.co/vShBAPkfRh</t>
+  </si>
+  <si>
+    <t>antaranews</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:10:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berhenti mengglorifikasi pembelajaran jarak jauh sebagai pengganti belajar on-site.
+Kenyataannya masih butuh lab, butuh interaksi, butuh diskusi, butuh eksplorasi. STEM dan Social science sama-sama butuh. https://t.co/r04HT3Ytco</t>
+  </si>
+  <si>
+    <t>ilhamnug12</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:02:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sekolah Menengah Pertama (SMP) daerah Kabupaten Jawa Barat tetap berlakukan sistem Pembelajaran jarak jauh (PJJ) di masa Pemberlakuan Pembatasan Kegiatan Masyarakat (PPKM)
+#pasundanekspres #beritapasundan #pasundanupdate #beritasubang #beritakarawang… https://t.co/nZLEm74GMZ</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:00:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nadiem mengatakan, meskipun pembelajaran jarak jauh belum optimal namun proses belajar selama pandemi harus tetap berjalan. https://t.co/d5vxLOwsKh</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 08:50:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Benahi dulu sistem pembelajaran jarak jauh duh https://t.co/SVPrVWbQcu</t>
+  </si>
+  <si>
+    <t>titiknoool</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 06:33:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>@txtdaricewe Pertanyaan nya, pembelajaran jarak jauh butuh buka aplikasi kya youtube Google dll, sementara kuota dr pemerintah ga bisa buka aplikasi yg kya gitu.
+Emangnya pas bikin kebijakan, ga mikir sampe situ ?</t>
+  </si>
+  <si>
+    <t>sirop_tjapbango</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 04:43:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Untuk PJJ, kita butuh laptop yang mumpuni sekaligus juga bisa buat WFH kan, nih rekomen dari @ArdaSitepu #BWYoAyoProject
+https://t.co/FYfD7eZIvY</t>
+  </si>
+  <si>
+    <t>shyntako</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 04:14:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>PJJ butuh laptop? Mulai dari gk sampai 5jt hingga 10jtaan ada nih, baca dulu reviewnya di @ArdaSitepu  https://t.co/JRUSB9aaGn
+#BWYoAyoProject</t>
+  </si>
+  <si>
+    <t>cs_putrie</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:58:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Semalam adalah kelas Sarjana Pentadbiran Perniagaan (MBA) di Arsyad Ayub Graduate Business School (AAGBS), Universiti Teknologi MARA (UiTM) yg terakhir bersama Dr. Suriana Ramli &amp;amp; rakan-rakan sekelas saya. Pembelajaran Jarak Jauh (ODL) kelas Strategic Management ini berlangsung</t>
+  </si>
+  <si>
+    <t>Eyda40382969</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:48:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>https://t.co/v2G0hio5Uj
+Sekarang memang sebuah kebutuhan punya laptop untuk pembelajaran ya @ArdaSitepu 
+#BwYoAyoProject</t>
+  </si>
+  <si>
+    <t>ChairinaBawazir</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:46:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh (PJJ)-Rizky Maulana Hidayat https://t.co/XNdQhvRb29 lewat @YouTube 
+kemungkinan 2021</t>
+  </si>
+  <si>
+    <t>ridha_bani</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:46:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Semalam adalah kelas Sarjana Pentadbiran Perniagaan (MBA) di Arsyad Ayub Graduate Business School (AAGBS), Universiti Teknologi MARA (UiTM) yg terakhir bersama Dr. Suriana Ramli &amp;amp; rakan-rakan sekelas saya. Pembelajaran Jarak Jauh (ODL) kelas Strategic Management ini berlangsung https://t.co/Swb6ZlGb9H</t>
+  </si>
+  <si>
+    <t>irmohizam</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:45:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>@vincentiustef Klo pembelajaran jarak jauh gini masih ada pelajaran olahraga ga tuh</t>
+  </si>
+  <si>
+    <t>Kirie_kun</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:38:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>suatu pagi di pembelajaran jarak jauh fisika https://t.co/4Dkmsj72wx</t>
+  </si>
+  <si>
+    <t>luxamrown</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:31:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>#RadioKARIMATA 10.21
+Pembelajaran Tatap Muka (PTM) di Kabupaten Sumenep, Madura, Jawa Timur, akan kembali digelar setelah pihak Disdik Sumenep mengadakan Pembelajaran Jarak Jauh (PJJ).(Bam)
+https://t.co/JGZW80sRNw</t>
+  </si>
+  <si>
+    <t>karimatafm1033</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:21:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Google classroom hari ini kok trouble ya ?? Pembelajaran jarak jauh jadi terganggu @Nadiem_Makarim @nadiemmakarim @tvOneNews</t>
+  </si>
+  <si>
+    <t>Bardan_Makruf</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 02:36:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Anak-anak masih PJJ? Nah, ini solusi pembelajaran jarak jauh dari Teh @ArdaSitepu 
+https://t.co/bNvrCeFM5o
+Semangat ya bu-ibu 😊
+#BWYoAyoProject</t>
+  </si>
+  <si>
+    <t>EviSriRezeki</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 02:20:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Skrining rutin tiap bulan juga butuh biaya, WFH dan pembelajaran jarak jauh juga butuh laptop dan internet yang memadai, belanja online pun butuh biaya lebih (walau kdg mgkn kalau ini bisa malah lebih murah?).</t>
+  </si>
+  <si>
+    <t>zahraibadina</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 23:23:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Rekomendasi @ArdaSitepu nih buat yang butuh laptop.  Eh aku juga butuh sih 
+#BWYoAyoProject
+https://t.co/5v7mVILCLB</t>
+  </si>
+  <si>
+    <t>retnoteera</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 22:39:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Jumat 22 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/DbQJTeKonT</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 22:00:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pengen tau kelebihan dan spesifikasi ASUS VivoBook 14 A416 yang diulas mbak @ArdaSitepu 
+Bisa jadi solusi Pembelajaran Jarak Jauh juga nih kalau punya laptop keceh kaya gini  https://t.co/W2uNNAFfEq
+#BWYoAyoProject</t>
+  </si>
+  <si>
+    <t>DessyAchieriny</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 14:27:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>kak @ArdaSitepu lagi ngasi tahu laptop yang cocok buat PJJ nih. Siapa tahu cocok juga kaaan
+https://t.co/5tkE23B0b3
+#BWYoAyoProject ⁣⁣⁣⁣</t>
+  </si>
+  <si>
+    <t>dodon_jerry</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 14:00:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>kemudahan fitur2 dan penjelasan di ruangguru bikin nyaman dipake dan nemenin belajar selama pembelajaran jarak jauh ini #FestivalHadiahRuangguru Waktunya Belajar https://t.co/jydfVqyilj</t>
+  </si>
+  <si>
+    <t>fifirodenas108</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 12:33:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dengan pembelajaran online dimasa pandemi saat ini, Timur Tengah menggunakan teknologi biometrik untuk memverifikasi identitas untuk pengawasan jarak jauh.
+#identifikasi #studyfromhome #belajardirumah #covid19 #coronavirus #pandemi #verifikasi #biometrik #teknologi https://t.co/UAuzTXSIeb</t>
+  </si>
+  <si>
+    <t>asliriid</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 11:01:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>@grnngr2 Belum akan siap. Apalagi PPKM Jawa-Bali katanya akan diperpanjang.
+Menurutku kok lebih baik dievaluasi aja dulu pembelajaran jarak jauh yg skrg ada daripada mengejar tatap muka tapi akhirnya ada ledakan kasus.</t>
+  </si>
+  <si>
+    <t>calondolanan</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 10:31:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>(1/2) Kita semua sepakat bahwa pendidikan harus dilanjutkan dalam situasi apapun. Pada tahun 2021, kami berharap dapat terus memfasilitasi guru dalam pemanfaatan teknologi untuk pembelajaran jarak jauh (PJJ). #WhatsNextIn2021 #Welcoming2021 #TanotoFoundation https://t.co/gd9IvrXFWv</t>
+  </si>
+  <si>
+    <t>tanotoeducation</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 08:22:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Masuk tahap 30, Pemerintah Kota Surakarta telah Bagikan 1.748 unit handphone untuk penunjang belajar daring.
+Pembagian handphone sebagai penunjang utama pembelajaran jarak jauh di Kota Surakarta telah memasuki tahap ke 30. 
+#PDIPerjuangan
+#PDIPerjuangan48 https://t.co/L72zBd0w5c</t>
+  </si>
+  <si>
+    <t>PDI_Perjuangan</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 06:58:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Demi anak yg dah keluhkan laptopnya maka huntinglah ortunya ke Mangga 2. Dampak PJJ(Pembelajaran Jarak Jauh), Laptop bs kompak keduanya problem serempak 😞😞.</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 06:12:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pusat Pengembangan Pendidikan dan Pelatihan Teknis dan Kepemimpinan melaksanakan Rapat Koordinasi Pelatihan Penyusunan Laporan Akuntabilitas Kinerja Instansi Pemerintah (LAKIP) Metode Pembelajaran Jarak Jauh Tahun Anggaran 2021 https://t.co/TaYyFazfJi</t>
+  </si>
+  <si>
+    <t>bpsdm_kumham</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 05:27:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Maka, dalam edisi ini kami mengambil tema : “Dilema PJJ (Pembelajaran Jarak Jauh)”
+Dengan Laporan Utama : 
+•Menakar Poduktivitas Kuliah Online
+•Polemik UKT
+•Suka Duka Mahasiswa Akhir di Pandemi
+Kami menghadirkan Majalah LPM Marhaen Edisi II  dalam bentuk PDF.</t>
+  </si>
+  <si>
+    <t>marhaenpress</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 05:11:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Telah terbit Majalah LPM Marhaen Edisi II.
+Melihat perubahan tata pola pembelajaran akibat Pandemi Covid -19 sehingga pelajar/Mahasiswa mengalami dinamika dalam cara maupun proses pembelajaran jarak jauh. https://t.co/gZSPCjBQSZ</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 05:11:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh di Masa Pandemi, Inilah Masalah dan Solusinya https://t.co/xpM2VYR3Xo https://t.co/1GzPeTbZwg</t>
+  </si>
+  <si>
+    <t>bengkelhikmah</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 04:37:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh di Masa Pandemi, Inilah Masalah dan Solusinya: Kualitas pendidikan harus tetap baik.Pembelajaran jarak jauh atau PJJ merupakan salah satu cara pemerintah dalam mengatasi terhentinya proses pembelajaran tatap muka yang berlangsung… https://t.co/y2f3NZrQnm https://t.co/yqFfd1Pm0O</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 04:27:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/hQqGCq0o5A
+CP (Hanifa / 081321392253) https://t.co/CjcZ3HGaL4</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 02:15:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>https://t.co/o9RTaLZuO9 menyediakan fitur Kelas Virtual untuk memudahkan kegiatan pembelajaran jarak jauh antara guru dan siswa ( kelas online ).
+https://t.co/XU7RRhdC1z</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 02:05:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>FEdu merupakan aplikasi sekolah online yang mempermudah sistem manajemen sekolah. Memiliki fitur-fitur yang mendukung pembelajaran jarak jauh (PJJ)
+https://t.co/XU7RRhdC1z https://t.co/WCtMQG5Q5y</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 02:02:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Kat_steph16 Sistem pembelajaran di UT terbuka &amp;amp; jarak jauh, bila sdh menerima bahan ajar mahasiswa bisa mulai melakukan pembelajaran secara mandiri. UT menyediakan layanan belajar berupa tutorial online * tatap muka yg jadwalnya bisa dilihat pada https://t.co/kIDw2n9mF6
+Terima kasih
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 01:42:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@txtdrjkt Temen-temen boleh ya bantu isi skala/kuesioner kelompok aku. Kualifikasinya:
+1. Guru SMA
+2. Mengajar di Jakarta
+3. Melakukan Pembelajaran Jarak Jauh(PJJ)
+Berikut linknya :
+https://t.co/3YPNsfkBT3
+Terima kasih</t>
+  </si>
+  <si>
+    <t>MasNtoo</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 01:13:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>@txtdarionlshop Temen-temen boleh ya bantu isi skala/kuesioner kelompok aku. Kualifikasinya:
+1. Guru SMA
+2. Mengajar di Jakarta
+3. Melakukan Pembelajaran Jarak Jauh(PJJ)
+Berikut linknya :
+https://t.co/3YPNsfkBT3
+Terima kasih</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 01:13:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pelatihan Instruktur Daerah untuk kegiatan Sakernas Februari 2021 ini menggunakan metode pembelajaran jarak jauh dengan aplikasi Zoom Meeting https://t.co/6HWNZFNbuE</t>
+  </si>
+  <si>
+    <t>bpsprovlampung</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 01:10:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>@nandosauruz @txtdarigajelas pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>dinosaurushauss</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 00:36:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Sukses Dengan Laptop ASUS VivoBook 14 (A416) - Laily Fitriani https://t.co/hMVAGAV62j</t>
+  </si>
+  <si>
+    <t>lailyfitriani77</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 16:46:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>@rabiahald Pembelajaran jarak jauh (alesannya)</t>
+  </si>
+  <si>
+    <t>arditoormd</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 15:47:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>HIKMAH PEMBELAJARAN JARAK JAUH
+.
+.
+TIDAK ADA TAWURAN :)</t>
+  </si>
+  <si>
+    <t>metilheptana</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 15:06:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>@shuafic BUKAAAN wkwkwk pjj pembelajaran jarak jauh!! lu apa gak nugas kak</t>
+  </si>
+  <si>
+    <t>iKissJu</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 13:19:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Masuk semester ke-2 Pembelajaran Jarak Jauh atau Belajar dari Rumah masih belum menemukan cara yg efektif? 
+Silahkan para orang tua bergabung di Webinar Parenting Sabtu, 23 Januari 2021
+@infobandung 
+@infobdg 
+@PRFMnews https://t.co/2oyngeurdh</t>
+  </si>
+  <si>
+    <t>nurkolbiah_biah</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 12:25:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menteri Pendidikan dan Kebudayaan (Mendikbud) Nadim Makariem mengatakan, subsidi kuota internet untuk Pembelajaran Jarak Jauh (PJJ) akan diperpanjang hingga Mei 2021.
+"Seperti yang kita tahu bantuan subsidi kuota, kabar gembira akan dilanjutkan untuk bulan Maret, April, https://t.co/4wlEwjaiF0</t>
+  </si>
+  <si>
+    <t>NewsPresisi</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 12:17:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Amz bgt, pandemi jadi munculin banyak bgt skripsi yg topiknya tentang covid, psbb, dan pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>dearpuan</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 11:21:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>4. Kategori Video Pendek Inovasi Pembelajaran Di Masa Pandemi (Khusus Guru)
+Inovasi Guru dalam melakukan pengajaran jarak jauh.
+Untuk informasi dan pendaftaran, segera kunjungi https://t.co/wHKdFtyCGr
+atau +62 821-1216-5373 https://t.co/3cHkDZyOtY</t>
+  </si>
+  <si>
+    <t>victoryplus</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 08:51:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>@nadinefeiy Pjj? Pembelajaran jarak jauh?</t>
+  </si>
+  <si>
+    <t>yiyitzhak</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 08:08:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dampak Pembelajaran Jarak Jauh bagi Anak https://t.co/RuCJzPUzNd</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 08:00:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>joktug! Need joki tugas b.indo "membuat teks diskusi tema vaksinasi/ sistem pembelajaran jarak jauh" 
+Notes : diketik, dl 22 januari
+tolong sebut fee juga yaa</t>
+  </si>
+  <si>
+    <t>jokitugasfess</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 06:46:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cara cerdas mencegah "kecanduan" game pada anak di era pembelajaran jarak jauh (pandemi covid 19) 👇
+Kuliah Online (KulON) #Neuroscience App , 20 Januari 2021
+Info , WA: 0821-3645-7526 | 0859 - 5904 - 3357 https://t.co/PaNJNsoTKe</t>
+  </si>
+  <si>
+    <t>amirzuhdi</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 06:14:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mohon bantu isi kuesioner penelitian ini, untuk memenuhi tugas Metodologi Penelitian Pendidikan🙏🙏 
+Syarat subjek penelitian :
+Baik siswa ataupun mahasiswa yang sedang melaksanakan pembelajaran jarak jauh.
+Terimakasih🙏
+https://t.co/bCkcn1Ddxw</t>
+  </si>
+  <si>
+    <t>soobbinnie_</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 06:11:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gerakan 1.000 Gawai Medco Peduli Pendidikan menyasar para pelajar di Sumenep, Madura, Jawa Timur. Bantuan ini sangat berarti bagi mereka yang selama ini tidak bisa mengikuti Pembelajaran Jarak Jauh karena tidak memiliki gawai.
+@HumasSKKMigas https://t.co/L6MDeeAZLm</t>
+  </si>
+  <si>
+    <t>prismono</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 04:58:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nadiem mengatakan, banyak pemda yang memutuskan tetap melanjutkan pembelajaran jarak jauh (PJJ) mempertimbangkan kasus virus corona yang terus meningkat setiap harinya. #kumparanNEWS https://t.co/yIFYQoYw16</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 04:51:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@babyyatthaphan pembelajaran jarak jauh kack</t>
+  </si>
+  <si>
+    <t>bidabelyuess</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 03:55:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>@FirstMediaCares Selamat Siang, sy pelanggan dgn ID: 17531902 beberapa hari ini koneksi internet kami tdk bagus, san hari ini koneksi internernya mati, mohon tindak lanjutnya segera. 
+Karena sangat dibutuhkan utk Pembelajaran Jarak Jauh (sekolah).
+Terima kasih atas perhatiannya</t>
+  </si>
+  <si>
+    <t>siholsitanggang</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 03:54:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>@dvstruby pembelajaran jarak jauh kack</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 03:53:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/8bShsn3YYa
+CP (Hanifa / 081321392253) https://t.co/h4S2VhotOI</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 03:02:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>@orangbiasakok1 Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>asyourwishbb</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 02:36:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/hQqGCq0o5A
+CP (Hanifa / 081321392253) https://t.co/NuCN65dbLq</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 02:15:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>@oxairz pembelajaran jarak jauh 😭😭😭😭</t>
+  </si>
+  <si>
+    <t>eternallxsian</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 02:07:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>@hallucinashon_ Kak wkwkwkw 😭😭 ngakakakak. Pembelajaran Jarak Jauh lah Kaa😭</t>
+  </si>
+  <si>
+    <t>Chaengjschyun</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 01:12:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Rabu 20 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/ZBV9VUVRj5</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 22:06:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jakarta – Dalam rangka mensukseskan Pembelajaran Jarak Jauh (PJJ) atau belajar dari rumah dan membantu penyediaan gawai bagi peserta didik dan tenaga pendidik yang membutuhkan,,,
+https://t.co/n8IhQGEI1B</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 21:21:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat Menjalani Sesi Pembelajaran Jarak Jauh Atas Talian (Online Distance Learning) bermula 20hb Januari 2021.
+.
+Pastikan semua anak SERI bersedia.
+.
+Dah mandi, berpakaian Kemas dan fokus, ya.
+.
+Ada sesiapa merancang untuk berpakaian seragam sekolah esok? https://t.co/SIOuRqeaL1</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 17:27:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>time flies so fast, bentar lagi 1st anniversary pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>bukantamaa</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 17:07:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Teacher during PJJ a.k.a Pembelajaran Jarak Jauh: jam berapapun tugas masuk kudu diterima~ https://t.co/GIpk4vhefn</t>
+  </si>
+  <si>
+    <t>panggilqugrace</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 16:44:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dani Nurahman: Pembelajaran Jarak Jauh Diperpanjang Sampai Juni 2021 https://t.co/GGPBJllxzv https://t.co/MbuW8sqVcX</t>
+  </si>
+  <si>
+    <t>BandungPena</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 16:38:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>@junkyupunyaaku PEMBELAJARAN JARAK JAUH NDAH TERNYATA WKWKWKWKWKWK aku td mikirnya pacaran jarak jauh 🙃</t>
+  </si>
+  <si>
+    <t>sukabaksopedes</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 15:24:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>selama pembelajaran jarak jauh yang dimaksud. Didampingi Widyaiswara Ahmad Polapa dan Sukriyanto Rauf, Amin N. Nusi sangat antusias menyambut baik acara Dialog Interaktif ini.
+selengkapnya: https://t.co/QRSsI7bdzX
+#majumenjaminmutupendidikan
+#merdekabelajar
+#bersamahadapikorona</t>
+  </si>
+  <si>
+    <t>lpmpgtlo</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 13:17:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Humas-Info. LPMP Provinsi Gorontalo pada hari ini, Selasa (19/1) melaksanakan Dialog Interaktif  Refleksi Pembelajaran jarak Jauh (PJJ) di Masa Pandemi. Diharapkan melalui kesempatan ini para guru, masyarakat dan stakeholder pendidikan bisa memberikan masukan ataupun pengalaman https://t.co/TTcKr8M5Ek</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 13:15:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menag Ungkap Kendala Pembelajaran Jarak Jauh Madrasah https://t.co/GaZ2TWiCx0</t>
+  </si>
+  <si>
+    <t>Kemenag_Jambi</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 07:05:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>@LinduFajar_ Pembelajaran jarak jauh, alias cekulah onlen haha</t>
+  </si>
+  <si>
+    <t>candrannindya</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:37:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selasa, 19 Januari 2021, Depok - Kepala BPSDM Hukum dan HAM Dr. Asep Kurnia Kembali membuka secara resmi kegiatan Pelatihan Teknis Pengawasan Keimigrasian dengan metode Pembelajaran Jarak Jauh (PJJ) Tahun Anggaran 2021 secara Virtual Badiklat BPSDM Hukum dan HAM Jawa Tengah. https://t.co/7T3UP9a1IF</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 04:10:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Depok, 18 Januari 2021 – Bertempat di Ruang Puspa, Gedung Baru Balai Pendidikan dan Pelatihan BPSDM Hukum dan HAM Jawa Tengah Menyelenggarakan Kegiatan Pembukaan Pelatihan Teknis Pengamanan Tingkat Dasar dengan metode Pembelajaran Jarak Jauh Tahun Anggaran 2021 secara Virtual https://t.co/Zu2heaeaJq</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 04:04:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/8bShsn3YYa
+CP (Hanifa / 081321392253) https://t.co/mluTXPDB3N</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 03:02:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 02:56:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/hQqGCq0o5A
+CP (Hanifa / 081321392253) https://t.co/tcH3st89Hk</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 02:15:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menag Ungkap Kendala Pembelajaran Jarak Jauh Madrasah https://t.co/6NXsoJgWqz https://t.co/yatrgnWwBk</t>
+  </si>
+  <si>
+    <t>PendisKemenag</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 02:09:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mungkin kalo di industri musik, gue termasuk dalam kategori Guru Indie.
+Selama pembelajaran jarak jauh ini kayanya gue punya metode sendiri yang agak keluar dari pakem seorang Guru, dan selama ngelanggar kode etik ngajar. sebenernya sih ga ada masalah.</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 02:07:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>@jjtenry pembelajaran jarak jauh😭💔</t>
+  </si>
+  <si>
+    <t>sunxfull76</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 01:44:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>@namjulii pembelajaran jarak jauh:(</t>
+  </si>
+  <si>
+    <t>tomatooobin</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 01:38:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>"Menag Ungkap Kendala Pembelajaran Jarak Jauh Madrasah". Selengkapnya di https://t.co/G62pJ3AMrM https://t.co/OhOzyAkFc8</t>
+  </si>
+  <si>
+    <t>beMaster_News</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 01:21:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh, Menag: 13.000 Lebih Madrasah di Area Blank Spot https://t.co/vOhqNhWUIU</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 01:19:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@thastxxry pembelajaran jarak jauh sync</t>
+  </si>
+  <si>
+    <t>chyunjchangmin</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 00:03:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Diskusi Publik Majelis Daerah Kahmi Pangkep "Pembelajaran Jarak Jauh Transisi Masa Pandemi, Antara Tantangan dan Harapan" Selasa, 19 Januari 2021 https://t.co/Sx1Vv4ye0P</t>
+  </si>
+  <si>
+    <t>DaengLalo</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 23:33:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>@goldenflyone16 Pembelajaran jarak jauh -,-</t>
+  </si>
+  <si>
+    <t>joochaneth</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 23:27:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Selasa 19 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/hc9NAdnlhh</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 22:37:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>#UpdateBlogBloggerBengkulu
+ASUS VivoBook 14 A416 Dukung Pembelajaran Jarak Jauh Jadi Lebih Efisien -- @apura_meity https://t.co/gQFtV7BJTS</t>
+  </si>
+  <si>
+    <t>nynamuztyka</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 20:59:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menag Ungkap Kendala Pembelajaran Jarak Jauh di Madrasah - https://t.co/ZNXv5SkylI - Nasional https://t.co/ZNXv5SkylI https://t.co/g0MkG9rDmy https://t.co/3A8Gc8z5pf</t>
+  </si>
+  <si>
+    <t>SeknasJppi</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 17:28:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>@urtaeggukie_ pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>kthmaluv</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 17:13:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh (PJJ) masih menjadi polemik hingga kini. Hal ini turut dirasakan sejumlah madrasah yang berada di bawah naungan Kementerian Agama. #gusyaqut https://t.co/NCFMs9SCCa</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 15:20:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pelaksanaan pembelajaran jarak jauh di madrasah masih jauh tertinggal dibanding lembaga pendidikan lain di bawah naungan Kemendikbud. https://t.co/4pXaoE4nab</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 12:01:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Barah nia aha nabah hpku 
+OPPO A31. 
+Malaku tuloh dipalulik. 
+Karena hp itu pakaiku ngajar online/ PJJ (Pembelajaran Jarak Jauh) 
+Demikian terima kasih atas pamasekdi.</t>
+  </si>
+  <si>
+    <t>ZulkarnaenTajol</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 10:30:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ikuti Dialog Interaktif dengan tema "Refleksi Pembelajaran Jarak jauh" bersama Kepala LPMP Provinsi Gorontalo dan Widyaiswara pada Selasa 19 Januari 2021, pukul 10.00 - 11.00 Wita, disiarkan langsung melalui kanal Youtube LPMP Provinsi Gorontalo.</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 08:57:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pandemi telah "memaksa" para tenaga pendidik untuk meninggalkan zona nyaman dan harus menemukan metode pembelajaran jarak jauh yang tetap menyenangkan bagi siswa untuk terus belajar dan berkarya.</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 08:56:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>KPAD Kota Bekasi mengadakan webinar yang mengangkat tema "Siap Menghadapi Tantangan Pandemi Melalui Kegiatan Pembelajaran Jarak Jauh &amp;amp; Tatap Muka."
+Hari/Tanggal : Sabtu/30 Januari 2021
+Pukul : 09.00 WIB
+Dr. H. Yaswardi, https://t.co/nVeROkOkIA., Direktur Guru &amp;amp; Tenaga https://t.co/ELb2pRcS9d</t>
+  </si>
+  <si>
+    <t>pemkotbekasi</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 07:20:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>KPAD Kota Bekasi mengadakan webinar yang mengangkat tema "Siap Menghadapi Tantangan Pandemi Melalui Kegiatan Pembelajaran Jarak Jauh &amp;amp; Tatap Muka."
+Hari/Tanggal : Sabtu/30 Januari 2021
+Pukul : 09.00 WIB
+Dr. H. Yaswardi, https://t.co/wK9YHTJTdB., Direktur Guru &amp;amp; Tenaga https://t.co/yYFJS1oI7v</t>
+  </si>
+  <si>
+    <t>KominfoBekasi</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 07:18:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>[CM] Halo kakak kakak mahasiswa~
+Aku mau nanya, aku calon mahasiswa, boleh saranin ngga univ yang bisa ditempuh dengan sistem pembelajaran jarak jauh? Aku dom diluar pulau Jawa, tapi pengen banget kuliah di univ top. Kalau kuliah langsung, aku ngga bisa ninggalin kerjaan. (cont)</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 06:16:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Daripada jelimet mikirin gimana bangkitin sektor yang jelas-jelas susah bangkit setelah pandemik, sektor inovasi kesehatan (dan pendidikan sebenarnya, dengan pembelajaran jarak jauh) sangat potensial buat digarap, tapi tentu harus dikawal secara saintifik mutunya.</t>
+  </si>
+  <si>
+    <t>gwangge</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 03:32:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/8bShsn3YYa
+CP (Hanifa / 081321392253) https://t.co/DKVpCXtitA</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 03:02:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 02:56:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>sch! keteledoran siswa semasa pembelajaran jarak jauh (PJJ)
+—A Thread 
+me : Lagi meet ditinggal tidur sampe di spill guru ke grup ortu. Absen sampe 2 kali karena lupa</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 02:31:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tantangan Guru Gagap Teknologi pada Pembelajaran Jarak Jauh https://t.co/eow2qhXApB</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 02:17:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>[WEBINAR : PEMANFAATAN TEKNOLOGI DIGITAL DALAM PENDIDIKAN DI 
+ERA NEW NORMAL]
+Ikuti pelatihan pengoperasian berbagai platform digital yang tepat dan 
+mudah digunakan untuk mendukung kegiatan Pembelajaran Jarak Jauh.
+FREE
+Link : https://t.co/hQqGCq0o5A
+CP (Hanifa / 081321392253) https://t.co/UNQbpu0ozB</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 02:15:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>CIREBON - Hampir satu tahun pelajar dan mahasiswa di Kota Cirebon mengikuti pembelajaran jarak jauh (PJJ). Dari survei yang dilakukan, 70,9 persen https://t.co/Db4aZg7iWX</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 01:55:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Senin 18 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/8BnpIDQXEY</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 23:02:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 14 A416 Dukung Pembelajaran Jarak Jauh Jadi Lebih Efisien -- https://t.co/rmVz9w5UE0
+#UpdateBlogBloggerBengkulu</t>
+  </si>
+  <si>
+    <t>chikarein</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 16:28:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>5. Beberapa Kritikan dan Masukan dari ketua komisi X @SyaifulHooda  cukup intens dlm mendorong @Kemdikbud_RI agar responsif mengambil inisiatif agar tidak terjadi Lost Generation. 
+https://t.co/7YzuQN6p1A</t>
+  </si>
+  <si>
+    <t>Riyadiofficial</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 15:09:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>TXT_YEONJUM</t>
   </si>
 </sst>
 </file>
@@ -11445,10 +12491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1527"/>
+  <dimension ref="A1:D1658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1507" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1521" sqref="I1521"/>
+    <sheetView tabSelected="1" topLeftCell="A1638" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J1654" sqref="J1654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32831,6 +33877,1840 @@
         <v>2868</v>
       </c>
     </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1528">
+        <v>1.352594548376052E+18</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1529">
+        <v>1.352570407828693E+18</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1530">
+        <v>1.352560861550764E+18</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1531">
+        <v>1.352544892891902E+18</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1532">
+        <v>1.35254409186354E+18</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1533">
+        <v>1.3525422206922829E+18</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1534">
+        <v>1.352541758937321E+18</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1535">
+        <v>1.3525391401395651E+18</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1536">
+        <v>1.3525046915281101E+18</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537">
+        <v>1.352477033985569E+18</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1538">
+        <v>1.352469660646601E+18</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1539">
+        <v>1.3524655777097201E+18</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540">
+        <v>1.3524632002229939E+18</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541">
+        <v>1.352462704707924E+18</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1542">
+        <v>1.3524625717317839E+18</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543">
+        <v>1.3524623572266071E+18</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1544">
+        <v>1.3524606867653839E+18</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545">
+        <v>1.3524588736096709E+18</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546">
+        <v>1.3524562772055081E+18</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1547">
+        <v>1.3524449424554639E+18</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548">
+        <v>1.3524410290314319E+18</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549">
+        <v>1.3523963729184561E+18</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550">
+        <v>1.3523854818838001E+18</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551">
+        <v>1.352375432721514E+18</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552">
+        <v>1.352261450723561E+18</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1553">
+        <v>1.3522546497015969E+18</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1554">
+        <v>1.3522328909819699E+18</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1555">
+        <v>1.352209755113218E+18</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1556">
+        <v>1.352202078622401E+18</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>3443</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1557">
+        <v>1.3521697127680609E+18</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1558">
+        <v>1.3521484510358159E+18</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1559">
+        <v>1.352136977689108E+18</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1560">
+        <v>1.3521257580518111E+18</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1561">
+        <v>1.352121718626689E+18</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1562">
+        <v>1.352121714981835E+18</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1563">
+        <v>1.3521130784485051E+18</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1564">
+        <v>1.3521104318888351E+18</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1565">
+        <v>1.3520772107321469E+18</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1566">
+        <v>1.352074780183126E+18</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1567">
+        <v>1.352073959634657E+18</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1568">
+        <v>1.352068916491678E+18</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1569">
+        <v>1.3520618056280189E+18</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1570">
+        <v>1.3520616769761851E+18</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1571">
+        <v>1.3520610639995899E+18</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1572">
+        <v>1.35205231208099E+18</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1573">
+        <v>1.3519342531733591E+18</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>3486</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1574">
+        <v>1.3519193652270689E+18</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1575">
+        <v>1.3519090743219039E+18</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1576">
+        <v>1.3518820507483379E+18</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1577">
+        <v>1.351868361521578E+18</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1578">
+        <v>1.351866378882466E+18</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1579">
+        <v>1.3518522635101839E+18</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1580">
+        <v>1.3518146927343081E+18</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1581">
+        <v>1.351803774797451E+18</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>3510</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1582">
+        <v>1.351801651586327E+18</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1583">
+        <v>1.351783249786229E+18</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1584">
+        <v>1.351775183414071E+18</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1585">
+        <v>1.351774206556426E+18</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1586">
+        <v>1.3517558981259141E+18</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>3524</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1587">
+        <v>1.351754210728022E+18</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1588">
+        <v>1.351740082680566E+18</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1589">
+        <v>1.3517398360932639E+18</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1590">
+        <v>1.3517395007167281E+18</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1591">
+        <v>1.351726647695831E+18</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1592">
+        <v>1.351720222902817E+18</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1593">
+        <v>1.3517148231727191E+18</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1594">
+        <v>1.351712992749003E+18</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1595">
+        <v>1.351699056892862E+18</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>3547</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1596">
+        <v>1.3516522911834319E+18</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1597">
+        <v>1.351640939601662E+18</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1598">
+        <v>1.351582102160962E+18</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1599">
+        <v>1.3515769699561019E+18</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1600">
+        <v>1.35157113859011E+18</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1601">
+        <v>1.351569622030377E+18</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1602">
+        <v>1.35155116351504E+18</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1603">
+        <v>1.3515192043279199E+18</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1604">
+        <v>1.351518712671572E+18</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1605">
+        <v>1.3514254225006669E+18</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1606">
+        <v>1.3514185783359821E+18</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1607">
+        <v>1.3513815200789629E+18</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1608">
+        <v>1.3513800287354271E+18</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>3580</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1609">
+        <v>1.351364261331788E+18</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1610">
+        <v>1.3513627451662541E+18</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1611">
+        <v>1.3513524356258939E+18</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1612">
+        <v>1.3513509398363011E+18</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1613">
+        <v>1.3513504833617759E+18</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1614">
+        <v>1.351344747584E+18</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1615">
+        <v>1.3513432259324191E+18</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1616">
+        <v>1.3513389723838341E+18</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1617">
+        <v>1.3513383510689999E+18</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1618">
+        <v>1.351319292873122E+18</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1619">
+        <v>1.3513118822803461E+18</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1620">
+        <v>1.351310165761397E+18</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>3610</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1621">
+        <v>1.3512975744942981E+18</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1622">
+        <v>1.351272974834274E+18</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1623">
+        <v>1.351219944164352E+18</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1624">
+        <v>1.3512162080671009E+18</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>3621</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1625">
+        <v>1.3511875978219359E+18</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1626">
+        <v>1.351137647721406E+18</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1627">
+        <v>1.3511148497833249E+18</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1628">
+        <v>1.3510913530826061E+18</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1629">
+        <v>1.3510911953767869E+18</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>3632</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1630">
+        <v>1.351066928190783E+18</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1631">
+        <v>1.3510664724796009E+18</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1632">
+        <v>1.3510508510586391E+18</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1633">
+        <v>1.351009417962123E+18</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>3643</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1634">
+        <v>1.3510018714781041E+18</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1635">
+        <v>1.351000357267116E+18</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1636">
+        <v>1.3509942303495949E+18</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1637">
+        <v>1.3509906114915159E+18</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1638">
+        <v>1.3509900458937669E+18</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1639">
+        <v>1.350985084887851E+18</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1640">
+        <v>1.3509414830676989E+18</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1641">
+        <v>1.350842491134591E+18</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>3659</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1642">
+        <v>1.350822603489833E+18</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>3662</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1643">
+        <v>1.3508156845365939E+18</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1644">
+        <v>1.3507581628490959E+18</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1645">
+        <v>1.350751535165108E+18</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1646">
+        <v>1.350751297960481E+18</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1647">
+        <v>1.3507512550317591E+18</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1648">
+        <v>1.3507512539286569E+18</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1649">
+        <v>1.350751250455777E+18</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1650">
+        <v>1.3507512323574049E+18</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1651">
+        <v>1.350751205178282E+18</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1652">
+        <v>1.350725882420183E+18</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1653">
+        <v>1.3507038122400479E+18</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1654">
+        <v>1.3506394841577759E+18</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1655">
+        <v>1.350637969577824E+18</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1656">
+        <v>1.3506276609767629E+18</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1657">
+        <v>1.350607966030815E+18</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1658">
+        <v>1.3506006649849411E+18</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>3066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- 4. pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4975" uniqueCount="3665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5449" uniqueCount="4031">
   <si>
     <t>id</t>
   </si>
@@ -12129,6 +12129,1185 @@
   </si>
   <si>
     <t>TXT_YEONJUM</t>
+  </si>
+  <si>
+    <t>Lalu bagaimana solusinya? Diskusi yuk di Webinar Digital Society: “Tantangan &amp;amp; Solusi Menghadapi Pembelajaran Jarak Jauh”.
+Jumat, 29/01/21
+Pkl. 10.00 WIB Live Stream di
+Gratis &amp;amp; dapatkan e-sertifikat! Daftar segera di https://t.co/Xqdkh4jQ16 https://t.co/yDXBnbl5ZS</t>
+  </si>
+  <si>
+    <t>SiBerkreasi</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 14:23:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Teknik reward dan punishment dapat menjadi salah satu solusi mengatasi anak malas atau tidak termotivasi selama PJJ. https://t.co/3OOUYVWew6</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 14:03:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh tidak masalah. Asal hati kita tetap selalu dekat. #ea... Semangat semua... SMA Negeri 5 Semarang: "Be Creative and Proud to be Five" https://t.co/UKro2CMITi</t>
+  </si>
+  <si>
+    <t>sman5smg</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 13:41:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Serahkan Bantuan Gawai, Medco Group Peduli Proses Pembelajaran Jarak Jauh Di Sampang | LingkarJatim - https://t.co/vbslgcCqVu https://t.co/VB9KOfAZV3</t>
+  </si>
+  <si>
+    <t>lingkarjatimcom</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 13:09:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>tiap hari adanya tugas tuh mksudnya ap y, ini namanya bukan pembelajaran jarak jauh tapi penugasan jarak jauh</t>
+  </si>
+  <si>
+    <t>aditbersambat</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 11:46:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Apakah pembelajaran jarak jauh hanya efektif untuk sekolah yg memiliki fasilitas menengah ke atas? Dimana guru2nya pun tidak perlu lagi memikirkan bagaimana ia dapat makan pada hari itu.</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 11:13:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Kurang Efektif, Namun Harus Dilakukan karena Pandemi Covid-19
+https://t.co/mSO6b91XlM</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 10:41:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jauh sebelum ada internet
+Pembelajaran Jarak Jauh akibat pandemik menggunakan radio sebagai media... https://t.co/rh0qk0bus1</t>
+  </si>
+  <si>
+    <t>el__piji</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 09:38:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt; #JanganPecatKepsek &amp;gt;&amp;gt; https://t.co/6zWsxigUZN</t>
+  </si>
+  <si>
+    <t>tehSan_</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 09:37:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt; 
+#gf51 https://t.co/UZWO5cDFwq</t>
+  </si>
+  <si>
+    <t>Adekumalasari7</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 09:32:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt;  #DemokrasiIntoleransi &amp;gt;&amp;gt; https://t.co/9BFXSfdYV2</t>
+  </si>
+  <si>
+    <t>URayyan11</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 09:14:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>@NURKAYA11681371 Pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt; #JanganPecatKepsek &amp;gt;&amp;gt; https://t.co/aowTKyGnZP</t>
+  </si>
+  <si>
+    <t>HanynTya</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 09:14:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>@NURKAYA11681371 pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt; #4drw https://t.co/HXlhd84qtS</t>
+  </si>
+  <si>
+    <t>Niamimin</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 08:57:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas !! #StopIslamophobia !! #JanganPecatKepsek https://t.co/4mhg50hsWc</t>
+  </si>
+  <si>
+    <t>mariyawati8</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 08:57:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt;  #DemokrasiIntoleransi &amp;gt;&amp;gt; https://t.co/gHh5GRJf2J</t>
+  </si>
+  <si>
+    <t>AstrySety</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 08:55:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt;  #DemokrasiIntoleransi &amp;gt;&amp;gt; https://t.co/pSyH035Yw8</t>
+  </si>
+  <si>
+    <t>Uqee_S</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 08:48:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt;  #DemokrasiIntoleransi #s4t2</t>
+  </si>
+  <si>
+    <t>bakpiacilok</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 08:28:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas --&amp;gt;#StopIslamophobia &amp;lt;-- #op52</t>
+  </si>
+  <si>
+    <t>SulisKhoirunni2</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 08:21:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Alfia1453 pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas &amp;gt;&amp;gt; #StopIslamophobia &amp;lt;&amp;lt;  #DemokrasiIntoleransi &amp;gt;&amp;gt; https://t.co/zGBbIgGRT9</t>
+  </si>
+  <si>
+    <t>Maftucha11</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 08:02:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas
+#StopIslamophobia
+#JanganPecatKepsek</t>
+  </si>
+  <si>
+    <t>surya25799035</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:46:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kak febianasoraya seorang Mahasiswa yang masih melakukan pembelajaran jarak jauh, sudah gunakan aplikasi BebasBayar semenjak pandemi melanda. Hal tersebut supaya untuk mengurangi keluar rumah dan menghindari kerumuman. 
+Info dan pendaftaran :
+https://t.co/stLsXEYQ1i https://t.co/7fikLm3UQQ</t>
+  </si>
+  <si>
+    <t>jennaira_usman</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:43:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Itnay_Us pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas
+#StopIslamophobia
+#JanganPecatKepsek</t>
+  </si>
+  <si>
+    <t>MrConan_1453</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:20:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>@MyeNajma pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas !! #StopIslamophobia !!  #DemokrasiIntoleransi https://t.co/eiiHvxP7Xq</t>
+  </si>
+  <si>
+    <t>sri_rut</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:17:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>pembelajaran jarak jauh membuat banyak para siswa stress dengan banyaknya tugas !! #StopIslamophobia !! #JanganPecatKepsek https://t.co/s13i36oZut</t>
+  </si>
+  <si>
+    <t>hharumi_</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:17:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh before it was cool. https://t.co/2zg77VA6m0</t>
+  </si>
+  <si>
+    <t>areldy</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 05:13:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>menggratiskan listrik 450 watt bagi pelanggan keluarga miskin, memberikan bantuan modal usaha kepada UMKM, memberikan insentif pajak bagi dunia usaha, memberikan kuota telekomunikasi bagi siswa, mahasiswa, guru dan dosen untuk menunjang pembelajaran jarak jauh (PJJ), dan</t>
+  </si>
+  <si>
+    <t>nilli_20</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 05:11:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>@giorginojay pembelajaran jarak jauh!! hari ini agak cepet selesainya, senengg</t>
+  </si>
+  <si>
+    <t>JEJAK15E</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 04:31:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berbagai tuntutan sudah dilayangkan mulai dari pemotongan UKT minimal 50% tanpa syarat, transparansi dana UKT, dan evaluasi pembelajaran jarak jauh.</t>
+  </si>
+  <si>
+    <t>MbatakSiregar</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 04:11:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>@subtanyarl Mukaku mirip sama dengan apa yg kamu inginkan dalam hati mereka penuh kasih dan sayang kita pada saat ini anda masih melakukan pembelajaran jarak jauh yang sedang berlangsung di ruang kerjanya kemarin sudah saya kirim via SMS aja ke sini dan di dalam negeri yang tidak jelas</t>
+  </si>
+  <si>
+    <t>joshuhuy</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 03:14:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Saudi berhasil mengembangkan alat dan solusi interaktif untuk pembelajaran jarak jauh https://t.co/0m59BhD14p</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 02:27:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>sch! diluar gaenak dan kurang efektifnya pembelajaran daring, aku mau tanya kebalikannya. menurut kalian ada ga keefektifan pembelajaran jarak jauh/daring ini? 
+me : kalo posisi kita ga dirumah masih bisa ngikuti pelajaran</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 01:52:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>@tanyainrl Assalamualaikum wr.wb. semoga tetap sehat dan semangat mengikuti pembelajaran jarak jauh. Kali ini kalian masing2 buat 3 soal pilihan ganda dan 2 soal essay(?) Beserta jawabannya mengenai susunan bangun ruang sisi datar usahakan hari ini di kirim
+Terima kasih, selamat mengerjakan</t>
+  </si>
+  <si>
+    <t>chyntdriii_</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 00:44:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>@dibiomu Pembelajaran jarak jauh alias daring hiksrott 😥</t>
+  </si>
+  <si>
+    <t>skyskart</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 00:35:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Kamis 28 Januari 2021, bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/eS88EFXUIT</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 00:15:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>joktug! ada yg bisa bikin naskah drama bahasa jawa?? tentang c0vid-19 dan pembelajaran jarak jauh, kalo bisa yg udah bisa bahasa jawa dan dr0p prais, terimakasih 🙏</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:27:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>@SmeetsTurnip @DoniHutabarat4 @permadiaktivis1 @nadiemmakarim @kemdikbud Saya tanya ada ga tindakan yg 1 Thn ini dalam menghadapi pandemi di bid pendidikan yang bener2 'sedia payung sebelum hujan' , contoh: membuat modul pembelajaran jarak jauh sehingga siswa yg tidak punya hp/ komputer tetap bisa bersekolah atau pembekalan kemampuan guru dng internet</t>
+  </si>
+  <si>
+    <t>huwietan</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:23:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>2. Ohmni Robot
+Produk ini pada dasarnya adalah tablet dengan roda yang bisa bergerak ke sana kemari. “Wajah” dari robot ini adalah tablet yang bisa digunakan untuk video call.
+Sangat berguna untuk kunjungan kesehatan atau pembelajaran pendidikan jarak jauh. #XLShare https://t.co/yrpGPdT1Rr</t>
+  </si>
+  <si>
+    <t>myXLCare</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:10:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hari Rabu ini Kemendikbud Angkat Bicara Mengenai Jangka Waktu Pembelajaran Jarak Jauh, yuk simak!
+#Zonamahasiswa #Kemendikbud
+https://t.co/K5zh9vNxtJ</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 10:17:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Kat_steph16 [1/2] Selamat siang, sistem pembelajaran di UT terbuka, jarak jauh, dan mandiri. Bagi mahasiswa yang sudah menerima bahan ajar silakan melakukan pembelajaran secara mandiri. UT menyediakan layanan bantuan belajar seperti tutorial online dan tutorial tatap muka.
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 09:49:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Meski Pembelajaran Jarak Jauh, Menko PMK Minta Guru Mengajar dari Sekolah https://t.co/rRmRR3g5hi</t>
+  </si>
+  <si>
+    <t>jitunews</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 08:32:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>@naibaho_icha @radio [1/2] Selamat siang, sistem pembelajaran di UT terbubka, jarak jauh, dan mandiri. Bagi mahasiswa yang sudah menerima bahan ajar silakan melakukan pembelajaran secara mandiri. UT menyediakan layanan bantuan belajar seperti tutorial online dan tutorial tatap muka.
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 08:28:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Peran Radio Komunitas ditengah pandemi covid-19 merupakan inovasi baru, Pembelajaran Jarak Jauh melalui siaran radio merupakan hal baru, siaran radio melalui RASI FM hasil kerja sama antara Korwil pendidikan kec. cisewu dengan Radio Komunitas Rasi FM
+https://t.co/v3rog8qj65</t>
+  </si>
+  <si>
+    <t>Sinam_MS</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 06:06:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>@ppangwwo pembelajaran jarak jauh kakk 🥲</t>
+  </si>
+  <si>
+    <t>kwonnshoshi</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 06:03:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@bangbay__ @subtanyarl pembelajaran jarak jauh, sekolah online gtu</t>
+  </si>
+  <si>
+    <t>sovhneric</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 05:07:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dunia pendidikan menghadapi tantangan berat. Semua harus beradaptasi. Dari mulai pembelajaran tatap muka beralih ke pembelajaran jarak jauh.
+Bagaimana terobosan yang dilakukan dalam meningkatkan efektivitas belajar di masa sulit seperti ini? 
+#pjj #belajardaring #internet https://t.co/PuBAhuw5ik</t>
+  </si>
+  <si>
+    <t>Gatramediagroup</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 04:50:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hai kalo lewat tolong rep dong,
+Jadi aku mau survei kecil kecilan nih kalian selama pembelajaran jarak jauh (PJJ) ini struggle dan kesulitan kalian apa sih. Kalo kalian udah bisa mengatasi nya boleh juga kasih tau bagaimana cara mengatasi kesulitan itu😊
+Thank youu</t>
+  </si>
+  <si>
+    <t>marshaendeber</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 04:16:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>@markeeyblues pembelajaran jarak jauh😃</t>
+  </si>
+  <si>
+    <t>cityreoids</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 02:27:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>@tanyainrl 1. penggunaan media elektronik dalam masa pembelajaran jarak jauh
+2. dampak media sosial bagi anak-anak remaja</t>
+  </si>
+  <si>
+    <t>kuebolupandan</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 02:07:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Rabu 27 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/AHCTnwHdvV</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 22:41:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@txtdrmahasiswa Judulnya : Dampak Haha-Hihi Terhadap Pembelajaran Jarak Jauh (PJJ) di Masa Pandemi Covid-19 yang Cenderung Membosankan bagi Sebagian Besar Mahasiswa Indonesia</t>
+  </si>
+  <si>
+    <t>yudit_official</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 17:21:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>@meowT_T pembelajaran jarak jauh anjir</t>
+  </si>
+  <si>
+    <t>77AEGENUE</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 17:12:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>salah satu sikap guru yang paling gue benci selama pembelajaran jarak jauh. ngasi tugas semena-mena tanpa tau waktu dan ga sesuai sama jadwal pelajaran yang dia ajar.
+ya masa ngasi tugas ke murid jam setengah 12 malem?? gila aja kalo kayak gini kapan gue istirahatnya? https://t.co/oyrAlujZb9</t>
+  </si>
+  <si>
+    <t>idipibidiNdyy</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 15:29:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Terbentur dg segala kebijakan dan aturan yang ada. Pembelajaran jarak jauh, guru memberi tugas sesuai dg kurikulum yg ada, pun utk memenuhi target kkm. Di sisi lain anak yg br memulai belajar ke jenjang lebih tinggi utk mengenal tmpt , teman dan susana baru pun tdk di dpt kan.</t>
+  </si>
+  <si>
+    <t>pRaastowo</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 13:54:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selama masa pandemi ini banyak anak-anak yang harus menggunakan perangkat elektronik untuk melakukan pembelajaran jarak jauh. Lalu? https://t.co/U3jTmx7NUe</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 13:30:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dunia pendidikan menghadapi tantangan berat. Semua harus beradaptasi. Dari mulai pembelajaran tatap muka beralih ke pembelajaran jarak jauh.
+Suka tak suka pendidikan harus tetap berjalan. Berbagai cara dan inovasi dilakukan agar materi belajar tersampaikan dengan baik. https://t.co/VPHxybCFL3</t>
+  </si>
+  <si>
+    <t>GATRA_com</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 12:44:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mau sampai kapan pak @nadiemmakarim
+#sungguhterlalu
+https://t.co/kcSXXr2joW</t>
+  </si>
+  <si>
+    <t>fansberat_inul</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 12:34:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>@jastipmenfess Pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>m__arkonyour</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 11:22:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Lima labtop telah diberikan masing-masing kepada Salwa, Zerlina, Gilang, Achmad dan Kayla untuk alat dukung penerapan pembelajaran Jarak Jauh dengan Belajar dari Rumah.</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:51:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dengan tetap menerapkan pembelajaran Jarak Jauh, Belajar dari Rumah scr daring dan menunda pelaksanaan pembelajaran tatap muka secara langsung pd semester genap Thn Ajaran 2020/2021 merupakan langkah terbaik untuk memprioritaskan kesehatan dan keamanan peserta didik #DirumahAja https://t.co/so4S1z9bwo</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:51:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>VICON KESIAPAN PEMBELAJARAN JARAK JAUH PROGRAM PENDIDIKAN PEMBENTUKAN BINTARA POLRI T.A. 2021 https://t.co/Ijw3B4xFi9</t>
+  </si>
+  <si>
+    <t>Lemdiklat_Polri</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:15:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selain menyediakan tutor untuk murid, Zenius meluncurkan ZeniusuntukGuru yaitu sistem manajemen interaksi pembelajaran untuk mendukung proses pembelajaran jarak jauh. Nambah lagi nih informasi buat ngajar lebih efektif dan efisien.</t>
+  </si>
+  <si>
+    <t>dezuuru</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 07:56:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Secanggih-canggihnya video pembelajaran buatan korporat gakan ngalahin semangat bapak ibu guru di sekolah yg ngeusahain bikin pembelajaran jarak jauh buat anak-anak didiknya.
+Salut pisan. Salam hormat.</t>
+  </si>
+  <si>
+    <t>dulunyabaik</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 07:36:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Lebih dari satu semester siswa melakukan pembelajaran jarak jauh akibat pandemi, hal ini membuat sistem pembelajaran menjadi kurang dinamis, berkomunikasi menggunakan layar dan seringkali hanya satu arah
+#TransformasiDigitalPendidikan
+#LenovoEdVisionID
+#LenovoID</t>
+  </si>
+  <si>
+    <t>Lenovo_ID</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 07:30:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran praktek dgn komputer jarak jauh bisa menggunakan aplikasi Anydesk. 
+#kuliah #mahasiswa #mahasiswi #Indonesia #GoogleMeet #Aplikasi #NewNormal #adaptasikebiasaanbaru #Jakarta https://t.co/keHGQkZPd1</t>
+  </si>
+  <si>
+    <t>iMultimedia</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 07:15:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dunia pendidikan menghadapi tantangan berat. Semua harus beradaptasi. Dari mulai pembelajaran tatap muka beralih ke pembelajaran jarak jauh.
+Suka tak suka pendidikan harus tetap berjalan. Berbagai cara dan inovasi dilakukan agar materi belajar tersampaikan dengan baik.</t>
+  </si>
+  <si>
+    <t>gatrareview</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 06:31:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>MAJALAH_GATRA</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 06:30:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>@adimasnuel tempat keluh kesah juga komplain orangtua tentang anaknya dimasa pembelajaran jarak jauh 🙏🏼</t>
+  </si>
+  <si>
+    <t>kittensirait</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 06:21:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>https://t.co/BAtGUfxIJi absensi online sekolah yang dapat memaksimalkan sistem manajemen sekolah nih guys!
+Pastinya, mendukung pembelajaran jarak jauh (PJJ) loh ya... 
+Eh wait!!  pakai https://t.co/BAtGUfxIJi Absensi kehadiran lebih mudah pakai ponsel. Scan GPS yang Anti-Fake. https://t.co/5RnE3AHSsS</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 04:23:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>@freedomsagita [1/2] Selamat pagi, UT yg beralamat di Pondok Cabe merupakan kantor Pusat. UT memiliki 39 kantor unit pembelajaran jarak jauh (UPBJJ) yg tersebar di seluruh Indonesia &amp;amp; 1 kantor yg menangani mahasiswa luar negeri untuk membantu proses akademik dan administrasi mahasiswa.
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 03:34:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh (PJJ) masih berlangsung sejak pandemi corona menginfeksi Indonesia pada Maret 2020. Bagaimana saat 2021? https://t.co/K8MchTIjgk</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 01:35:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Selasa 26 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/bF6ms0UvwZ</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 23:04:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>JADI guru pun pernah. Secanggih apapun teknologi yang sudah dikembangkan di dunia pendidikan, terutama apa yang direkayasa dalam pembelajaran jarak jauh (PJJ) saat ini, #engagement di pihak siswa tak begitu jelas. Samar.</t>
+  </si>
+  <si>
+    <t>nugrohokhoironi</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 22:07:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Penggunaan Google Classroom dalam Pembelajaran Jarak Jauh (PJJ) di SMP Al Mubarak https://t.co/5kRQLvuIz7</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 20:49:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>SLAWI - Di masa pandemi Covid-19 saat ini, tak dipungkiri, jika dalam pelaksanaan pembelajaran jarak jauh terdapat sejumlah kendala. Salah satunya adanya beberapa siswa yang tidak memiliki gawai karena kondisi orangtuanya yang tidak mampu.
+https://t.co/mXqrgfTRse https://t.co/y6QMimdnjZ</t>
+  </si>
+  <si>
+    <t>smpantura</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 13:31:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Daring Duraring, atawa Pembelajaran Jarak Jauh + Ngasuh Bocil
+#lawancovid19 #ngasuhanak #psbb #semangatbelajar @ Ciamis, Jawa Barat, Indonesia https://t.co/ZR8RVYYwRe</t>
+  </si>
+  <si>
+    <t>erwintj</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 12:20:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Untuk menghindari kejenuhan saat pembelajaran jarak jauh, anak - anak masih bisa menyalurkan hobinya pada masa pandemi Covid-19. Salah satunya dengan berlatih menembak dengan tetap menaati protokol kesehatan. https://t.co/ns6OyEyJew https://t.co/3wN6RHUWJH</t>
+  </si>
+  <si>
+    <t>CNNIDdaily</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 12:15:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>@sonyeocitylri pembelajaran jarak jauh, daring itu loh thaa 😞😞😞</t>
+  </si>
+  <si>
+    <t>toloscope</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 12:06:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>@dienyma UT memiliki 39 kantor unit pembelajaran jarak jauh (UPBJJ) yang tersebar di seluruh Indonesia dan 1 kantor yang menangani mahasiswa luar negeri. Wilayah Depok masuk dalam wilayah koordinasi UPBJJ-UT Bogor. https://t.co/19ARxec6IL
+Terima kasih
+CC_Jen</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 12:06:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gredu mengutamakan kolabroasi untuk menjembatani proses pembelajaran jarak jauh melalui sarana digital. Itu kenapa, kita #bisapakaiGREDU dan lakukan #kolaborasijarakjauh karena Gredu bukan sekedar kelas online.</t>
+  </si>
+  <si>
+    <t>greduasia</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 11:53:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh (PJJ) atau online learning diterapkan akibat pandemi Covid-19 yg mewabah di Indonesia. Hampir 1 tahun PJJ dilaksanakan, tetapi ternyata memiliki dampak negatif yang besar. Salah satu dampaknya adalah stres pada anak-anak. https://t.co/9mPfPps1MZ</t>
+  </si>
+  <si>
+    <t>63Kkn</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 11:50:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>joktug! Yang kuliah nya di jakarta juga ya, plis langsung drop fee ya, pertanyaan nya tentang keluhan/stress pembelajaran jarak jauh https://t.co/9PovjYyOSX</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 11:23:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>@mhsgunadarma minta tolong isi kuesioner saya  yah, yg termasuk kriteria dibawah ini, Mahasiswa Aktif Universitas Gunadarma, Mahasiswa yang sedang menjalani
+pembelajaran jarak jauh, Berjenis kelamin Laki-laki ataupun
+Perempuan, dan Usia 18 tahun - 25 tahun https://t.co/Q4CCIHJHqr</t>
+  </si>
+  <si>
+    <t>albaniahnurr</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 11:22:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sahabat #DisdikbudKendal dan Anak-anak #KendalHandal, tetap semangat belajar ya.✊🏻😊
+.
+Pembelajaran jarak jauh sebagai upaya pencegahan penyebaran Covid-19 sudah kita lakukan bersama di semester 1, dan tidak terasa kita sudah memasuki semester genap. https://t.co/FOFw3LdKTY</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 10:57:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Cara SMKN 1 Bukit Sawit Atasi Pendidikan Saat Pandemi Covid 19, Efektifkah ! https://t.co/Y93UtjbdHa</t>
+  </si>
+  <si>
+    <t>tewenews_com</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 10:54:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Cara SMKN 1 Bukit Sawit Atasi Pendidikan Saat Pandemi Covid 19, Efektifkah ! https://t.co/Y93UtiTCiA</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 10:54:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>[APRESIASI DOSEN DAN KARYAWAN KIMIA]
+Halo, Kimia!
+Tidak terasa ya tahun 2021 sudah dimulai dan perkuliahan semester ganjil telah usai. Pastinya perkuliahan semester ganjil yang terasa berbeda karena pembelajaran jarak jauh ini membuat banyak sekali pengalaman, kesan, dan pesan. https://t.co/phAVDLJ8x1</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 10:40:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>ga didengerin, udah njelasin panjang lebar  ga ada respon. sedih juga sbg mhs kadang materi yang nyangkut di otak cuman beberapa. efek dari pembelajaran jarak jauh mulai kelihatan :")
+semangatt teman teman. hargai dosen kalian ya, mungkin dia udah prepare segala hal buat kalian.</t>
+  </si>
+  <si>
+    <t>oisackokoro</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 10:36:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bagi anda orang tua siswa atau guru yang saat ini mengikuti pembelajaran jarak jauh, sebaiknya turut memantau putra-putri anda untuk turut mengikuti pembelajaran kali ini. https://t.co/kzZKCvmxPk</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 10:29:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kepala Dinas Pendidikan dan Kebudayaan (Disdikbud) Sragen Suwardi mengharuskan siswa saat pembelajaran jarak jauh (PJJ) atau daring tetap mengenakan seragam sekolah. #sragen #jateng #psbb #COVID19 
+Baca : https://t.co/1GE3PHj9q1 https://t.co/BjIejSBqI3</t>
+  </si>
+  <si>
+    <t>SragenInfo1</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 08:21:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>@arkacbane pembelajaran jarak jauh, fin</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 07:09:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran jarak jauh dipastikan berlanjut pascagempa yang melanda Sulawesi Barat. Selain menghindari risiko penularan Covid-19, model pembelajaran itu dipilih karena banyaknya bangunan sekolah yang rusak akibat gempa. #Dikbud #AdadiKompas https://t.co/9avWcuvtx7</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 04:15:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh, Nilai Akademi Siswa Menurun
+@Kemdikbud_RI
+ https://t.co/2to1cCvCjS</t>
+  </si>
+  <si>
+    <t>Siklus_Berita</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 04:12:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Trik Jitu Membuat Teks Prosedur dalam Pembelajaran Jarak Jauh https://t.co/NJ4iDo7HoE</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 03:50:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>need jasa bikin narasi cerita 750 kata tentang pembelajaran jarak jauh ada gak? drop kisaran feenya ya 🥺
+#zonauang #zonaba #zonajajan #zonalelang</t>
+  </si>
+  <si>
+    <t>Nohrth</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 02:30:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ramai siswi non muslim pakai jilbab ke sekolah,, padahal pembelajaran jarak jauh (pjj)
+Lieur ah...</t>
+  </si>
+  <si>
+    <t>a_ming_tse</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 02:00:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>@SandyRiesta pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>pumipatology</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 01:43:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>@browngyu dulu juga 1 lg, yg mas2 bilang "pembelajaran jarak jauh atau PJJ" sebel pokoknya 😭😭</t>
+  </si>
+  <si>
+    <t>kthouchhh</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 01:42:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Senin 25 Januari 2021 bagi siswa yang mengikuti pembelajaran jarak jauh. https://t.co/aFQhpSOCAV</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 22:25:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wakil Ketua Komisi X DPR RI Hetifah Sjaifudian meminta pembelajaran jarak jauh (PJJ) harus segera dilakukan penelitian secara berkala dan berbasis evidence. #DPRRI https://t.co/v1R3ohbSt8</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 14:48:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pertama masuk semester 2, isu Pembelajaran Jarak Jauh (PJJ) sampai tanggal 16 Januari. Pas udah berjalan seminggu diperpanjang sampai 30 Januari. Pas udah sampai minggu ke-3 diperpanjang lagi sampai 8 Februari. YaAllah, anak²ku apa kabar (?)</t>
+  </si>
+  <si>
+    <t>devyayu25</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 12:33:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>@collegemfs Pengaruh stres akademik pada self efficacy mahasiswa pada saat pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>waffloves</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 12:25:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Belajar Tatap Muka Ditunda, Disdik Klaten Maksimalkan Zoom Meeting untuk Pembelajaran Jarak Jauh https://t.co/OAwUWdXgNI</t>
+  </si>
+  <si>
+    <t>kumpulanjogja</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 11:42:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Untuk mendukung pendidikan yang bisa diakses oleh semua, UNICEF terus mendukung program pemerintah dalam menjalankan pembelajaran jarak jauh yang menjangkau semua anak dan remaja. Ini akan membantu mereka untuk memiliki kehidupan yang sejahtera di masa depan.</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 11:42:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat Hari Pendidikan Internasional!​
+Penutupan sekolah karena pandemi #COVID19 menyebabkan sekitar 60 juta siswa tidak dapat bersekolah sejak awal bulan Maret, sehingga mereka harus beradaptasi dengan pembelajaran jarak jauh. https://t.co/vzx2IADzqg</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 11:42:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ini yang dirasakan oleh Ibu N. Suryani Kepala Sekolah SDN Curug II. Muncul masalah-masalah yang berkaitan dengan kegiatan pembelajaran jarak jauh ini. DImulai dari kegiatan pembelajaran yang belum efektif, keterbatasan siswa dalam menggunakan handphone</t>
+  </si>
+  <si>
+    <t>INSPIRASI_Fndtn</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 10:50:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Memasuki tahun 2021, Pembelajaran Jarak jauh (PJJ) masih diterapkan di berbagai daerah akibat pandemi yang belum juga usai. PJJ membawa tantangan tersendiri bagi kepala sekolah karena mereka diharuskan untuk #MemimpinDariRumah.</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 10:50:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Banyak Sekolah Rusak, Pembelajaran Jarak Jauh Berlanjut Pascagempa Sulbar
+https://t.co/TGBkbmHwyj</t>
+  </si>
+  <si>
+    <t>VidelJemali</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 07:42:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kondisi pembelajaran daring berpotensi menghadirkan education death (Syafril, 2020). Praktik di lapangan masih menemui banyak tantangan manakala program pembelajaran jarak jauh
+Selengkapnya https://t.co/fEyeGxuveo oleh Nurlia Dian Paramita</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 07:04:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>sch! guys, kira-kira judul yang menarik buat artikel bertema pembelajaran jarak jauh tuh apa ya?
+✄・・・
+🤔 Trivia: Jaringan tiang/palisade merupakan tempat fotosintesis pada daun</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 06:37:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>@albertsamuel28 @jokowi @kaesangp Krn kita ga banyak bedanya dg org di Afrika.
+https://t.co/Moz4Bh0v0j</t>
+  </si>
+  <si>
+    <t>ISalutem</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 06:11:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>KPAI menilai kegiatan pembelajaran jarak jauh telah menciptakan kesenjangan di antara murid-murid untuk dapat mengakses pendidikan - #Nasional https://t.co/i5WR3JW1Kw</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 04:40:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Bagi Siswa, Ketahui Dampak Baik dan Buruknya -  https://t.co/Jhs9avnMpe</t>
+  </si>
+  <si>
+    <t>sekolahdasar</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 04:15:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pandemi COVID-19 masih belum selesai sehingga guru dan siswa masih menjalani Pembelajaran Jarak Jauh (PJJ). Oleh karena itu, REFO mengangkat tema PJJ Interaktif dengan jadwal webinar sebagai berikut: https://t.co/jtyZffvXxY</t>
+  </si>
+  <si>
+    <t>webseminar_id</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 00:32:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gak apa apa pak, belajar tidak ada batas waktunya, yang penting selamat saja dulu.
+https://t.co/K8bSgGQDuI</t>
+  </si>
+  <si>
+    <t>mulanbilqis</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 21:23:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gampang lah, kalau protesnya dimaksudkan agar anak anak tidak mampu bisa difasilitasi perangkat dan internetnya itu bagus.
+Tetapi jika protesnya dimaksudkan agar anak anak sekolah tatap muka seperti biasa di tengah pandemi, ini sungguh bodoh.
+https://t.co/rmy8DLB9au</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 21:17:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh (PJJ) Fase Kedua, Masih Banyak Keluhan? https://t.co/Wz2mhqd9KD</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 20:45:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>JAKARTA - Kementerian Pendidikan dan Kebudayaan (Kemendikbud) menilai, dalam masa Pembelajaran Jarak Jauh (PJJ), orang tua memiliki peran besar dalam mendampingi anaknya https://t.co/2e5PFD1K5T</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 16:01:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pandemi ini anak2 diharuskan Pembelajaran Jarak Jauh/PJJ. Butuh gadget yang tangguh utk mendukung PJJ slm pandemi. 
+Dan ASUS Vivobook 14 A416 bisa jadi solusi saat PJJ gini. 
+Lengkapnya cuzz aja ke blog mba @ArdaSitepu yuk
+#BWYoAyoProject
+https://t.co/DR5fi64dIu</t>
+  </si>
+  <si>
+    <t>ennymamito</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 15:22:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Covid19
+Sekolah ga boleh tatap muka
+Pembelajaran Jarak Jauh
+Belajar Dari Rumah
+Hasilnya 
+Berbadan dua. 🤦
+Nilai sekolah ga dapet malah dapet bayi. 
+Swep -
+Tespek +</t>
+  </si>
+  <si>
+    <t>irvanded</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 14:27:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nah, saat pembelajaran jarak jauh (PJJ) seperti ini, tentunya kita sudah tidak asing dengan kegiatan presentasi. Baik presentasi individu maupun presentasi kelompok sebagai tugas kuliah secara online.</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 13:56:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kesenjangan itu dapat terjadi karena ada disparitas dalam mengakses internet antara anak dari keluarga kaya dan anak dari keluarga miskin. https://t.co/Px72pFjz9e</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 13:07:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kemendikbud Akui Pembelajaran Jarak Jauh Menurunkan Kualitas Belajar https://t.co/m0YjGKRBwk</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 08:51:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>@Antoine44143382 @A6Ridwan @imultea @Ekomaung pembelajaran jarak jauh tea ieu mah</t>
+  </si>
+  <si>
+    <t>duaaenam</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 08:49:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kemendikbud Akui Pembelajaran Jarak Jauh Menurunkan Kualitas Belajar https://t.co/XHlkIRWQM2</t>
+  </si>
+  <si>
+    <t>riausky</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 07:36:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pendidikan Karakter harus lebih ditonjolkan disaat seperti ini https://t.co/9eSjlrbh6B</t>
+  </si>
+  <si>
+    <t>Harkenkuken</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 07:32:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Materi pelajaran yang diberikan guru kadang-kadang belum tentu dapat dipahami murid saat belajar tatap muka di sekolah. "Apalagi ini, jarak jauh." https://t.co/78cQrQibMp</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 07:24:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>@innamisme1 Sekolah daring kakak, pembelajaran jarak jauh😁</t>
+  </si>
+  <si>
+    <t>Penol86</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 06:24:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menurut survei KPAI banyak murid sekolah kesulitan memahami materi pelajaran melalui pembelajaran jarak jauh. https://t.co/UIXQDOgohu</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 06:00:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menteri Pendidikan dan Kebudayaan (Mendikbud), Nadiem Makarim, meminta pemda mempertimbangkan pembelajaran tatap muka (PTM) untuk daerah yang sulit pembelajaran jarak jauh (PJJ).
+#Validnews #Pendidikan
+https://t.co/6YqSgOUovT</t>
+  </si>
+  <si>
+    <t>validnewsid</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 02:33:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Bagi Siswa, Ketahui Dampak Baik dan Buruknya https://t.co/kvEBtt0kBR https://t.co/yNOR62Lrsu</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 01:29:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh Bagi Siswa, Ketahui Dampak Baik dan Buruknya: Pembelajaran daring menggunakan model interaktif.Pembelajaran jarak jauh bagi siswa yang dilakukan selama pandemi Covid-19 ini memberikan dampak positif dan negatif. Seperti yang kita… https://t.co/tO5NbImaKq https://t.co/901lHkk2k2</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 01:19:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Apakah Anda seorang guru yang sedang mempersipakan pembelajaran jarak jauh untuk siswa? TPD@Scale Coalition mempersiapkan panduan pembelajaran jarak jauh untuk membantu Bapak/Ibu dalam mempersiapkan pembelajaran selama masa pandemik. (tr. @psfoundation)
+https://t.co/9I8UPAE2Zz https://t.co/12Xlx8et1E</t>
+  </si>
+  <si>
+    <t>TPDatScale</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 00:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mendikbud Ingatkan Ada Peran Orang Tua dan Guru dalam Kelancaran Pembelajaran Jarak Jauh https://t.co/SRlWWzNxGH https://t.co/mN7pkL4USc</t>
+  </si>
+  <si>
+    <t>FaktaNew5</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 22:52:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>@JUJUTSUFESS Pembelajaran jarak jauh, min 😅😅</t>
+  </si>
+  <si>
+    <t>joyfool55</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 17:49:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Anjuran Mendikbud Bila Pembelajaran Jarak Jauh Sulit Diterapkan https://t.co/qCxgrzuWhf</t>
+  </si>
+  <si>
+    <t>20detik</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 15:59:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ssaattt... Kemendikbutnya lahi sibuk mikirin pembelajaran tatap muka atau pembelajaran jarak jauh, dari dulu ga selesai2. Wkwkwkkw https://t.co/1odHzCTrVs</t>
+  </si>
+  <si>
+    <t>jubel122905</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 15:21:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>*Ular pithon masuk sekolah
+Presenter berita: "ular ini masuk sekolah tentu saja bukan untuk belajar, karena sekolah masih menerapkan pembelajaran jarak jauh selama pandemi"
+🙂</t>
+  </si>
+  <si>
+    <t>Kamsuhamida</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 15:12:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>PEMBELAJARAN jarak jauh (PJJ) berpotensi terjadinya learning loss (kehilangan kompetensi belajar). Satu- satunya cara meminimalisirnya Mendikbud Nadiem adalah pembelajaran tatap muka.  https://t.co/CXlny4Mrpx</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 14:11:24 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -12491,10 +13670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1658"/>
+  <dimension ref="A1:D1816"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1638" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1654" sqref="J1654"/>
+    <sheetView tabSelected="1" topLeftCell="A1800" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M1825" sqref="M1825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35711,6 +36890,2218 @@
         <v>3066</v>
       </c>
     </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1659">
+        <v>1.3547971329270459E+18</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1660">
+        <v>1.3547921020858371E+18</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1661">
+        <v>1.3547866469992241E+18</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>3670</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>3671</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1662">
+        <v>1.354778661430338E+18</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1663">
+        <v>1.3547577036088809E+18</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1664">
+        <v>1.354749417010516E+18</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>3679</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1665">
+        <v>1.354741468540223E+18</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1666">
+        <v>1.354725457057386E+18</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1667">
+        <v>1.354725253163807E+18</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1668">
+        <v>1.3547239702982531E+18</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1669">
+        <v>1.3547195363274509E+18</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1670">
+        <v>1.354719517214089E+18</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1671">
+        <v>1.354715214894174E+18</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>3698</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1672">
+        <v>1.3547150915606689E+18</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1673">
+        <v>1.3547147502029581E+18</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>3704</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>3705</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1674">
+        <v>1.354712940025246E+18</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1675">
+        <v>1.3547078625979971E+18</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1676">
+        <v>1.3547060630780401E+18</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1677">
+        <v>1.3547013438318469E+18</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>3716</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1678">
+        <v>1.3546974203832479E+18</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1679">
+        <v>1.3546966856376691E+18</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1680">
+        <v>1.3546908222943109E+18</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1681">
+        <v>1.3546899828797891E+18</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1682">
+        <v>1.354689935391945E+18</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1683">
+        <v>1.354658826440479E+18</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1684">
+        <v>1.3546582963895419E+18</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1685">
+        <v>1.3546483792889979E+18</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>3741</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1686">
+        <v>1.3546432797787341E+18</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1687">
+        <v>1.3546287812274829E+18</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1688">
+        <v>1.3546170018769349E+18</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1689">
+        <v>1.3546083190050371E+18</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1690">
+        <v>1.3545912580610739E+18</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1691">
+        <v>1.354588895678091E+18</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1692">
+        <v>1.3545838597954309E+18</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1693">
+        <v>1.354405728430133E+18</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1694">
+        <v>1.354404578297483E+18</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>3764</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1695">
+        <v>1.3544012670328051E+18</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1696">
+        <v>1.35437287444686E+18</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>998</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1697">
+        <v>1.3543660113323909E+18</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1698">
+        <v>1.3543464915618611E+18</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>3774</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1699">
+        <v>1.35434542274818E+18</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1700">
+        <v>1.354309664582889E+18</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>3779</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1701">
+        <v>1.354309041850175E+18</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1702">
+        <v>1.3542949042481229E+18</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>3784</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>3785</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1703">
+        <v>1.354290717292564E+18</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>3788</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1704">
+        <v>1.354282224837751E+18</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1705">
+        <v>1.354254651210699E+18</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>3794</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1706">
+        <v>1.354249559690473E+18</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1707">
+        <v>1.354197692000289E+18</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1708">
+        <v>1.354117154312917E+18</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1709">
+        <v>1.3541149031250491E+18</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>3805</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1710">
+        <v>1.3540891869875651E+18</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1711">
+        <v>1.3540650715177569E+18</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>3811</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1712">
+        <v>1.35405902308814E+18</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1713">
+        <v>1.3540474699995011E+18</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>3815</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>3816</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1714">
+        <v>1.3540451016647759E+18</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>3818</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1715">
+        <v>1.354026955524329E+18</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>3821</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1716">
+        <v>1.353988925702828E+18</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1717">
+        <v>1.3539889175617129E+18</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1718">
+        <v>1.353979835693953E+18</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1719">
+        <v>1.3539750165729029E+18</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>3832</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>1.353970129911116E+18</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>3835</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>1.353968620372521E+18</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1722">
+        <v>1.353964787059679E+18</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1723">
+        <v>1.3539536550832909E+18</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1724">
+        <v>1.3539533520154711E+18</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1725">
+        <v>1.3539512133733829E+18</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1726">
+        <v>1.353921543085036E+18</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1727">
+        <v>1.353909078502892E+18</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1728">
+        <v>1.3538792102558149E+18</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1729">
+        <v>1.3538412114889651E+18</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1730">
+        <v>1.353826878390378E+18</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1731">
+        <v>1.3538071107446249E+18</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1732">
+        <v>1.3536970212370719E+18</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>3865</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1733">
+        <v>1.3536790567562079E+18</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1734">
+        <v>1.3536777497018939E+18</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>3871</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1735">
+        <v>1.353675695873012E+18</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>3874</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1736">
+        <v>1.3536754962575401E+18</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>1.353672327515447E+18</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>1.3536716631041019E+18</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>1.3536647992807749E+18</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>1.3536646065063491E+18</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>1.3536583012050291E+18</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>3889</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>1.353657436704535E+18</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>1.3536574317844439E+18</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>1.3536539600122591E+18</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>1.353653051173728E+18</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>1.3536512079784059E+18</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>1.35361894920466E+18</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>1.3536008245936819E+18</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>1.35355695400688E+18</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>1.3535562830397279E+18</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1751">
+        <v>1.3535507031013581E+18</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>1.3535307405043671E+18</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>1.353523123002302E+18</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>1.3535187946819789E+18</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>3922</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>1.3535185832764659E+18</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>1.3534690131085069E+18</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>3927</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>1.35335387028242E+18</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>1.3533200179920279E+18</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>3931</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>1.353317982475178E+18</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>1.353307193357963E+18</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>3937</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>3938</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>1.3533071067498051E+18</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>1.35330710323071E+18</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>1.3532940505105979E+18</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>1.3532940483252959E+18</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1765">
+        <v>1.3532468651568289E+18</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1766">
+        <v>1.3532370958847429E+18</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1767">
+        <v>1.3532303241975191E+18</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1768">
+        <v>1.3532237983302861E+18</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1769">
+        <v>1.3532008569555761E+18</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1770">
+        <v>1.353194573410038E+18</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1771">
+        <v>1.353138448194912E+18</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1772">
+        <v>1.3530909416833311E+18</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1773">
+        <v>1.3530895935291231E+18</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1774">
+        <v>1.3530813309054321E+18</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1775">
+        <v>1.3530100344987891E+18</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1776">
+        <v>1.3530000618236349E+18</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>3977</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>1.3529863578245571E+18</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>1.3529784334463549E+18</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>1.352966072832414E+18</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>1.3529017077268969E+18</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>1.3529012272232901E+18</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>3989</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>1.3528828992346071E+18</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>3992</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>1.352881964756308E+18</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>3995</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>1.352879749270389E+18</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>1.352864773763809E+18</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>4000</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>1.352858619432235E+18</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>1.352806508623487E+18</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>1.352790415674548E+18</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>1.3527878943735519E+18</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1790">
+        <v>1.3527680051602601E+18</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>4012</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1791">
+        <v>1.3527509088037519E+18</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1792">
+        <v>1.3526747412245261E+18</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>4018</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1793">
+        <v>1.3526469685484631E+18</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1794">
+        <v>1.352637584200012E+18</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1795">
+        <v>1.3526353467820969E+18</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1796">
+        <v>1.35261987815954E+18</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1797">
+        <v>1.352594548376052E+18</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1798">
+        <v>1.352570407828693E+18</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1799">
+        <v>1.352560861550764E+18</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1800">
+        <v>1.352544892891902E+18</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1801">
+        <v>1.35254409186354E+18</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1802">
+        <v>1.3525422206922829E+18</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1803">
+        <v>1.352541758937321E+18</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1804">
+        <v>1.3525391401395651E+18</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1805">
+        <v>1.3525046915281101E+18</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1806">
+        <v>1.352477033985569E+18</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1807">
+        <v>1.352469660646601E+18</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1808">
+        <v>1.3524655777097201E+18</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1809">
+        <v>1.352462704707924E+18</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1810">
+        <v>1.3524625717317839E+18</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1811">
+        <v>1.3524623572266071E+18</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1812">
+        <v>1.3524606867653839E+18</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1813">
+        <v>1.3524588736096709E+18</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1814">
+        <v>1.3524562772055081E+18</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1815">
+        <v>1.3524449424554639E+18</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1816">
+        <v>1.3524410290314319E+18</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>3421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
